--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29260D2-02B6-424D-A828-7A0E93EEDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCDF13-0B62-4B27-9AC6-B3C14B720708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="30">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>Power, X2_with_LDAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66688ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000Causals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000Causals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +516,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -541,14 +557,14 @@
       <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5">
-        <v>66688</v>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E2" s="4">
         <v>0.1</v>
       </c>
-      <c r="F2" s="4">
-        <v>1000</v>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -567,14 +583,14 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5">
-        <v>66688</v>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3">
-        <v>1000</v>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -593,14 +609,14 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5">
-        <v>66688</v>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0.9</v>
       </c>
-      <c r="F4">
-        <v>1000</v>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -619,14 +635,14 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5">
-        <v>66688</v>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5">
-        <v>10000</v>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -645,14 +661,14 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5">
-        <v>66688</v>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="F6">
-        <v>10000</v>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -671,14 +687,14 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
-        <v>66688</v>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0.9</v>
       </c>
-      <c r="F7">
-        <v>10000</v>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -697,14 +713,14 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>10000</v>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="F8">
-        <v>1000</v>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -723,14 +739,14 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>10000</v>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F9">
-        <v>1000</v>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -749,14 +765,14 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>10000</v>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="F10">
-        <v>1000</v>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -775,14 +791,14 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11">
-        <v>10000</v>
+      <c r="D11" t="s">
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="F11">
-        <v>10000</v>
+      <c r="F11" t="s">
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -801,14 +817,14 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12">
-        <v>10000</v>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
-      <c r="F12">
-        <v>10000</v>
+      <c r="F12" t="s">
+        <v>28</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -827,14 +843,14 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13">
-        <v>10000</v>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0.9</v>
       </c>
-      <c r="F13">
-        <v>10000</v>
+      <c r="F13" t="s">
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -853,14 +869,14 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="5">
-        <v>66688</v>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="F14">
-        <v>1000</v>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -879,14 +895,14 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5">
-        <v>66688</v>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
-      <c r="F15">
-        <v>1000</v>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -905,14 +921,14 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5">
-        <v>66688</v>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0.9</v>
       </c>
-      <c r="F16">
-        <v>1000</v>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -931,14 +947,14 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5">
-        <v>66688</v>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0.1</v>
       </c>
-      <c r="F17">
-        <v>10000</v>
+      <c r="F17" t="s">
+        <v>28</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -957,14 +973,14 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5">
-        <v>66688</v>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="F18">
-        <v>10000</v>
+      <c r="F18" t="s">
+        <v>28</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -983,14 +999,14 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5">
-        <v>66688</v>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0.9</v>
       </c>
-      <c r="F19">
-        <v>10000</v>
+      <c r="F19" t="s">
+        <v>28</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1009,14 +1025,14 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20">
-        <v>10000</v>
+      <c r="D20" t="s">
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20">
-        <v>1000</v>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1035,14 +1051,14 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21">
-        <v>10000</v>
+      <c r="D21" t="s">
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="F21">
-        <v>1000</v>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1061,14 +1077,14 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>10000</v>
+      <c r="D22" t="s">
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0.9</v>
       </c>
-      <c r="F22">
-        <v>1000</v>
+      <c r="F22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1087,14 +1103,14 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>10000</v>
+      <c r="D23" t="s">
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0.1</v>
       </c>
-      <c r="F23">
-        <v>10000</v>
+      <c r="F23" t="s">
+        <v>28</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -1113,14 +1129,14 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>10000</v>
+      <c r="D24" t="s">
+        <v>27</v>
       </c>
       <c r="E24">
         <v>0.5</v>
       </c>
-      <c r="F24">
-        <v>10000</v>
+      <c r="F24" t="s">
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1139,14 +1155,14 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>10000</v>
+      <c r="D25" t="s">
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0.9</v>
       </c>
-      <c r="F25">
-        <v>10000</v>
+      <c r="F25" t="s">
+        <v>28</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1182,7 +1198,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1228,8 +1244,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>6.0843008401563896</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.13478545187155999</v>
+      </c>
+      <c r="F2">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="G2" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1238,8 +1267,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>2.1728633510381501</v>
+      </c>
+      <c r="D3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.84630221760857005</v>
+      </c>
+      <c r="F3">
+        <v>0.95996275605214199</v>
+      </c>
+      <c r="G3" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1248,7 +1290,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>5.70604959722003</v>
+      </c>
+      <c r="D4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.401028830565623</v>
+      </c>
+      <c r="F4">
+        <v>0.972067039106145</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1257,7 +1313,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>20.460358056265999</v>
+      </c>
+      <c r="D5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.18994000459204499</v>
+      </c>
+      <c r="F5">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1266,8 +1336,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>3.6203698162886702</v>
+      </c>
+      <c r="D6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.15103992830139201</v>
+      </c>
+      <c r="F6">
+        <v>1.01769087523277</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1276,7 +1359,6 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCDF13-0B62-4B27-9AC6-B3C14B720708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5642E-825A-4137-8F5F-8DA9C8B3940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="31">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power, X2_with_LDAK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66688ind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +160,14 @@
   </si>
   <si>
     <t>1000Causals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, X2_with_LDAK(P-value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(P-value)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,13 +230,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD888B34-CDA7-4672-913D-F81C3835A4F4}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
@@ -558,13 +563,13 @@
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
         <v>0.1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -584,13 +589,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -610,13 +615,13 @@
         <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0.9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -636,13 +641,13 @@
         <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -662,13 +667,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -688,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0.9</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -714,13 +719,13 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -740,13 +745,13 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -766,13 +771,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0.9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -792,13 +797,13 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -818,13 +823,13 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -844,13 +849,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0.9</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -870,13 +875,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0.1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -896,13 +901,13 @@
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -922,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0.9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -948,13 +953,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -974,13 +979,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1000,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0.9</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1026,13 +1031,13 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0.1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1052,13 +1057,13 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0.5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1078,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0.9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1104,13 +1109,13 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -1130,13 +1135,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0.5</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1156,13 +1161,13 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0.9</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1197,15 +1202,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.58203125" customWidth="1"/>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="9" width="15.58203125" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1216,13 +1224,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1245,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6.0843008401563896</v>
+        <v>1.36388331147374E-2</v>
       </c>
       <c r="D2" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.13478545187155999</v>
+        <v>0.71352101957502101</v>
       </c>
       <c r="F2">
         <v>1.0167597765363099</v>
@@ -1268,13 +1276,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.1728633510381501</v>
+        <v>0.14046448123032301</v>
       </c>
       <c r="D3">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>0.84630221760857005</v>
+        <v>0.357600531578672</v>
       </c>
       <c r="F3">
         <v>0.95996275605214199</v>
@@ -1291,13 +1299,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.70604959722003</v>
+        <v>1.6906543176460401E-2</v>
       </c>
       <c r="D4">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E4">
-        <v>0.401028830565623</v>
+        <v>0.52655840375530205</v>
       </c>
       <c r="F4">
         <v>0.972067039106145</v>
@@ -1314,13 +1322,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>20.460358056265999</v>
+        <v>6.0879185372595898E-6</v>
       </c>
       <c r="D5">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E5">
-        <v>0.18994000459204499</v>
+        <v>0.66296655585615505</v>
       </c>
       <c r="F5">
         <v>0.98044692737430195</v>
@@ -1337,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.6203698162886702</v>
+        <v>5.70761844890776E-2</v>
       </c>
       <c r="D6">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>0.15103992830139201</v>
+        <v>0.69754353996699003</v>
       </c>
       <c r="F6">
         <v>1.01769087523277</v>
@@ -1359,10 +1367,26 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="6">
+        <f>AVERAGE(C2:C6)</f>
+        <v>4.5618425985827139E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>0.59163801014642803</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.9893854748603339</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>12.4</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1372,8 +1396,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>1.36388331147374E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.71352101957502101</v>
+      </c>
+      <c r="F8">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1382,7 +1419,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.14046448123032301</v>
+      </c>
+      <c r="D9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.32395967172742501</v>
+      </c>
+      <c r="F9">
+        <v>0.95716945996275604</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1391,8 +1442,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1.6906543176460401E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.52655840375530205</v>
+      </c>
+      <c r="F10">
+        <v>0.972067039106145</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1401,8 +1465,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>6.0879185372595898E-6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="F11">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1411,8 +1488,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>5.70761844890776E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.69754353996699003</v>
+      </c>
+      <c r="F12">
+        <v>1.01769087523277</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1421,11 +1511,26 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="6">
+        <f>AVERAGE(C8:C12)</f>
+        <v>4.5618425985827139E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <v>0.58490983817617859</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+        <v>0.98882681564245656</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+        <v>12.4</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1435,7 +1540,21 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>3.4782689962645497E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>8.4865703772227893E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.92644320297951599</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1444,7 +1563,21 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>2.4533034729389801E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E15">
+        <v>5.9982888355910702E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.91992551210428297</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1453,7 +1586,21 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>6.5038208597150097E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.0367977320066699E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.89199255121042798</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1462,7 +1609,21 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>3.5794642038345499E-5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E17">
+        <v>6.6390052310813893E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.92178770949720701</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1471,7 +1632,21 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="C18">
+        <v>2.0519784356655399E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E18">
+        <v>9.0764732849049103E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.89013035381750505</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1480,11 +1655,26 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="6">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1.727502491008881E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
+        <v>1.06E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <v>4.6136619008784817E-2</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+        <v>0.91005586592178778</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+        <v>11.6</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1494,10 +1684,21 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="E20">
+        <v>0.93079751496070195</v>
+      </c>
+      <c r="F20">
+        <v>0.99534450651769102</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1506,8 +1707,20 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.67892266507797105</v>
+      </c>
+      <c r="F21">
+        <v>0.98137802607076396</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1517,8 +1730,20 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.40566242840851502</v>
+      </c>
+      <c r="F22">
+        <v>0.96368715083798895</v>
+      </c>
+      <c r="G22">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,8 +1753,20 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E23">
         <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1.0009310986964599</v>
+      </c>
+      <c r="G23">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1539,8 +1776,20 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24">
-        <v>1</v>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.36711322054030798</v>
+      </c>
+      <c r="F24">
+        <v>1.04003724394786</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1550,12 +1799,26 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="C25" s="6">
+        <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:G25" si="12">AVERAGE(D20:D24)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="12"/>
+        <v>0.67649916579749925</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="12"/>
+        <v>0.99627560521415293</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB5642E-825A-4137-8F5F-8DA9C8B3940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35582B2-3BB5-4B58-BDE4-450B5C5BEBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="380" windowWidth="21550" windowHeight="12550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="30">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,23 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power, 5E-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power, 5E-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type I Error(X2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type I Error(Fraction)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type I Error(Num &lt; 1E-4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,15 +103,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># Individuals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>h2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># Causal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,27 +123,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66688ind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000ind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000Causals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000Causals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power, X2_with_LDAK(P-value)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type I Error(P-value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type I Error(Num &lt; 0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66688 ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 Causals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000 Causals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power, 1e-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,28 +524,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -560,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>25</v>
@@ -569,10 +565,10 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4">
         <v>0.01</v>
@@ -586,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>25</v>
@@ -595,10 +591,10 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4">
         <v>0.01</v>
@@ -612,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -621,10 +617,10 @@
         <v>0.9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4">
         <v>0.01</v>
@@ -638,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>25</v>
@@ -647,10 +643,10 @@
         <v>0.1</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4">
         <v>0.01</v>
@@ -664,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>25</v>
@@ -673,10 +669,10 @@
         <v>0.5</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4">
         <v>0.01</v>
@@ -690,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -699,10 +695,10 @@
         <v>0.9</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4">
         <v>0.01</v>
@@ -716,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -725,10 +721,10 @@
         <v>0.1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4">
         <v>0.01</v>
@@ -742,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -751,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4">
         <v>0.01</v>
@@ -768,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -777,10 +773,10 @@
         <v>0.9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H10" s="4">
         <v>0.01</v>
@@ -794,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -803,10 +799,10 @@
         <v>0.1</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H11" s="4">
         <v>0.01</v>
@@ -820,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -829,10 +825,10 @@
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4">
         <v>0.01</v>
@@ -846,7 +842,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -855,10 +851,10 @@
         <v>0.9</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H13" s="4">
         <v>0.01</v>
@@ -872,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
@@ -881,10 +877,10 @@
         <v>0.1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4">
         <v>0.01</v>
@@ -898,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>25</v>
@@ -907,10 +903,10 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H15" s="4">
         <v>0.01</v>
@@ -924,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>25</v>
@@ -933,10 +929,10 @@
         <v>0.9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H16" s="4">
         <v>0.01</v>
@@ -950,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>25</v>
@@ -959,10 +955,10 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4">
         <v>0.01</v>
@@ -976,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>25</v>
@@ -985,10 +981,10 @@
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H18" s="4">
         <v>0.01</v>
@@ -1002,7 +998,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>25</v>
@@ -1011,10 +1007,10 @@
         <v>0.9</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H19" s="4">
         <v>0.01</v>
@@ -1028,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1037,10 +1033,10 @@
         <v>0.1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4">
         <v>0.01</v>
@@ -1054,7 +1050,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1063,10 +1059,10 @@
         <v>0.5</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21" s="4">
         <v>0.01</v>
@@ -1080,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1089,10 +1085,10 @@
         <v>0.9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="4">
         <v>0.01</v>
@@ -1106,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1115,10 +1111,10 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H23" s="4">
         <v>0.01</v>
@@ -1132,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -1141,10 +1137,10 @@
         <v>0.5</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4">
         <v>0.01</v>
@@ -1158,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -1167,10 +1163,10 @@
         <v>0.9</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4">
         <v>0.01</v>
@@ -1200,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1216,7 +1212,7 @@
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,30 +1220,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1259,18 +1258,21 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0.71352101957502101</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>1.0167597765363099</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1279,21 +1281,24 @@
         <v>0.14046448123032301</v>
       </c>
       <c r="D3">
-        <v>1.0999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
         <v>0.357600531578672</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="1">
         <v>0.95996275605214199</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1302,21 +1307,24 @@
         <v>1.6906543176460401E-2</v>
       </c>
       <c r="D4">
-        <v>8.0000000000000002E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.52655840375530205</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>0.972067039106145</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1325,21 +1333,24 @@
         <v>6.0879185372595898E-6</v>
       </c>
       <c r="D5">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.66296655585615505</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="1">
         <v>0.98044692737430195</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1351,47 +1362,53 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.69754353996699003</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>1.01769087523277</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <f>AVERAGE(C2:C6)</f>
         <v>4.5618425985827139E-2</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
-        <v>1.0200000000000001E-2</v>
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.24E-2</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>0.59163801014642803</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
         <v>0.9893854748603339</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1403,18 +1420,21 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.71352101957502101</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>1.0167597765363099</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1423,21 +1443,24 @@
         <v>0.14046448123032301</v>
       </c>
       <c r="D9">
-        <v>1.0999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
         <v>0.32395967172742501</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="1">
         <v>0.95716945996275604</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1446,21 +1469,24 @@
         <v>1.6906543176460401E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0.52655840375530205</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="1">
         <v>0.972067039106145</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -1469,21 +1495,24 @@
         <v>6.0879185372595898E-6</v>
       </c>
       <c r="D11" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0.66296655585615505</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="1">
         <v>0.98044692737430195</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1495,47 +1524,53 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0.69754353996699003</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="1">
         <v>1.01769087523277</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6">
         <f>AVERAGE(C8:C12)</f>
         <v>4.5618425985827139E-2</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" ref="D13" si="4">AVERAGE(D8:D12)</f>
-        <v>1.0200000000000001E-2</v>
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.24E-2</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ref="E13" si="5">AVERAGE(E8:E12)</f>
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
         <v>0.58490983817617859</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13" si="6">AVERAGE(F8:F12)</f>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
         <v>0.98882681564245656</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" ref="G13" si="7">AVERAGE(G8:G12)</f>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1547,18 +1582,21 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>8.4865703772227893E-2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.92644320297951599</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1567,21 +1605,24 @@
         <v>2.4533034729389801E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
         <v>5.9982888355910702E-2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.91992551210428297</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1590,21 +1631,24 @@
         <v>6.5038208597150097E-3</v>
       </c>
       <c r="D16" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>1.0367977320066699E-2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.89199255121042798</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1613,21 +1657,24 @@
         <v>3.5794642038345499E-5</v>
       </c>
       <c r="D17" s="1">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>6.6390052310813893E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.92178770949720701</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1639,47 +1686,53 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>9.0764732849049103E-3</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.89013035381750505</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6">
         <f>AVERAGE(C14:C18)</f>
         <v>1.727502491008881E-2</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19" si="8">AVERAGE(D14:D18)</f>
-        <v>1.06E-2</v>
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.1600000000000001E-2</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" ref="E19" si="9">AVERAGE(E14:E18)</f>
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
         <v>4.6136619008784817E-2</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19" si="10">AVERAGE(F14:F18)</f>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
         <v>0.91005586592178778</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19" si="11">AVERAGE(G14:G18)</f>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
-      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1691,18 +1744,21 @@
         <v>0.03</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0.93079751496070195</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="1">
         <v>0.99534450651769102</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1711,21 +1767,24 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.0999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0.67892266507797105</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.98137802607076396</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1734,21 +1793,24 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>8.9999999999999993E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="F22">
         <v>0.40566242840851502</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.96368715083798895</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -1757,21 +1819,24 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1.7000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>1.0009310986964599</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1780,50 +1845,56 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1.2999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0.36711322054030798</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.04003724394786</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" s="6">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" ref="D25:G25" si="12">AVERAGE(D20:D24)</f>
-        <v>1.6E-2</v>
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.03</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
         <v>0.67649916579749925</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="12"/>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
         <v>0.99627560521415293</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="12"/>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1832,7 +1903,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1841,7 +1912,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1850,7 +1921,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1859,7 +1930,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -1868,10 +1939,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1887,15 +1958,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:G25"/>
+      <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1903,606 +1982,681 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>0.506841093185184</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.247497933112028</v>
       </c>
       <c r="G2" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1E-3</v>
+      <c r="C3">
+        <v>0.55370972937561902</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>35.160767404064998</v>
-      </c>
-      <c r="F3">
-        <v>5.7272727272727302</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.0881791017514E-7</v>
       </c>
       <c r="G3" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.2364990689013</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E4">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.27272727272727</v>
+        <v>0.199417055203471</v>
       </c>
       <c r="G4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0567970204841699</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>0.73305905974130803</v>
+      </c>
+      <c r="D5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E5">
         <v>1E-3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1.6335615906585299</v>
-      </c>
       <c r="F5">
-        <v>1.72727272727273</v>
+        <v>0.74405658048782797</v>
       </c>
       <c r="G5" s="1">
+        <v>0.98510242085661104</v>
+      </c>
+      <c r="H5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E6">
         <v>1E-3</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>1.0909090909090899</v>
+        <v>0.760632987760269</v>
       </c>
       <c r="G6" s="1">
+        <v>0.98603351955307295</v>
+      </c>
+      <c r="H6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
         <f>AVERAGE(C2:C6)</f>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+        <v>0.75872197646042228</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>7.3908695255081156</v>
-      </c>
-      <c r="F7" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>2.163636363636364</v>
-      </c>
-      <c r="G7" s="2">
+        <v>0.39032095307630127</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>23.8</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0631284916201107</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.41282966486579598</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.18504039082305199</v>
       </c>
       <c r="G8" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0586592178770999</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1E-3</v>
+        <v>0.55370972937561902</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>35.160767404064998</v>
-      </c>
-      <c r="F9">
-        <v>5.7272727272727302</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.52406320061412E-7</v>
       </c>
       <c r="G9" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.23929236499069</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E10">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.27272727272727</v>
+        <v>0.15864530091738999</v>
       </c>
       <c r="G10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.06238361266294</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
+        <v>0.73305905974130803</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E11">
         <v>1E-3</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.89297359959113698</v>
-      </c>
       <c r="F11">
-        <v>1.5454545454545501</v>
+        <v>0.96538212188566896</v>
       </c>
       <c r="G11" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.99720670391061506</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E12">
         <v>1E-3</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>4.1671324849230203E-2</v>
-      </c>
       <c r="F12">
-        <v>1.1818181818181801</v>
+        <v>0.760632987760269</v>
       </c>
       <c r="G12" s="1">
+        <v>0.98603351955307295</v>
+      </c>
+      <c r="H12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
         <f>AVERAGE(C8:C12)</f>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+        <v>0.73991969079654463</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>7.2510861922644834</v>
-      </c>
-      <c r="F13" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>2.1454545454545459</v>
-      </c>
-      <c r="G13" s="2">
+        <v>0.41394019075853999</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0687150837988835</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.33190909415897701</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E14">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.72727272727272696</v>
+        <v>9.3319675500381297E-2</v>
       </c>
       <c r="G14">
+        <v>0.92830540037243903</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E15">
-        <v>1.5626164502245199</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.45454545454545497</v>
+        <v>8.4858148706769207E-3</v>
       </c>
       <c r="G15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.88919925512104303</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E16">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.27272727272727</v>
+        <v>0.74405658048782797</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>0.98510242085661104</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <v>0.85404554699083401</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E17" s="1">
         <v>1E-3</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.21054494808576399</v>
-      </c>
-      <c r="F17">
-        <v>0.72727272727272696</v>
+      <c r="F17" s="1">
+        <v>5.5792863694676702E-5</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
+        <v>0.67488902360907699</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
         <v>1E-3</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.94125099907908005</v>
-      </c>
       <c r="F18">
-        <v>0.54545454545454497</v>
+        <v>2.4955680335377699E-3</v>
       </c>
       <c r="G18">
-        <v>6</v>
+        <v>0.87337057728119205</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
         <f>AVERAGE(C14:C18)</f>
+        <v>0.77216873295177757</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>0.61699519565843541</v>
-      </c>
-      <c r="F19" s="2">
+        <v>0.16968268635122374</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>0.74545454545454481</v>
-      </c>
-      <c r="G19" s="2">
+        <v>0.90186219739292373</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>13.6</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1E-3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.6E-2</v>
       </c>
       <c r="E20">
-        <v>0.21054494808576399</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.72727272727272696</v>
+        <v>0.77731225170713303</v>
       </c>
       <c r="G20" s="1">
-        <v>8</v>
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E21">
-        <v>0.50004192247137602</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.63636363636363602</v>
+        <v>0.45728690816092699</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>0.96741154562383602</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E22">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.27272727272727</v>
+        <v>0.16495612064978399</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>1.0614525139664801</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.6E-2</v>
       </c>
       <c r="E23">
-        <v>5.0004658095770503E-2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.81818181818181801</v>
+        <v>0.33494191477993801</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>0.95810055865921795</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.282355641401214</v>
+      </c>
+      <c r="G24">
+        <v>0.95344506517690897</v>
+      </c>
+      <c r="H24">
         <v>13</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>1E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1.0909090909090899</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.4033705673397992</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98547486033519538</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C20:C24)</f>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.18412203229399188</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="3"/>
-        <v>0.90909090909090828</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2511,7 +2665,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2520,7 +2674,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2529,7 +2683,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2538,7 +2692,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -2547,10 +2701,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2566,18 +2720,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.08203125" customWidth="1"/>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2585,606 +2744,681 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>0.77345951900088195</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E2">
-        <v>1.2415470088229601</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.63636363636364</v>
+        <v>2.7620152836281098E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.09776536312849</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
+      <c r="C3">
+        <v>0.77002531690381204</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>44.3149569907361</v>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F3">
-        <v>6.6363636363636402</v>
+        <v>0.64715458268031201</v>
       </c>
       <c r="G3" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.97951582867784004</v>
+      </c>
+      <c r="H3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
+      <c r="C4">
+        <v>0.999999999999995</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="E4">
-        <v>0.50004192247137602</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.63636363636363602</v>
+        <v>0.192128267259605</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.05772811918063</v>
+      </c>
+      <c r="H4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1E-3</v>
+      <c r="C5" s="1">
+        <v>0.94443171223025502</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.03E-2</v>
       </c>
       <c r="E5">
-        <v>1.6335615906585299</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.72727272727273</v>
+        <v>0.27253595550542498</v>
       </c>
       <c r="G5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95251396648044695</v>
+      </c>
+      <c r="H5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
+      <c r="C6">
+        <v>0.52649565766580197</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E6">
-        <v>0.89297359959113698</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.5454545454545501</v>
+        <v>0.24446440207341</v>
       </c>
       <c r="G6" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.94972067039106101</v>
+      </c>
+      <c r="H6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
         <f>AVERAGE(C2:C6)</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+        <v>0.80288244116014906</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>9.7166162224560217</v>
-      </c>
-      <c r="F7" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>2.4363636363636396</v>
-      </c>
-      <c r="G7" s="2">
+        <v>0.27678067207100659</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>26.8</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0074487895716935</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.77345951900088195</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <v>1.2415470088229601</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.63636363636364</v>
+        <v>2.7620152836281098E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.09776536312849</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.77002531690381204</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>44.3149569907361</v>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F9">
-        <v>6.6363636363636402</v>
+        <v>0.66296655585615505</v>
       </c>
       <c r="G9" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="H9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.999999999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="E10">
-        <v>1.5626164502245199</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.45454545454545497</v>
+        <v>0.20690920796574</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.05586592178771</v>
+      </c>
+      <c r="H10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11">
-        <v>1E-3</v>
+      <c r="C11" s="1">
+        <v>0.88886967443195197</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E11">
-        <v>1.2415470088229601</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.63636363636364</v>
+        <v>0.27253595550542498</v>
       </c>
       <c r="G11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.95251396648044695</v>
+      </c>
+      <c r="H11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.52649565766580197</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E12">
-        <v>0.16001863281704901</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.27272727272727</v>
+        <v>0.24446440207341</v>
       </c>
       <c r="G12" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.94972067039106101</v>
+      </c>
+      <c r="H12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
         <f>AVERAGE(C8:C12)</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+        <v>0.79177003360048848</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.0060000000000001E-2</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>9.7041372182847176</v>
-      </c>
-      <c r="F13" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>2.3272727272727289</v>
-      </c>
-      <c r="G13" s="2">
+        <v>0.28289925484740219</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>25.6</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.007262569832402</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.90909090909090895</v>
+        <v>0.76223209737960795</v>
       </c>
       <c r="G14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.0139664804469299</v>
+      </c>
+      <c r="H14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.54358124325381196</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.50004192247137602</v>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F15">
-        <v>0.63636363636363602</v>
+        <v>3.3174387387234001E-2</v>
       </c>
       <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.90968342644320299</v>
+      </c>
+      <c r="H15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.71211299065479405</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E16">
-        <v>0.94125099907908005</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.54545454545454497</v>
+        <v>0.63149302198875101</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>0.97858472998137802</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>1E-3</v>
+      <c r="C17" s="1">
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E17">
-        <v>5.0004658095770503E-2</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.81818181818181801</v>
+        <v>3.7188927387801399E-4</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>0.85195530726256996</v>
+      </c>
+      <c r="H17">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.83034122032199398</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.90909090909090895</v>
+        <v>5.2883362163424303E-4</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>0.85567970204841703</v>
+      </c>
+      <c r="H18">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
         <f>AVERAGE(C14:C18)</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+        <v>0.81720709084611998</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
-        <v>0.29825951592924532</v>
-      </c>
-      <c r="F19" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>0.76363636363636334</v>
-      </c>
-      <c r="G19" s="2">
+        <v>0.28556004593022105</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>0.92197392923649946</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>94.4</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.0909090909090899</v>
+        <v>0.57524481981107201</v>
       </c>
       <c r="G20" s="1">
-        <v>12</v>
+        <v>1.0251396648044699</v>
+      </c>
+      <c r="H20">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1E-3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.50004192247137602</v>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F21">
-        <v>0.63636363636363602</v>
+        <v>0.384528284993089</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>0.94609665427509304</v>
+      </c>
+      <c r="H21">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E22">
-        <v>0.94125099907908005</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.54545454545454497</v>
+        <v>0.15864530091738999</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1.06238361266294</v>
+      </c>
+      <c r="H22">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="E23">
-        <v>6.25077630108061E-2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.28571428571429</v>
+        <v>0.30269229389545099</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>0.95530726256983201</v>
+      </c>
+      <c r="H23">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>8.9012877760807296E-2</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>0.92737430167597801</v>
+      </c>
+      <c r="H24">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
         <f>AVERAGE(C20:C24)</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="3"/>
-        <v>0.30076013691225245</v>
-      </c>
-      <c r="F25" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="3"/>
-        <v>0.9116883116883121</v>
-      </c>
-      <c r="G25" s="2">
+        <v>0.30202471547556187</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>0.98326029919766267</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3193,7 +3427,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3202,7 +3436,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3211,7 +3445,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -3220,7 +3454,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3229,10 +3463,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3248,12 +3482,761 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.77345951900088195</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2.7620152836281098E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.09776536312849</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.77002531690381204</v>
+      </c>
+      <c r="D3">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.64715458268031201</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.97951582867784004</v>
+      </c>
+      <c r="H3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="D4">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.192128267259605</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.05772811918063</v>
+      </c>
+      <c r="H4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.94443171223025502</v>
+      </c>
+      <c r="D5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.27253595550542498</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.95251396648044695</v>
+      </c>
+      <c r="H5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.52649565766580197</v>
+      </c>
+      <c r="D6">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.24446440207341</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94972067039106101</v>
+      </c>
+      <c r="H6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.80288244116014906</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27678067207100659</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0074487895716935</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.77345951900088195</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2.7620152836281098E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.09776536312849</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.77002531690381204</v>
+      </c>
+      <c r="D9">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F9">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="H9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.20690920796574</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.05586592178771</v>
+      </c>
+      <c r="H10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.88886967443195197</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.27253595550542498</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.95251396648044695</v>
+      </c>
+      <c r="H11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.52649565766580197</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.24446440207341</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.94972067039106101</v>
+      </c>
+      <c r="H12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.79177003360048848</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.0060000000000001E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.28289925484740219</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>1.007262569832402</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.76223209737960795</v>
+      </c>
+      <c r="G14">
+        <v>1.0139664804469299</v>
+      </c>
+      <c r="H14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.54358124325381196</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F15">
+        <v>3.3174387387234001E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.90968342644320299</v>
+      </c>
+      <c r="H15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.71211299065479405</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.63149302198875101</v>
+      </c>
+      <c r="G16">
+        <v>0.97858472998137802</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3.7188927387801399E-4</v>
+      </c>
+      <c r="G17">
+        <v>0.85195530726256996</v>
+      </c>
+      <c r="H17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.83034122032199398</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>5.2883362163424303E-4</v>
+      </c>
+      <c r="G18">
+        <v>0.85567970204841703</v>
+      </c>
+      <c r="H18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.81720709084611998</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.28556004593022105</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.92197392923649946</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.57524481981107201</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0251396648044699</v>
+      </c>
+      <c r="H20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.384528284993089</v>
+      </c>
+      <c r="G21">
+        <v>0.94609665427509304</v>
+      </c>
+      <c r="H21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.15864530091738999</v>
+      </c>
+      <c r="G22">
+        <v>1.06238361266294</v>
+      </c>
+      <c r="H22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.30269229389545099</v>
+      </c>
+      <c r="G23">
+        <v>0.95530726256983201</v>
+      </c>
+      <c r="H23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>8.9012877760807296E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.92737430167597801</v>
+      </c>
+      <c r="H24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.30202471547556187</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98326029919766267</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3261,12 +4244,761 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.94988674211619295</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.57046949415711801</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.97486033519553095</v>
+      </c>
+      <c r="H2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.170456251853841</v>
+      </c>
+      <c r="D3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1481081870698599E-5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.19832402234637</v>
+      </c>
+      <c r="H3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.19492511997804901</v>
+      </c>
+      <c r="D4">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.9798415747397805E-14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.35009310986965</v>
+      </c>
+      <c r="H4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.9043294207389801E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.6439847739270702E-10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.2886405959031699</v>
+      </c>
+      <c r="H5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.94689427987918096</v>
+      </c>
+      <c r="D6">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.23895639111687</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.0521415270018599</v>
+      </c>
+      <c r="H6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.46224113760693075</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.3620000000000002E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16188747334406339</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1728119180633161</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.94988674211619295</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.58547062618682699</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.97579143389199297</v>
+      </c>
+      <c r="H8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.21098363396125699</v>
+      </c>
+      <c r="D9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.9686569082759999E-5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.1927374301675999</v>
+      </c>
+      <c r="H9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.19492511997804901</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.1890758688521701E-14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.3510242085661099</v>
+      </c>
+      <c r="H10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.9043294207389801E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.6439847739270702E-10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.2886405959031699</v>
+      </c>
+      <c r="H11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.89379443551499904</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.230628632798242</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0530726256983201</v>
+      </c>
+      <c r="H12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.45972664515557754</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.3559999999999999E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16322378918372044</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1722532588454384</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>135.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.25923063689117698</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.7106916296500599E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.91154562383612703</v>
+      </c>
+      <c r="H14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.64247333429453901</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F15">
+        <v>7.4058251819760397E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.88733705772811899</v>
+      </c>
+      <c r="H15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.13365385103788499</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.47073087402844199</v>
+      </c>
+      <c r="G16">
+        <v>0.96834264432029804</v>
+      </c>
+      <c r="H16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.30948249438984399</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.12272324312465301</v>
+      </c>
+      <c r="G17">
+        <v>0.93389199255121003</v>
+      </c>
+      <c r="H17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.89379443551499904</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.52655840375530205</v>
+      </c>
+      <c r="G18">
+        <v>0.972067039106145</v>
+      </c>
+      <c r="H18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.44772695042568883</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.068E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.23290505247737475</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.93463687150837982</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.31320967818193601</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.95623836126629402</v>
+      </c>
+      <c r="H20">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="G21">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="H21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.87956682934598895</v>
+      </c>
+      <c r="G22">
+        <v>1.0074487895716899</v>
+      </c>
+      <c r="H22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.36927499650379297</v>
+      </c>
+      <c r="G23">
+        <v>0.960893854748603</v>
+      </c>
+      <c r="H23">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.23895639111687</v>
+      </c>
+      <c r="G24">
+        <v>1.0521415270018599</v>
+      </c>
+      <c r="H24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.204E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.46266186186137004</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.98957169459962591</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3274,12 +5006,765 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.61042731608168299</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.22251284264004001</v>
+      </c>
+      <c r="G2">
+        <v>1.05400372439479</v>
+      </c>
+      <c r="H2" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.90334067949516605</v>
+      </c>
+      <c r="D3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.79528948741880001</v>
+      </c>
+      <c r="G3">
+        <v>1.0121042830539999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.58405381002761003</v>
+      </c>
+      <c r="D4">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.4272020683090501E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.10893854748603</v>
+      </c>
+      <c r="H4" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73166968867080595</v>
+      </c>
+      <c r="D5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.35592429310670198</v>
+      </c>
+      <c r="G5">
+        <v>1.0409683426443199</v>
+      </c>
+      <c r="H5" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.61816645182683005</v>
+      </c>
+      <c r="D6">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2.2292293611512401E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.1014897579143399</v>
+      </c>
+      <c r="H6" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.68953158922041902</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.5539999999999998E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>0.28205818749202893</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>1.0635009310986958</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7" si="4">AVERAGE(H2:H6)</f>
+        <v>155.4</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.57567549602784696</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.17145702702179</v>
+      </c>
+      <c r="G8">
+        <v>1.06052141527002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.95149433189870103</v>
+      </c>
+      <c r="D9">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.61987491582129195</v>
+      </c>
+      <c r="G9">
+        <v>1.02234636871508</v>
+      </c>
+      <c r="H9" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.50493907292676499</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>2.3531948182228899E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.10055865921788</v>
+      </c>
+      <c r="H10" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.77471905487964798</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.42636668655355497</v>
+      </c>
+      <c r="G11">
+        <v>1.03538175046555</v>
+      </c>
+      <c r="H11" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.57568409784390295</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2.3531948182228899E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.10055865921788</v>
+      </c>
+      <c r="H12" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.67650241071537276</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13" si="5">AVERAGE(D8:D12)</f>
+        <v>1.558E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" ref="E13" si="6">AVERAGE(E8:E12)</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13" si="7">AVERAGE(F8:F12)</f>
+        <v>0.25295250515221895</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="8">AVERAGE(G8:G12)</f>
+        <v>1.063873370577282</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ref="H13" si="9">AVERAGE(H8:H12)</f>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.31356014460693499</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>2.96007996401275E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.90782122905027895</v>
+      </c>
+      <c r="H14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.34539545017929901</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.5240936715227296E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.88081936685288598</v>
+      </c>
+      <c r="H15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.37197019495491002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.4330180862779301E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.89664804469273696</v>
+      </c>
+      <c r="H16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.166285985886375</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.1303586154014799E-3</v>
+      </c>
+      <c r="G17">
+        <v>0.86405959031657398</v>
+      </c>
+      <c r="H17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.65207031844798002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.4417134115617899E-3</v>
+      </c>
+      <c r="G18">
+        <v>0.86685288640595903</v>
+      </c>
+      <c r="H18">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.36985641881509979</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19" si="10">AVERAGE(D14:D18)</f>
+        <v>1.308E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19" si="11">AVERAGE(E14:E18)</f>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19" si="12">AVERAGE(F14:F18)</f>
+        <v>1.0205429240278559E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" ref="G19" si="13">AVERAGE(G14:G18)</f>
+        <v>0.88324022346368702</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ref="H19" si="14">AVERAGE(H14:H18)</f>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.86255388039803904</v>
+      </c>
+      <c r="G20">
+        <v>1.0083798882681601</v>
+      </c>
+      <c r="H20" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.87956682934598895</v>
+      </c>
+      <c r="G21">
+        <v>1.0074487895716899</v>
+      </c>
+      <c r="H21">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1.32E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.98270692227788603</v>
+      </c>
+      <c r="G22">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="H22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="G23">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="H23">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.210232145687238</v>
+      </c>
+      <c r="G24">
+        <v>0.94599627560521404</v>
+      </c>
+      <c r="H24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:H25" si="15">AVERAGE(D20:D24)</f>
+        <v>1.4739999999999998E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="15"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="15"/>
+        <v>0.7766473686732176</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="15"/>
+        <v>0.99348230912476687</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="15"/>
+        <v>147.4</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35582B2-3BB5-4B58-BDE4-450B5C5BEBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF68102-8FAF-40C6-B82C-DF87A492939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,21 @@
     <sheet name="Trait31" sheetId="8" r:id="rId8"/>
     <sheet name="Trait32" sheetId="9" r:id="rId9"/>
     <sheet name="Trait33" sheetId="10" r:id="rId10"/>
+    <sheet name="Trait34" sheetId="11" r:id="rId11"/>
+    <sheet name="Trait35" sheetId="12" r:id="rId12"/>
+    <sheet name="Trait36" sheetId="13" r:id="rId13"/>
+    <sheet name="Trait37" sheetId="14" r:id="rId14"/>
+    <sheet name="Trait38" sheetId="15" r:id="rId15"/>
+    <sheet name="Trait39" sheetId="16" r:id="rId16"/>
+    <sheet name="Trait40" sheetId="17" r:id="rId17"/>
+    <sheet name="Trait41" sheetId="18" r:id="rId18"/>
+    <sheet name="Trait42" sheetId="19" r:id="rId19"/>
+    <sheet name="Trait43" sheetId="20" r:id="rId20"/>
+    <sheet name="Trait44" sheetId="21" r:id="rId21"/>
+    <sheet name="Trait45" sheetId="22" r:id="rId22"/>
+    <sheet name="Trait46" sheetId="23" r:id="rId23"/>
+    <sheet name="Trait47" sheetId="24" r:id="rId24"/>
+    <sheet name="Trait48" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="30">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,25 +1196,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1251,6 +1251,3557 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D5B127-EBB0-4EE1-87C7-798003C5686A}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B32B2-C93E-48BC-84CD-2D22E6B47A11}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0F4A-07C1-43A2-AEDC-E0CA256A5518}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59F079-BE89-4308-A5F3-447E9892B8B1}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EECEB8-E8FF-41C3-972E-3FC1A2544F02}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECA4403-F8D1-4751-999D-688582787D90}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F2C79-CE31-460A-A855-FB31D20F3B44}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5AAEF-BB3D-43CE-A7D2-C811D186D60D}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05735F4-FD3F-40F9-8685-B1D1CA0BCEFB}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" s="1">
         <v>1.36388331147374E-2</v>
       </c>
@@ -1891,6 +5442,2136 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8F91F-D772-4AEA-B0F5-38AD9DBAFC4F}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0B3140-E80F-4DAC-A3E2-9ADB8A68214F}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7278DC-9F10-4A42-A952-30AC21A8E626}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60BABD5-256D-4CC7-95AE-97F2251E7677}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C94F9-ECFF-4311-8DEF-E9CAD5877074}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61634976-D30A-4F21-A3DC-4D0E6EADF5B4}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5008,8 +10689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5772,12 +11453,354 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342CD54D-B350-4234-9D6A-F56A96F518EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5785,12 +11808,354 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32576D-7324-4E89-A691-F73DCAEAA290}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF68102-8FAF-40C6-B82C-DF87A492939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124946DA-D8D6-457F-B809-7E49EA0F9C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="32">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,13 @@
     <t>Power, 1e-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Power, Avg X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -241,11 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -564,28 +570,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>25</v>
       </c>
-      <c r="B2" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -599,19 +605,19 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -625,19 +631,19 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
         <v>0.9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -651,7 +657,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E5">
@@ -663,7 +669,7 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -677,7 +683,7 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E6">
@@ -689,7 +695,7 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -703,7 +709,7 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E7">
@@ -715,7 +721,7 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -735,13 +741,13 @@
       <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -761,13 +767,13 @@
       <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -787,13 +793,13 @@
       <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -819,7 +825,7 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -845,7 +851,7 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -871,7 +877,7 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -885,19 +891,19 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E14">
         <v>0.1</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -911,19 +917,19 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E15">
         <v>0.5</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -937,19 +943,19 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E16">
         <v>0.9</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -963,7 +969,7 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E17">
@@ -975,7 +981,7 @@
       <c r="G17" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -989,7 +995,7 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E18">
@@ -1001,7 +1007,7 @@
       <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1015,7 +1021,7 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E19">
@@ -1027,7 +1033,7 @@
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1047,13 +1053,13 @@
       <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1073,13 +1079,13 @@
       <c r="E21">
         <v>0.5</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1099,13 +1105,13 @@
       <c r="E22">
         <v>0.9</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1131,7 +1137,7 @@
       <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1157,7 +1163,7 @@
       <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1183,7 +1189,7 @@
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.01</v>
       </c>
     </row>
@@ -1196,23 +1202,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,22 +1237,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1266,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1275,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1284,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1294,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1292,21 +1303,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1327,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1325,7 +1336,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1346,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1357,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1356,21 +1367,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1390,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1399,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1423,12 +1434,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1478,12 +1489,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1551,23 +1562,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D5B127-EBB0-4EE1-87C7-798003C5686A}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1584,22 +1597,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1626,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1635,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1628,7 +1644,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1654,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1647,21 +1663,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1687,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1696,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1690,7 +1706,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1717,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1711,21 +1727,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +1750,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1759,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1778,12 +1794,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1833,12 +1849,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1907,23 +1923,25 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B32B2-C93E-48BC-84CD-2D22E6B47A11}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1940,22 +1958,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1987,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +1996,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1984,7 +2005,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +2015,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2003,21 +2024,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2048,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2057,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2067,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2057,7 +2078,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2067,21 +2088,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2111,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2120,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2134,12 +2155,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2189,12 +2210,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2262,23 +2283,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0F4A-07C1-43A2-AEDC-E0CA256A5518}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2295,22 +2318,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2347,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2356,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2365,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2375,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2358,21 +2384,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2408,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +2417,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2427,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2438,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2422,21 +2448,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2471,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2454,7 +2480,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2489,12 +2515,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2544,12 +2570,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2617,23 +2643,25 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59F079-BE89-4308-A5F3-447E9892B8B1}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2650,22 +2678,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2707,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2716,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2694,7 +2725,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2735,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2713,21 +2744,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2737,7 +2768,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2746,7 +2777,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2756,7 +2787,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2767,7 +2798,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2777,21 +2808,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2831,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2840,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2844,12 +2875,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2899,12 +2930,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2972,23 +3003,25 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EECEB8-E8FF-41C3-972E-3FC1A2544F02}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3005,22 +3038,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3067,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3076,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3049,7 +3085,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3095,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3068,21 +3104,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3128,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3137,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3111,7 +3147,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3122,7 +3158,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3132,21 +3168,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3155,7 +3191,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3164,7 +3200,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3199,12 +3235,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3254,12 +3290,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3327,23 +3363,25 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECA4403-F8D1-4751-999D-688582787D90}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3360,22 +3398,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3386,7 +3427,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3395,7 +3436,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3404,7 +3445,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3455,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3423,21 +3464,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3447,7 +3488,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3456,7 +3497,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3466,7 +3507,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +3518,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3487,21 +3528,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3510,7 +3551,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3519,7 +3560,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3554,12 +3595,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3609,12 +3650,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3682,23 +3723,25 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F2C79-CE31-460A-A855-FB31D20F3B44}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3715,22 +3758,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3741,7 +3787,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3796,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3759,7 +3805,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3769,7 +3815,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3778,21 +3824,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3848,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3811,7 +3857,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +3867,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3832,7 +3878,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3842,21 +3888,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3865,7 +3911,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3874,7 +3920,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3909,12 +3955,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3964,12 +4010,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4037,23 +4083,25 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5AAEF-BB3D-43CE-A7D2-C811D186D60D}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4070,22 +4118,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4147,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4105,7 +4156,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4114,7 +4165,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4124,7 +4175,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4133,21 +4184,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4157,7 +4208,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4166,7 +4217,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4227,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4187,7 +4238,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4197,21 +4248,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4220,7 +4271,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4229,7 +4280,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4264,12 +4315,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4319,12 +4370,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4392,23 +4443,25 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05735F4-FD3F-40F9-8685-B1D1CA0BCEFB}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4425,22 +4478,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4451,7 +4507,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4516,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4469,7 +4525,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4479,7 +4535,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4488,21 +4544,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4512,7 +4568,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4521,7 +4577,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4531,7 +4587,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4542,7 +4598,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -4552,21 +4608,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4575,7 +4631,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -4584,7 +4640,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -4619,12 +4675,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4674,12 +4730,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4747,23 +4803,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4780,22 +4838,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4812,16 +4873,19 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1.0714086510851399</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.71352101957502101</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>1.0167597765363099</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4838,16 +4902,19 @@
         <v>1E-3</v>
       </c>
       <c r="F3">
+        <v>1.07941068195059</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.357600531578672</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>0.95996275605214199</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4864,16 +4931,19 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>1.0349168020891699</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.52655840375530205</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4">
         <v>0.972067039106145</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4890,16 +4960,19 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0.965210042886125</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.66296655585615505</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>0.98044692737430195</v>
       </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4916,48 +4989,55 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>1.05213168222664</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.69754353996699003</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>1.01769087523277</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>AVERAGE(C2:C6)</f>
         <v>4.5618425985827139E-2</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
         <v>1.24E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.040615572047533</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0.59163801014642803</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>0.9893854748603339</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4974,16 +5054,19 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1.0714086510851399</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.71352101957502101</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>1.0167597765363099</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5000,16 +5083,19 @@
         <v>1E-3</v>
       </c>
       <c r="F9">
+        <v>1.07941068195059</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.32395967172742501</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>0.95716945996275604</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5026,16 +5112,19 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1.0349168020891699</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.52655840375530205</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>0.972067039106145</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5052,16 +5141,19 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0.965210042886125</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.66296655585615505</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>0.98044692737430195</v>
       </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5078,48 +5170,55 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1.05213168222664</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.69754353996699003</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>1.01769087523277</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>AVERAGE(C8:C12)</f>
         <v>4.5618425985827139E-2</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13" si="1">AVERAGE(D8:D12)</f>
         <v>1.24E-2</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13" si="2">AVERAGE(E8:E12)</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13" si="3">AVERAGE(F8:F12)</f>
+        <v>1.040615572047533</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13" si="4">AVERAGE(G8:G12)</f>
         <v>0.58490983817617859</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
+      <c r="H13" s="5">
+        <f t="shared" ref="H13" si="5">AVERAGE(H8:H12)</f>
         <v>0.98882681564245656</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13" si="6">AVERAGE(I8:I12)</f>
         <v>12.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5136,16 +5235,19 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1.0706627676009199</v>
+      </c>
+      <c r="G14">
         <v>8.4865703772227893E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.92644320297951599</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5162,16 +5264,19 @@
         <v>1E-3</v>
       </c>
       <c r="F15">
+        <v>1.0739281290542999</v>
+      </c>
+      <c r="G15">
         <v>5.9982888355910702E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.91992551210428297</v>
       </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5188,16 +5293,19 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1.03185475040194</v>
+      </c>
+      <c r="G16">
         <v>1.0367977320066699E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.89199255121042798</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -5214,16 +5322,19 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>0.95453165036663801</v>
+      </c>
+      <c r="G17">
         <v>6.6390052310813893E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.92178770949720701</v>
       </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -5240,48 +5351,55 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>1.0471786331371</v>
+      </c>
+      <c r="G18">
         <v>9.0764732849049103E-3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.89013035381750505</v>
       </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>AVERAGE(C14:C18)</f>
         <v>1.727502491008881E-2</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19" si="7">AVERAGE(D14:D18)</f>
         <v>1.1600000000000001E-2</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" si="2"/>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19" si="8">AVERAGE(E14:E18)</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19" si="9">AVERAGE(F14:F18)</f>
+        <v>1.0356311861121796</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19" si="10">AVERAGE(G14:G18)</f>
         <v>4.6136619008784817E-2</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="2"/>
+      <c r="H19" s="5">
+        <f t="shared" ref="H19" si="11">AVERAGE(H14:H18)</f>
         <v>0.91005586592178778</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19" si="12">AVERAGE(I14:I18)</f>
         <v>11.6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5298,16 +5416,19 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>1.4300441048993899</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.93079751496070195</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>0.99534450651769102</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5324,16 +5445,19 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>1.34621381859566</v>
+      </c>
+      <c r="G21">
         <v>0.67892266507797105</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.98137802607076396</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5350,16 +5474,19 @@
         <v>1E-3</v>
       </c>
       <c r="F22">
+        <v>1.45970306082545</v>
+      </c>
+      <c r="G22">
         <v>0.40566242840851502</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.96368715083798895</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5376,16 +5503,19 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>1.53058236105529</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>1.0009310986964599</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5402,48 +5532,55 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>1.34589002696231</v>
+      </c>
+      <c r="G24">
         <v>0.36711322054030798</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.04003724394786</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25" si="13">AVERAGE(D20:D24)</f>
         <v>0.03</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" si="3"/>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25" si="14">AVERAGE(E20:E24)</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="3"/>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25" si="15">AVERAGE(F20:F24)</f>
+        <v>1.4224866744676201</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25" si="16">AVERAGE(G20:G24)</f>
         <v>0.67649916579749925</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="3"/>
+      <c r="H25" s="5">
+        <f t="shared" ref="H25" si="17">AVERAGE(H20:H24)</f>
         <v>0.99627560521415293</v>
       </c>
-      <c r="H25" s="6">
-        <f t="shared" si="3"/>
+      <c r="I25" s="5">
+        <f t="shared" ref="I25" si="18">AVERAGE(I20:I24)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -5452,7 +5589,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -5461,7 +5598,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -5470,7 +5607,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -5479,7 +5616,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -5488,7 +5625,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -5509,23 +5646,25 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D8F91F-D772-4AEA-B0F5-38AD9DBAFC4F}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5542,22 +5681,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5568,7 +5710,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5577,7 +5719,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5586,7 +5728,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5596,7 +5738,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5605,21 +5747,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5629,7 +5771,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5780,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5648,7 +5790,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5659,7 +5801,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5669,21 +5811,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5692,7 +5834,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5701,7 +5843,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5736,12 +5878,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5791,12 +5933,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5864,23 +6006,25 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0B3140-E80F-4DAC-A3E2-9ADB8A68214F}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5897,22 +6041,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5923,7 +6070,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5932,7 +6079,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5941,7 +6088,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5951,7 +6098,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5960,21 +6107,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5984,7 +6131,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5993,7 +6140,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6003,7 +6150,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6014,7 +6161,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6024,21 +6171,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6047,7 +6194,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6056,7 +6203,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6091,12 +6238,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6146,12 +6293,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6219,23 +6366,25 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7278DC-9F10-4A42-A952-30AC21A8E626}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6252,22 +6401,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6278,7 +6430,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6287,7 +6439,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6296,7 +6448,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6306,7 +6458,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6315,21 +6467,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6339,7 +6491,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6348,7 +6500,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6358,7 +6510,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6521,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6379,21 +6531,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6402,7 +6554,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6411,7 +6563,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6446,12 +6598,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6501,12 +6653,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6574,23 +6726,25 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60BABD5-256D-4CC7-95AE-97F2251E7677}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6607,22 +6761,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6633,7 +6790,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6642,7 +6799,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6651,7 +6808,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6661,7 +6818,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6670,21 +6827,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6694,7 +6851,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6703,7 +6860,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6713,7 +6870,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6724,7 +6881,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -6734,21 +6891,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -6757,7 +6914,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -6766,7 +6923,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6801,12 +6958,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6856,12 +7013,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6929,23 +7086,25 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C94F9-ECFF-4311-8DEF-E9CAD5877074}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6962,22 +7121,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6988,7 +7150,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6997,7 +7159,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7006,7 +7168,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7016,7 +7178,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7025,21 +7187,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7049,7 +7211,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7058,7 +7220,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7068,7 +7230,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7079,7 +7241,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -7089,21 +7251,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -7112,7 +7274,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7121,7 +7283,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7156,12 +7318,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7211,12 +7373,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -7284,23 +7446,25 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61634976-D30A-4F21-A3DC-4D0E6EADF5B4}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7317,22 +7481,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7343,7 +7510,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7352,7 +7519,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7361,7 +7528,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7371,7 +7538,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7380,21 +7547,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7571,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7413,7 +7580,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7423,7 +7590,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7434,7 +7601,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -7444,21 +7611,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -7467,7 +7634,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7476,7 +7643,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -7511,12 +7678,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7566,12 +7733,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -7639,23 +7806,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7672,22 +7841,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7704,16 +7876,19 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1.1897405387056199</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.247497933112028</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>1.0512104283054</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7726,20 +7901,23 @@
       <c r="D3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <v>1.0350542201542201</v>
+      </c>
+      <c r="G3" s="1">
         <v>2.0881791017514E-7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>1.2364990689013</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7756,16 +7934,19 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>1.0655631011115501</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.199417055203471</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4">
         <v>1.0567970204841699</v>
       </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7782,16 +7963,19 @@
         <v>1E-3</v>
       </c>
       <c r="F5">
+        <v>1.04861861397117</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.74405658048782797</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>0.98510242085661104</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7808,48 +7992,55 @@
         <v>1E-3</v>
       </c>
       <c r="F6">
+        <v>1.10307166596887</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.760632987760269</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>0.98603351955307295</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>AVERAGE(C2:C6)</f>
         <v>0.75872197646042228</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0884096279822861</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0.39032095307630127</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1.0631284916201107</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7866,16 +8057,19 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1.1897405387056199</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.18504039082305199</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>1.0586592178770999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7888,20 +8082,23 @@
       <c r="D9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>1.0350542201542201</v>
+      </c>
+      <c r="G9" s="1">
         <v>1.52406320061412E-7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>1.23929236499069</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -7918,16 +8115,19 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1.0655631011115501</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.15864530091738999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>1.06238361266294</v>
       </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7944,16 +8144,19 @@
         <v>1E-3</v>
       </c>
       <c r="F11">
+        <v>1.04861861397117</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.96538212188566896</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>0.99720670391061506</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -7970,48 +8173,55 @@
         <v>1E-3</v>
       </c>
       <c r="F12">
+        <v>1.10307166596887</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.760632987760269</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>0.98603351955307295</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>AVERAGE(C8:C12)</f>
         <v>0.73991969079654463</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0884096279822861</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0.41394019075853999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>1.0687150837988835</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>15.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -8028,16 +8238,19 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1.1958876396126299</v>
+      </c>
+      <c r="G14">
         <v>9.3319675500381297E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.92830540037243903</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -8054,16 +8267,19 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>1.0508307410003901</v>
+      </c>
+      <c r="G15">
         <v>8.4858148706769207E-3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.88919925512104303</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8080,16 +8296,19 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1.05503479534378</v>
+      </c>
+      <c r="G16">
         <v>0.74405658048782797</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.98510242085661104</v>
       </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -8102,20 +8321,23 @@
       <c r="D17" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1E-3</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
+        <v>1.0358271737433</v>
+      </c>
+      <c r="G17" s="1">
         <v>5.5792863694676702E-5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.83333333333333304</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -8132,48 +8354,55 @@
         <v>1E-3</v>
       </c>
       <c r="F18">
+        <v>1.0709814407862599</v>
+      </c>
+      <c r="G18">
         <v>2.4955680335377699E-3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.87337057728119205</v>
       </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>AVERAGE(C14:C18)</f>
         <v>0.77216873295177757</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
         <v>1.3600000000000001E-2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0817123580972718</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>0.16968268635122374</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>0.90186219739292373</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="2"/>
         <v>13.6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -8190,16 +8419,19 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>1.1936270302482701</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.77731225170713303</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>0.98696461824953396</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8216,16 +8448,19 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>1.0341503626627799</v>
+      </c>
+      <c r="G21">
         <v>0.45728690816092699</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.96741154562383602</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -8242,16 +8477,19 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>1.0603577706404499</v>
+      </c>
+      <c r="G22">
         <v>0.16495612064978399</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.0614525139664801</v>
       </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -8268,16 +8506,19 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>1.05296864043202</v>
+      </c>
+      <c r="G23">
         <v>0.33494191477993801</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.95810055865921795</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -8294,48 +8535,55 @@
         <v>1E-3</v>
       </c>
       <c r="F24">
+        <v>1.1020526117846201</v>
+      </c>
+      <c r="G24">
         <v>0.282355641401214</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.95344506517690897</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.088631283153628</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>0.4033705673397992</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
         <v>0.98547486033519538</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -8344,7 +8592,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -8353,7 +8601,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -8362,7 +8610,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -8371,7 +8619,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -8380,7 +8628,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -8401,23 +8649,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8434,22 +8684,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8457,25 +8710,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.77345951900088195</v>
+        <v>0.78854414654990002</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.7620152836281098E-2</v>
+        <v>0.98078221818817801</v>
       </c>
       <c r="G2" s="1">
-        <v>1.09776536312849</v>
+        <v>0.15252164154182801</v>
       </c>
       <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.0633147113593999</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -8483,25 +8739,28 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.77002531690381204</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1E-4</v>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.64715458268031201</v>
+        <v>1.02480375621515</v>
       </c>
       <c r="G3" s="1">
-        <v>0.97951582867784004</v>
+        <v>4.7942687495212398E-19</v>
       </c>
       <c r="H3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.42178770949721</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8509,25 +8768,28 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.999999999999995</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>9.7000000000000003E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.192128267259605</v>
+        <v>1.0732423474325301</v>
       </c>
       <c r="G4" s="1">
-        <v>1.05772811918063</v>
+        <v>0.69754353996699003</v>
       </c>
       <c r="H4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.01769087523277</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8535,25 +8797,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.94443171223025502</v>
+        <v>0.42079234559473899</v>
       </c>
       <c r="D5">
-        <v>1.03E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
-        <v>0.27253595550542498</v>
+        <v>1.0968024497771001</v>
       </c>
       <c r="G5" s="1">
-        <v>0.95251396648044695</v>
+        <v>0.32369292749197598</v>
       </c>
       <c r="H5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.0437616387337101</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8561,57 +8826,64 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.52649565766580197</v>
+        <v>0.71733165020882605</v>
       </c>
       <c r="D6">
-        <v>1.0699999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.24446440207341</v>
+        <v>0.98038127209436199</v>
       </c>
       <c r="G6" s="1">
-        <v>0.94972067039106101</v>
+        <v>0.55564710926118299</v>
       </c>
       <c r="H6">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.97392923649906904</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.80288244116014906</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
-        <v>1.008E-2</v>
-      </c>
-      <c r="E7" s="6">
+        <v>0.7853336284706931</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F7" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0.27678067207100659</v>
-      </c>
-      <c r="G7" s="6">
+        <v>1.031202408741464</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>1.0074487895716935</v>
-      </c>
-      <c r="H7" s="6">
+        <v>0.34588104365239541</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.1040968342644319</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8619,25 +8891,28 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.77345951900088195</v>
+        <v>0.78854414654990002</v>
       </c>
       <c r="D8" s="1">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.7620152836281098E-2</v>
+        <v>0.98078221818817801</v>
       </c>
       <c r="G8" s="1">
-        <v>1.09776536312849</v>
+        <v>0.22251284264004001</v>
       </c>
       <c r="H8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.05400372439479</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8645,25 +8920,28 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.77002531690381204</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1E-4</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.66296655585615505</v>
+        <v>1.02480375621515</v>
       </c>
       <c r="G9" s="1">
-        <v>0.98044692737430195</v>
+        <v>4.8711526919649598E-22</v>
       </c>
       <c r="H9">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.45996275605214</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -8671,25 +8949,28 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.999999999999995</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>9.7000000000000003E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.20690920796574</v>
+        <v>1.0732423474325301</v>
       </c>
       <c r="G10" s="1">
-        <v>1.05586592178771</v>
+        <v>0.71352101957502101</v>
       </c>
       <c r="H10">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8697,25 +8978,28 @@
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.88886967443195197</v>
+        <v>0.69836768378447101</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
-        <v>0.27253595550542498</v>
+        <v>1.0968024497771001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.95251396648044695</v>
+        <v>0.26522888841623399</v>
       </c>
       <c r="H11">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.04934823091248</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -8723,57 +9007,64 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.52649565766580197</v>
+        <v>0.85404554699083401</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.24446440207341</v>
+        <v>0.98038127209436199</v>
       </c>
       <c r="G12" s="1">
-        <v>0.94972067039106101</v>
+        <v>0.49824182538815598</v>
       </c>
       <c r="H12">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.97020484171322197</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.79177003360048848</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
-        <v>1.0060000000000001E-2</v>
-      </c>
-      <c r="E13" s="6">
+        <v>0.86819147546504105</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.26E-2</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F13" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>0.28289925484740219</v>
-      </c>
-      <c r="G13" s="6">
+        <v>1.031202408741464</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>1.007262569832402</v>
-      </c>
-      <c r="H13" s="6">
+        <v>0.33990091520389021</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.1100558659217883</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -8784,22 +9075,25 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>9.4000000000000004E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.76223209737960795</v>
+        <v>0.95749062706029997</v>
       </c>
       <c r="G14">
-        <v>1.0139664804469299</v>
+        <v>3.9216107580550698E-2</v>
       </c>
       <c r="H14">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.91247672253258805</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -8807,25 +9101,28 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.54358124325381196</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1E-4</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>3.3174387387234001E-2</v>
+        <v>1.07444483431542</v>
       </c>
       <c r="G15">
-        <v>0.90968342644320299</v>
+        <v>0.20223469315897299</v>
       </c>
       <c r="H15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.94506517690875202</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -8833,25 +9130,28 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.71211299065479405</v>
+        <v>0.84351182606291997</v>
       </c>
       <c r="D16" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.63149302198875101</v>
+        <v>1.05097102459908</v>
       </c>
       <c r="G16">
-        <v>0.97858472998137802</v>
+        <v>7.4058251819760397E-3</v>
       </c>
       <c r="H16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.88733705772811899</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -8859,25 +9159,28 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0.84905903550163697</v>
       </c>
       <c r="D17" s="1">
-        <v>1.04E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F17">
-        <v>3.7188927387801399E-4</v>
+        <v>1.0940987730745799</v>
       </c>
       <c r="G17">
-        <v>0.85195530726256996</v>
+        <v>3.9216107580550698E-2</v>
       </c>
       <c r="H17">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.91247672253258805</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -8885,57 +9188,64 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.83034122032199398</v>
+        <v>0.84351182606291997</v>
       </c>
       <c r="D18" s="1">
-        <v>1.01E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.2883362163424303E-4</v>
+        <v>0.98261539112368002</v>
       </c>
       <c r="G18">
-        <v>0.85567970204841703</v>
+        <v>1.1819003426886901E-2</v>
       </c>
       <c r="H18">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.89385474860335201</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>AVERAGE(C14:C18)</f>
-        <v>0.81720709084611998</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
-        <v>9.4400000000000005E-3</v>
-      </c>
-      <c r="E19" s="6">
+        <v>0.90721653752549525</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.18E-2</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F19" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>0.28556004593022105</v>
-      </c>
-      <c r="G19" s="6">
+        <v>1.031924130034612</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
-        <v>0.92197392923649946</v>
-      </c>
-      <c r="H19" s="6">
+        <v>5.9978347385787466E-2</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
-        <v>94.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.91024208566107989</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -8946,22 +9256,25 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>9.4999999999999998E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.57524481981107201</v>
+        <v>0.97737204397175603</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0251396648044699</v>
+        <v>0.47765711492910601</v>
       </c>
       <c r="H20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0316573556797</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -8972,22 +9285,25 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1E-4</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.384528284993089</v>
+        <v>1.06327794080573</v>
       </c>
       <c r="G21">
-        <v>0.94609665427509304</v>
+        <v>0.93079751496070195</v>
       </c>
       <c r="H21">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.99534450651769102</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -8998,22 +9314,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>9.5999999999999992E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.15864530091738999</v>
+        <v>1.0660424870277401</v>
       </c>
       <c r="G22">
-        <v>1.06238361266294</v>
+        <v>0.29240764760120502</v>
       </c>
       <c r="H22">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.95437616387337099</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -9024,22 +9343,25 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1.0500000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F23">
-        <v>0.30269229389545099</v>
+        <v>1.10584383539361</v>
       </c>
       <c r="G23">
-        <v>0.95530726256983201</v>
+        <v>0.69355662587820299</v>
       </c>
       <c r="H23">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.97674418604651203</v>
+      </c>
+      <c r="I23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -9050,54 +9372,61 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>9.7000000000000003E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8.9012877760807296E-2</v>
+        <v>0.97256039322710797</v>
       </c>
       <c r="G24">
-        <v>0.92737430167597801</v>
+        <v>0.54100848482185304</v>
       </c>
       <c r="H24">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.97299813780260702</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
-        <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.24E-2</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="F25" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>0.30202471547556187</v>
-      </c>
-      <c r="G25" s="6">
+        <v>1.0370193400851888</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
-        <v>0.98326029919766267</v>
-      </c>
-      <c r="H25" s="6">
+        <v>0.58708547763821373</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.98622406998397616</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -9106,7 +9435,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -9115,7 +9444,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -9124,7 +9453,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -9133,7 +9462,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -9142,7 +9471,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -9163,23 +9492,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9196,22 +9527,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9228,16 +9562,19 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1.0164340344557901</v>
+      </c>
+      <c r="G2" s="1">
         <v>2.7620152836281098E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>1.09776536312849</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -9254,16 +9591,19 @@
         <v>1E-4</v>
       </c>
       <c r="F3">
+        <v>0.99914778664883297</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.64715458268031201</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>0.97951582867784004</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9280,16 +9620,19 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>1.01577409550652</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.192128267259605</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4">
         <v>1.05772811918063</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9306,16 +9649,19 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>1.0247370267660001</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.27253595550542498</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>0.95251396648044695</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9332,48 +9678,55 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>1.0226075521121301</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.24446440207341</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>0.94972067039106101</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>AVERAGE(C2:C6)</f>
         <v>0.80288244116014906</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
         <v>1.008E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0157400990978547</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0.27678067207100659</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1.0074487895716935</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>100.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9390,16 +9743,19 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1.0164340344557901</v>
+      </c>
+      <c r="G8" s="1">
         <v>2.7620152836281098E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>1.09776536312849</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9416,16 +9772,19 @@
         <v>1E-4</v>
       </c>
       <c r="F9">
+        <v>0.99914778664883297</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.66296655585615505</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>0.98044692737430195</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -9442,16 +9801,19 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>1.01577409550652</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.20690920796574</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>1.05586592178771</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -9468,16 +9830,19 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1.0247370267660001</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.27253595550542498</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>0.95251396648044695</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -9494,48 +9859,55 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1.0226075521121301</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.24446440207341</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>0.94972067039106101</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>AVERAGE(C8:C12)</f>
         <v>0.79177003360048848</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
         <v>1.0060000000000001E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0157400990978547</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0.28289925484740219</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>1.007262569832402</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>100.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -9552,16 +9924,19 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1.02100138195822</v>
+      </c>
+      <c r="G14">
         <v>0.76223209737960795</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.0139664804469299</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -9578,16 +9953,19 @@
         <v>1E-4</v>
       </c>
       <c r="F15">
+        <v>0.99185642822228703</v>
+      </c>
+      <c r="G15">
         <v>3.3174387387234001E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.90968342644320299</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9604,16 +9982,19 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1.0146375648624</v>
+      </c>
+      <c r="G16">
         <v>0.63149302198875101</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.97858472998137802</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -9630,16 +10011,19 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <v>1.02158953089064</v>
+      </c>
+      <c r="G17">
         <v>3.7188927387801399E-4</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.85195530726256996</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -9656,48 +10040,55 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>1.0117398660911101</v>
+      </c>
+      <c r="G18">
         <v>5.2883362163424303E-4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.85567970204841703</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>AVERAGE(C14:C18)</f>
         <v>0.81720709084611998</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
         <v>9.4400000000000005E-3</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0121649544049316</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>0.28556004593022105</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>0.92197392923649946</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="2"/>
         <v>94.4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -9714,16 +10105,19 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>1.01621508907466</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.57524481981107201</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>1.0251396648044699</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -9740,16 +10134,19 @@
         <v>1E-4</v>
       </c>
       <c r="F21">
+        <v>1.0010998635466299</v>
+      </c>
+      <c r="G21">
         <v>0.384528284993089</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.94609665427509304</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -9765,17 +10162,20 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22">
         <v>0.15864530091738999</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.06238361266294</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -9792,16 +10192,19 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>1.0245955320528899</v>
+      </c>
+      <c r="G23">
         <v>0.30269229389545099</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.95530726256983201</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -9818,48 +10221,55 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>1.02074955618526</v>
+      </c>
+      <c r="G24">
         <v>8.9012877760807296E-2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.92737430167597801</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0156650102148599</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>0.30202471547556187</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
         <v>0.98326029919766267</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -9868,7 +10278,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -9877,7 +10287,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -9886,7 +10296,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -9895,7 +10305,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -9904,7 +10314,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -9925,23 +10335,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H25"/>
+      <selection activeCell="C25" sqref="C25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.75" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9958,22 +10370,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9990,16 +10405,19 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>1.0330772345333601</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.57046949415711801</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2">
         <v>0.97486033519553095</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10015,17 +10433,20 @@
       <c r="E3" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <v>1.0418331708028601</v>
+      </c>
+      <c r="G3" s="1">
         <v>1.1481081870698599E-5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3">
         <v>1.19832402234637</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10041,17 +10462,20 @@
       <c r="E4" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <v>1.0202024859298</v>
+      </c>
+      <c r="G4" s="1">
         <v>5.9798415747397805E-14</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4">
         <v>1.35009310986965</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10064,20 +10488,23 @@
       <c r="D5">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <v>1.06791582664023</v>
+      </c>
+      <c r="G5" s="1">
         <v>3.6439847739270702E-10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5">
         <v>1.2886405959031699</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10094,48 +10521,55 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>1.0376600062108501</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.23895639111687</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6">
         <v>1.0521415270018599</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>AVERAGE(C2:C6)</f>
         <v>0.46224113760693075</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
         <v>1.3620000000000002E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>6.0000000000000008E-5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0401377448234201</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0.16188747334406339</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1.1728119180633161</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10152,16 +10586,19 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>1.0330772345333601</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.58547062618682699</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8">
         <v>0.97579143389199297</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10177,17 +10614,20 @@
       <c r="E9" s="1">
         <v>1E-4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>1.0418331708028601</v>
+      </c>
+      <c r="G9" s="1">
         <v>1.9686569082759999E-5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9">
         <v>1.1927374301675999</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -10203,17 +10643,20 @@
       <c r="E10" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
+        <v>1.0202024859298</v>
+      </c>
+      <c r="G10" s="1">
         <v>5.1890758688521701E-14</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10">
         <v>1.3510242085661099</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10226,20 +10669,23 @@
       <c r="D11" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
+        <v>1.06791582664023</v>
+      </c>
+      <c r="G11" s="1">
         <v>3.6439847739270702E-10</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11">
         <v>1.2886405959031699</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -10256,48 +10702,55 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1.0376600062108501</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.230628632798242</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12">
         <v>1.0530726256983201</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>AVERAGE(C8:C12)</f>
         <v>0.45972664515557754</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
         <v>1.3559999999999999E-2</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>6.0000000000000008E-5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0401377448234201</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0.16322378918372044</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>1.1722532588454384</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>135.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -10314,16 +10767,19 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <v>1.0235969940877501</v>
+      </c>
+      <c r="G14">
         <v>3.7106916296500599E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.91154562383612703</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -10340,16 +10796,19 @@
         <v>1E-4</v>
       </c>
       <c r="F15">
+        <v>1.03612810576167</v>
+      </c>
+      <c r="G15">
         <v>7.4058251819760397E-3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.88733705772811899</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10366,16 +10825,19 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1.0056795571100701</v>
+      </c>
+      <c r="G16">
         <v>0.47073087402844199</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.96834264432029804</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -10392,16 +10854,19 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F17">
+        <v>1.0808418152909001</v>
+      </c>
+      <c r="G17">
         <v>0.12272324312465301</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.93389199255121003</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -10418,48 +10883,55 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>1.03864859983179</v>
+      </c>
+      <c r="G18">
         <v>0.52655840375530205</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.972067039106145</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>AVERAGE(C14:C18)</f>
         <v>0.44772695042568883</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
         <v>1.068E-2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>6.0000000000000008E-5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0369790144164361</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="2"/>
         <v>0.23290505247737475</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="2"/>
         <v>0.93463687150837982</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="2"/>
         <v>106.8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -10475,17 +10947,20 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.31320967818193601</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20">
         <v>0.95623836126629402</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -10502,16 +10977,19 @@
         <v>1E-4</v>
       </c>
       <c r="F21">
+        <v>1.0386123463713901</v>
+      </c>
+      <c r="G21">
         <v>0.51230141415826203</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.97113594040968299</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -10528,16 +11006,19 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>1.0230301674120299</v>
+      </c>
+      <c r="G22">
         <v>0.87956682934598895</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.0074487895716899</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -10554,16 +11035,19 @@
         <v>1E-4</v>
       </c>
       <c r="F23">
+        <v>1.07324781902652</v>
+      </c>
+      <c r="G23">
         <v>0.36927499650379297</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.960893854748603</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -10580,48 +11064,55 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>1.0432900383056101</v>
+      </c>
+      <c r="G24">
         <v>0.23895639111687</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.0521415270018599</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
         <v>1.204E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0445450927788875</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>0.46266186186137004</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
         <v>0.98957169459962591</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="3"/>
         <v>120.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -10630,7 +11121,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -10639,7 +11130,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -10648,7 +11139,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -10657,7 +11148,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -10666,7 +11157,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -10687,23 +11178,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10720,22 +11213,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -10752,16 +11248,19 @@
         <v>1E-4</v>
       </c>
       <c r="F2">
+        <v>1.1722486694929299</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.22251284264004001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.05400372439479</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10778,16 +11277,19 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>1.07547536771527</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.79528948741880001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.0121042830539999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10804,16 +11306,19 @@
         <v>1E-4</v>
       </c>
       <c r="F4">
+        <v>1.06521902340234</v>
+      </c>
+      <c r="G4" s="1">
         <v>1.4272020683090501E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.10893854748603</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10830,16 +11335,19 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>1.10295764308257</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.35592429310670198</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.0409683426443199</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10856,49 +11364,55 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>1.08002029680791</v>
+      </c>
+      <c r="G6" s="1">
         <v>2.2292293611512401E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.1014897579143399</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <f>AVERAGE(C2:C6)</f>
         <v>0.68953158922041902</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
         <v>1.5539999999999998E-2</v>
       </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0991842001002039</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
         <v>0.28205818749202893</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
         <v>1.0635009310986958</v>
       </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7" si="4">AVERAGE(H2:H6)</f>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
         <v>155.4</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10915,16 +11429,19 @@
         <v>1E-4</v>
       </c>
       <c r="F8">
+        <v>1.1722486694929299</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.17145702702179</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.06052141527002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10941,16 +11458,19 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>1.07547536771527</v>
+      </c>
+      <c r="G9" s="1">
         <v>0.61987491582129195</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.02234636871508</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -10967,16 +11487,19 @@
         <v>1E-4</v>
       </c>
       <c r="F10">
+        <v>1.06521902340234</v>
+      </c>
+      <c r="G10" s="1">
         <v>2.3531948182228899E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.10055865921788</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10993,16 +11516,19 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1.10295764308257</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.42636668655355497</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.03538175046555</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11019,49 +11545,55 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1.08002029680791</v>
+      </c>
+      <c r="G12" s="1">
         <v>2.3531948182228899E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.10055865921788</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <f>AVERAGE(C8:C12)</f>
         <v>0.67650241071537276</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" ref="D13" si="5">AVERAGE(D8:D12)</f>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
         <v>1.558E-2</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13" si="6">AVERAGE(E8:E12)</f>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13" si="7">AVERAGE(F8:F12)</f>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0991842001002039</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
         <v>0.25295250515221895</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" ref="G13" si="8">AVERAGE(G8:G12)</f>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
         <v>1.063873370577282</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" ref="H13" si="9">AVERAGE(H8:H12)</f>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
         <v>155.80000000000001</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -11078,16 +11610,19 @@
         <v>1E-4</v>
       </c>
       <c r="F14">
+        <v>1.1603051218395</v>
+      </c>
+      <c r="G14">
         <v>2.96007996401275E-2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.90782122905027895</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -11104,16 +11639,19 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>1.05344154857293</v>
+      </c>
+      <c r="G15">
         <v>4.5240936715227296E-3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.88081936685288598</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11130,12 +11668,15 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1.05062864379569</v>
+      </c>
+      <c r="G16">
         <v>1.4330180862779301E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.89664804469273696</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>117</v>
       </c>
     </row>
@@ -11156,12 +11697,15 @@
         <v>1E-4</v>
       </c>
       <c r="F17">
+        <v>1.0863961678979299</v>
+      </c>
+      <c r="G17">
         <v>1.1303586154014799E-3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.86405959031657398</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>128</v>
       </c>
     </row>
@@ -11182,12 +11726,15 @@
         <v>1E-4</v>
       </c>
       <c r="F18">
+        <v>1.0690368356356801</v>
+      </c>
+      <c r="G18">
         <v>1.4417134115617899E-3</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.86685288640595903</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>118</v>
       </c>
     </row>
@@ -11198,31 +11745,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <f>AVERAGE(C14:C18)</f>
         <v>0.36985641881509979</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19" si="10">AVERAGE(D14:D18)</f>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
         <v>1.308E-2</v>
       </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19" si="11">AVERAGE(E14:E18)</f>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
         <v>6.0000000000000008E-5</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19" si="12">AVERAGE(F14:F18)</f>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.083961663548346</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
         <v>1.0205429240278559E-2</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19" si="13">AVERAGE(G14:G18)</f>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
         <v>0.88324022346368702</v>
       </c>
-      <c r="H19" s="6">
-        <f t="shared" ref="H19" si="14">AVERAGE(H14:H18)</f>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
         <v>130.80000000000001</v>
       </c>
-      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -11241,12 +11791,15 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F20">
+        <v>1.1687313776806201</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.86255388039803904</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.0083798882681601</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20">
         <v>191</v>
       </c>
     </row>
@@ -11267,12 +11820,15 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <v>1.0709644471601401</v>
+      </c>
+      <c r="G21">
         <v>0.87956682934598895</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.0074487895716899</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>136</v>
       </c>
     </row>
@@ -11293,12 +11849,15 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <v>1.0611635042269301</v>
+      </c>
+      <c r="G22">
         <v>0.98270692227788603</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.00186219739292</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>132</v>
       </c>
     </row>
@@ -11319,12 +11878,15 @@
         <v>1E-4</v>
       </c>
       <c r="F23">
+        <v>1.1013836933304899</v>
+      </c>
+      <c r="G23">
         <v>0.94817706565693605</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.0037243947858501</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>152</v>
       </c>
     </row>
@@ -11345,12 +11907,15 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <v>1.0760949045381201</v>
+      </c>
+      <c r="G24">
         <v>0.210232145687238</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.94599627560521404</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>126</v>
       </c>
     </row>
@@ -11361,31 +11926,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <f>AVERAGE(C20:C24)</f>
         <v>1</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:H25" si="15">AVERAGE(D20:D24)</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
         <v>1.4739999999999998E-2</v>
       </c>
-      <c r="E25" s="6">
-        <f t="shared" si="15"/>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
         <v>6.0000000000000008E-5</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="15"/>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0956675853872602</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
         <v>0.7766473686732176</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="15"/>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
         <v>0.99348230912476687</v>
       </c>
-      <c r="H25" s="6">
-        <f t="shared" si="15"/>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
         <v>147.4</v>
       </c>
-      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -11453,23 +12021,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342CD54D-B350-4234-9D6A-F56A96F518EA}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11486,22 +12056,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11512,7 +12085,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11521,7 +12094,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11530,7 +12103,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11540,7 +12113,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11549,21 +12122,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11573,7 +12146,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11582,7 +12155,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -11592,7 +12165,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11603,7 +12176,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11613,21 +12186,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -11636,7 +12209,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -11645,7 +12218,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11680,12 +12253,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -11735,12 +12308,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -11808,23 +12381,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32576D-7324-4E89-A691-F73DCAEAA290}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11841,22 +12416,25 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11867,7 +12445,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11876,7 +12454,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11885,7 +12463,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11895,7 +12473,7 @@
       <c r="C5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11904,21 +12482,21 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11928,7 +12506,7 @@
       <c r="D8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11937,7 +12515,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -11947,7 +12525,7 @@
       <c r="D10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11958,7 +12536,7 @@
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -11968,21 +12546,21 @@
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -11991,7 +12569,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -12000,7 +12578,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -12035,12 +12613,12 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -12090,12 +12668,12 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124946DA-D8D6-457F-B809-7E49EA0F9C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719DB3B4-6941-45A6-BD0D-1E1D4BA653E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C2" sqref="C2:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1262,9 +1262,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.79154451344127397</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.6055895168665499</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1273,7 +1291,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.91123966442244098</v>
+      </c>
+      <c r="D3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.58800300537146</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H3">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1282,7 +1320,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.56359363786510197</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.6464969756479899</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.3737680646109103E-4</v>
+      </c>
+      <c r="H4">
+        <v>1.15154349859682</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1291,8 +1349,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.67487441117479</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.42994479656305201</v>
+      </c>
+      <c r="H5">
+        <v>0.96538821328344204</v>
+      </c>
+      <c r="I5">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1301,7 +1378,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.68570523039147602</v>
+      </c>
+      <c r="D6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.69385634309335</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.69687816793850199</v>
+      </c>
+      <c r="H6">
+        <v>1.0177736202058001</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1324,8 +1421,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.79154451344127397</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.6055895168665499</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.98266658961540398</v>
+      </c>
+      <c r="H8">
+        <v>1.00187090739008</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1334,7 +1450,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.91123966442244098</v>
+      </c>
+      <c r="D9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.58800300537146</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22146296321421599</v>
+      </c>
+      <c r="H9">
+        <v>1.0542563143124399</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1343,8 +1479,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.49095324659704997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.6464969756479899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.8496998830800196E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.1524789522918599</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1353,9 +1508,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.67487441117479</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.42994479656305201</v>
+      </c>
+      <c r="H11">
+        <v>0.96538821328344204</v>
+      </c>
+      <c r="I11">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1364,8 +1537,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.614572285170356</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.69385634309335</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.82835769152208305</v>
+      </c>
+      <c r="H12">
+        <v>1.0102899906454601</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1388,7 +1580,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.17943190973928599</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.3709161928357001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.9576440853580099E-42</v>
+      </c>
+      <c r="H14">
+        <v>0.49204864359214201</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1397,7 +1609,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>9.3032288049578905E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.2536492608887599</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.34322197054583E-79</v>
+      </c>
+      <c r="H15">
+        <v>0.33395696913002798</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1406,28 +1638,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.14933428547371899</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.37068667678901</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.9802271799692202E-51</v>
+      </c>
+      <c r="H16">
+        <v>0.44901777362020601</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>6.2953999396647503E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.4404089874982899</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.9048980227775899E-50</v>
+      </c>
+      <c r="H17">
+        <v>0.452759588400374</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3.8792574678695103E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.4623828724946499</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.1289095785102098E-37</v>
+      </c>
+      <c r="H18">
+        <v>0.52011225444340503</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1441,48 +1732,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.56320660954959</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.2934595092886499E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.86529466791393805</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.5397105925405701</v>
+      </c>
+      <c r="G21">
+        <v>2.8355322224151002E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.87464920486435904</v>
+      </c>
+      <c r="I21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.6029456168516001</v>
+      </c>
+      <c r="G22">
+        <v>0.121822364091836</v>
+      </c>
+      <c r="H22">
+        <v>0.93358278765201097</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E23">
+        <v>1E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.6394099857290101</v>
+      </c>
+      <c r="G23">
+        <v>2.0781868686943399E-4</v>
+      </c>
+      <c r="H23">
+        <v>0.84565014031805397</v>
+      </c>
+      <c r="I23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.65187415811897</v>
+      </c>
+      <c r="G24">
+        <v>6.5732897026523296E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.92142188961646398</v>
+      </c>
+      <c r="I24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1496,52 +1891,152 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.4845520310342499</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.0405304851642601E-8</v>
+      </c>
+      <c r="H26">
+        <v>0.77174929840972895</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.48007131672429398</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.4579850049794001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.4236896788605E-9</v>
+      </c>
+      <c r="H27">
+        <v>0.76426566884939195</v>
+      </c>
+      <c r="I27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.5288211982089299</v>
+      </c>
+      <c r="G28">
+        <v>2.0470662998592699E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.90177736202058001</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.66446262818437896</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.5425541679978501</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.5466240972055398E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.76052385406922396</v>
+      </c>
+      <c r="I29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0.59354511204162796</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.5452487782037401</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.7550657911559394E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.73713751169317099</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +2060,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1622,9 +2117,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.52447659849247297</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.0067824218291801</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.91333641926778497</v>
+      </c>
+      <c r="H2">
+        <v>0.99438727782974701</v>
+      </c>
+      <c r="I2">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1633,7 +2146,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.63283973219442202</v>
+      </c>
+      <c r="D3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0003317145024699</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H3">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I3">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1642,7 +2175,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.61711081787069899</v>
+      </c>
+      <c r="D4">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.97378768758197098</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.3345130582295302E-5</v>
+      </c>
+      <c r="H4">
+        <v>1.18715083798883</v>
+      </c>
+      <c r="I4">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1651,8 +2204,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.222358821985363</v>
+      </c>
+      <c r="D5">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.99398178430348705</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1944334256904399E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.1318989710009399</v>
+      </c>
+      <c r="I5">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1684,8 +2256,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.52447659849247297</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.0067824218291801</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.91333641926778497</v>
+      </c>
+      <c r="H8">
+        <v>0.99438727782974701</v>
+      </c>
+      <c r="I8">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1694,7 +2285,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.63283973219442202</v>
+      </c>
+      <c r="D9">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0003317145024699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H9">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I9">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1703,8 +2314,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.61711081787069899</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.97378768758197098</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.3345130582295302E-5</v>
+      </c>
+      <c r="H10">
+        <v>1.18715083798883</v>
+      </c>
+      <c r="I10">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1713,9 +2343,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.222358821985363</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.99398178430348705</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.1944334256904399E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.1318989710009399</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1748,7 +2396,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>3.6977184311796198E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.92469190579736904</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.2683450158440701E-32</v>
+      </c>
+      <c r="H14">
+        <v>0.548175865294668</v>
+      </c>
+      <c r="I14">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1757,7 +2425,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>5.4863872959288697E-5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.84715639339529103</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.68065506144431E-59</v>
+      </c>
+      <c r="H15">
+        <v>0.412535079513564</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1766,28 +2454,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>7.9902989537401596E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.93326159428509503</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.23853799855823E-29</v>
+      </c>
+      <c r="H16">
+        <v>0.56782039289055197</v>
+      </c>
+      <c r="I16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>2.9825759558790399E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.93626315515866598</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.2165322743130598E-28</v>
+      </c>
+      <c r="H17">
+        <v>0.57904583723105696</v>
+      </c>
+      <c r="I17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6.7863166081435803E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.89033979747401903</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.3072760492465999E-40</v>
+      </c>
+      <c r="H18">
+        <v>0.50233863423760505</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1801,48 +2548,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.99570908523872403</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.23926072439522E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.89429373246024302</v>
+      </c>
+      <c r="I20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.97010596995238496</v>
+      </c>
+      <c r="G21">
+        <v>5.89092024478193E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.88400374181478003</v>
+      </c>
+      <c r="I21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.995401339624014</v>
+      </c>
+      <c r="G22">
+        <v>8.8241539543085001E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.92703461178671698</v>
+      </c>
+      <c r="I22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.00072742284509</v>
+      </c>
+      <c r="G23">
+        <v>6.0895602301717098E-4</v>
+      </c>
+      <c r="H23">
+        <v>0.85687558465855895</v>
+      </c>
+      <c r="I23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.98395619140759105</v>
+      </c>
+      <c r="G24">
+        <v>7.6320767673364404E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.92422825070158998</v>
+      </c>
+      <c r="I24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1856,52 +2707,152 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.25609237419259601</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.92887053779888895</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.7247148927708599E-12</v>
+      </c>
+      <c r="H26">
+        <v>0.71749298409728701</v>
+      </c>
+      <c r="I26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.30707339184333199</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.908510089721696</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.7217937948198601E-8</v>
+      </c>
+      <c r="H27">
+        <v>0.77736202057998105</v>
+      </c>
+      <c r="I27">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.50040056935615795</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.92708078211215805</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.7795362772172496E-9</v>
+      </c>
+      <c r="H28">
+        <v>0.76239476145930796</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>6.6959934915586702E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.93199792994735697</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.6602226141759695E-10</v>
+      </c>
+      <c r="H29">
+        <v>0.75116931711880297</v>
+      </c>
+      <c r="I29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>6.2984648155535103E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.90614680145822701</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.1185770331466603E-9</v>
+      </c>
+      <c r="H30">
+        <v>0.76145930776426596</v>
+      </c>
+      <c r="I30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1926,7 +2877,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C2" sqref="C2:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1983,9 +2934,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.197464149714217</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.03890365651894</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.74530314063014402</v>
+      </c>
+      <c r="H2">
+        <v>1.01496725912067</v>
+      </c>
+      <c r="I2">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1994,7 +2963,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>6.8399238241671295E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.03508509884115</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.5865677541506905E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.07390084190833</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2003,7 +2992,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.53240073041740699</v>
+      </c>
+      <c r="D4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0404442883951099</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.6725802197194395E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.0785781103835399</v>
+      </c>
+      <c r="I4">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2012,8 +3021,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.47619580331016398</v>
+      </c>
+      <c r="D5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.01741049481501</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H5">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I5">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2022,7 +3050,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.235563555144713</v>
+      </c>
+      <c r="D6">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.0383698713903</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H6">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I6">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2045,8 +3093,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.222358821985363</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.03890365651894</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.86223748987700699</v>
+      </c>
+      <c r="H8">
+        <v>1.0084190832553801</v>
+      </c>
+      <c r="I8">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2055,7 +3122,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>7.94218227497695E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.03508509884115</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.0278552304675302E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.07764265668849</v>
+      </c>
+      <c r="I9">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2064,8 +3151,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.53240073041740699</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0404442883951099</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.0278552304675302E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.07764265668849</v>
+      </c>
+      <c r="I10">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2074,9 +3180,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.43436976365621399</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.01741049481501</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.60399049757861401</v>
+      </c>
+      <c r="H11">
+        <v>1.0233863423760501</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2085,8 +3209,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.235563555144713</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.0383698713903</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H12">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I12">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2109,7 +3252,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>3.2023309361292498E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.93493985730561502</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.9573699193055501E-36</v>
+      </c>
+      <c r="H14">
+        <v>0.52478952291861602</v>
+      </c>
+      <c r="I14">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2118,7 +3281,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.112045876817773</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.935805986398344</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.9332316516773E-46</v>
+      </c>
+      <c r="H15">
+        <v>0.47240411599625798</v>
+      </c>
+      <c r="I15">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2127,28 +3310,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>3.5133663574624802E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.94349564895931204</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.0786907158882396E-35</v>
+      </c>
+      <c r="H16">
+        <v>0.53414405986903601</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1.2712509110704101E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.89047564335599205</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.5885879455001001E-60</v>
+      </c>
+      <c r="H17">
+        <v>0.405986903648269</v>
+      </c>
+      <c r="I17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.2569157220194999E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.93719756107607</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.5748447319645101E-38</v>
+      </c>
+      <c r="H18">
+        <v>0.51262862488306804</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2162,48 +3404,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0260884184722401</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.16449130087843</v>
+      </c>
+      <c r="H20">
+        <v>0.94013096351730596</v>
+      </c>
+      <c r="I20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.99273320234663898</v>
+      </c>
+      <c r="G21">
+        <v>1.3226290113253601E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.89522918615528502</v>
+      </c>
+      <c r="I21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0265096127665201</v>
+      </c>
+      <c r="G22">
+        <v>0.32280671466855199</v>
+      </c>
+      <c r="H22">
+        <v>0.95696913002806405</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.00782308174915</v>
+      </c>
+      <c r="G23">
+        <v>2.0470662998592699E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.90177736202058001</v>
+      </c>
+      <c r="I23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.02517268262783</v>
+      </c>
+      <c r="G24">
+        <v>7.6320767673364404E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.92422825070158998</v>
+      </c>
+      <c r="I24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2217,52 +3563,152 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.34820519433175801</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.96037678349876099</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.4179427920287697E-8</v>
+      </c>
+      <c r="H26">
+        <v>0.77829747427502305</v>
+      </c>
+      <c r="I26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.81620148462872499</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.92967349563536095</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.0520824614385601E-7</v>
+      </c>
+      <c r="H27">
+        <v>0.79045837231057103</v>
+      </c>
+      <c r="I27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.30109209552674499</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.95330769654733005</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.06712700649532E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.78297474275023404</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.14099992658476199</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.92529502609560299</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.2555536266561302E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.75771749298409696</v>
+      </c>
+      <c r="I29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.96078826477874901</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.7977755871413598E-6</v>
+      </c>
+      <c r="H30">
+        <v>0.80729653882132801</v>
+      </c>
+      <c r="I30">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2286,7 +3732,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2343,9 +3789,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.47094488038371402</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0938497551292601</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.54546964771015805</v>
+      </c>
+      <c r="H2">
+        <v>1.0271281571562201</v>
+      </c>
+      <c r="I2">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2354,7 +3818,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.16393441432603001</v>
+      </c>
+      <c r="D3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0817879951832501</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.0009354536950399</v>
+      </c>
+      <c r="I3">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2363,7 +3847,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.49290868899020102</v>
+      </c>
+      <c r="D4">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0512652398744899</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H4">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I4">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2372,8 +3876,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.0831728532106999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H5">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I5">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2382,7 +3905,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.29977455836874001</v>
+      </c>
+      <c r="D6">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.06573072369528</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.51734073103997702</v>
+      </c>
+      <c r="H6">
+        <v>1.0289990645463001</v>
+      </c>
+      <c r="I6">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2405,8 +3948,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.50795439676155196</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.0938497551292601</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.55982310219123799</v>
+      </c>
+      <c r="H8">
+        <v>1.02619270346118</v>
+      </c>
+      <c r="I8">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2415,7 +3977,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.22656793829247801</v>
+      </c>
+      <c r="D9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0817879951832501</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.89606982450870598</v>
+      </c>
+      <c r="H9">
+        <v>0.99345182413470501</v>
+      </c>
+      <c r="I9">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2424,8 +4006,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.49290868899020102</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0512652398744899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H10">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I10">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2434,9 +4035,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0831728532106999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H11">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I11">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2445,8 +4064,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.29977455836874001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.06573072369528</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.54546964771015805</v>
+      </c>
+      <c r="H12">
+        <v>1.0271281571562201</v>
+      </c>
+      <c r="I12">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2469,7 +4107,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>6.4302409065597997E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.96644099013353801</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.9576440853580099E-42</v>
+      </c>
+      <c r="H14">
+        <v>0.49204864359214201</v>
+      </c>
+      <c r="I14">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2478,7 +4136,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>2.66117219762449E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.97718382548293004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.3079790150994601E-44</v>
+      </c>
+      <c r="H15">
+        <v>0.48175865294667902</v>
+      </c>
+      <c r="I15">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2487,28 +4165,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1.40069885951526E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.918875727896029</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.7649612988770299E-72</v>
+      </c>
+      <c r="H16">
+        <v>0.35921421889616501</v>
+      </c>
+      <c r="I16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>8.8906024051569698E-6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.92758028371984902</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.1228564111244701E-48</v>
+      </c>
+      <c r="H17">
+        <v>0.45930776426566899</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.29585961521901E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.97833029620732603</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.3205795656707E-23</v>
+      </c>
+      <c r="H18">
+        <v>0.61178671655753003</v>
+      </c>
+      <c r="I18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2522,48 +4259,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0801182276191501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.185841935430725</v>
+      </c>
+      <c r="H20">
+        <v>0.94293732460243196</v>
+      </c>
+      <c r="I20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.06765240597401</v>
+      </c>
+      <c r="G21">
+        <v>1.64625845403201E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.86810102899906405</v>
+      </c>
+      <c r="I21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0415902389096801</v>
+      </c>
+      <c r="G22">
+        <v>1.8111608677598302E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.89990645463049601</v>
+      </c>
+      <c r="I22">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.07606838234962</v>
+      </c>
+      <c r="G23">
+        <v>0.31205610411308998</v>
+      </c>
+      <c r="H23">
+        <v>0.95603367633302105</v>
+      </c>
+      <c r="I23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.0525894276804699</v>
+      </c>
+      <c r="G24">
+        <v>3.8739291974652403E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.912067352666043</v>
+      </c>
+      <c r="I24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2577,52 +4418,152 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.279271232429737</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0105148239989901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.3789983302807203E-7</v>
+      </c>
+      <c r="H26">
+        <v>0.79794200187090703</v>
+      </c>
+      <c r="I26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.51693767088300102</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0646040317874801</v>
+      </c>
+      <c r="G27">
+        <v>0.61515503238382696</v>
+      </c>
+      <c r="H27">
+        <v>0.97754911131899003</v>
+      </c>
+      <c r="I27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.425047628617368</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.97287698399544398</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.9436884521800902E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.79232927970065503</v>
+      </c>
+      <c r="I28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.206349391485003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.99822506742878803</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.1123944479397203E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77642656688493905</v>
+      </c>
+      <c r="I29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F30">
+        <v>0.99050418400700502</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.4017011410996503E-7</v>
+      </c>
+      <c r="H30">
+        <v>0.79700654817586503</v>
+      </c>
+      <c r="I30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2645,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59F079-BE89-4308-A5F3-447E9892B8B1}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2703,9 +4644,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.334191527498163</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.4488254613709799</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="H2">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2714,7 +4673,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.67896651845659495</v>
+      </c>
+      <c r="D3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.3780622522133199</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.28383296764629501</v>
+      </c>
+      <c r="H3">
+        <v>1.0474860335195499</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2723,7 +4702,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>2E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.4581107155781201</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.98270692227788603</v>
+      </c>
+      <c r="H4">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="I4">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2732,8 +4731,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.43526631107494901</v>
+      </c>
+      <c r="D5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.3725730502667299</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H5">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I5">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2742,7 +4760,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.48956747649668</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H6">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I6">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2765,8 +4803,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.334191527498163</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.4488254613709799</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="H8">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2775,7 +4832,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.67896651845659495</v>
+      </c>
+      <c r="D9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.3780622522133199</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H9">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2784,8 +4861,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>2E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.4581107155781201</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="H10">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2794,9 +4890,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.43526631107494901</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3725730502667299</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H11">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2805,8 +4919,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.48956747649668</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H12">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I12">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2829,7 +4962,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.88384131602239602</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.4110314174579599</v>
+      </c>
+      <c r="G14">
+        <v>9.7032476666988905E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.89106145251396696</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2838,7 +4991,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.3571162312888001</v>
+      </c>
+      <c r="G15">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="H15">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2847,28 +5020,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.68428341045158503</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.4370071510034299</v>
+      </c>
+      <c r="G16">
+        <v>0.128251903102791</v>
+      </c>
+      <c r="H16">
+        <v>0.93482309124767204</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0.59707531158507199</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.3758301969617099</v>
+      </c>
+      <c r="G17">
+        <v>0.21845204198962501</v>
+      </c>
+      <c r="H17">
+        <v>0.94692737430167595</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.4541536347767601</v>
+      </c>
+      <c r="G18">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="H18">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2882,48 +5114,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.3068214867741399</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.4564005265891499E-15</v>
+      </c>
+      <c r="H20">
+        <v>0.68435754189944098</v>
+      </c>
+      <c r="I20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.2448781702182801</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.5369876586276299E-14</v>
+      </c>
+      <c r="H21">
+        <v>0.70111731843575398</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>2E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.3643240271757999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.22359699343785E-7</v>
+      </c>
+      <c r="H22">
+        <v>0.78864059590316604</v>
+      </c>
+      <c r="I22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.2417358410684001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.1017704702792302E-15</v>
+      </c>
+      <c r="H23">
+        <v>0.68901303538175096</v>
+      </c>
+      <c r="I23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.3735469129972799</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.8625921326728899E-10</v>
+      </c>
+      <c r="H24">
+        <v>0.74767225325884501</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2937,7 +5273,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2946,7 +5282,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2955,7 +5291,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2964,7 +5300,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2973,7 +5309,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2982,7 +5318,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -11180,7 +13516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -12024,7 +14360,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12081,9 +14417,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.05152578267194</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.56955863245500604</v>
+      </c>
+      <c r="H2">
+        <v>0.97474275023386303</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12092,7 +14446,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>4.30164727651344E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.1027447651917399</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H3">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12101,7 +14475,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0423220490957199</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12110,8 +14504,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.98067488433004502</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.36601735026573401</v>
+      </c>
+      <c r="H5">
+        <v>1.0402245088868101</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12120,7 +14533,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.50018425707079495</v>
+      </c>
+      <c r="D6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.09389534085089</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H6">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12143,8 +14576,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.05152578267194</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H8">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12153,7 +14605,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>4.30164727651344E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.1027447651917399</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.476645580740444</v>
+      </c>
+      <c r="H9">
+        <v>1.03180542563143</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12162,8 +14634,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0423220490957199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12172,9 +14663,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.98067488433004502</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.38907069193382998</v>
+      </c>
+      <c r="H11">
+        <v>1.0383536014967301</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12183,8 +14692,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.50018425707079495</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.09389534085089</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H12">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12207,7 +14735,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.97577967557718104</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.9851280943155504E-29</v>
+      </c>
+      <c r="H14">
+        <v>0.57249766136576197</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12216,7 +14764,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.26569828674663598</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.94429982935788304</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.14209641005541E-43</v>
+      </c>
+      <c r="H15">
+        <v>0.48456501403180502</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12225,28 +14793,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.77216429012917298</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.93394142915156797</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.4915845934425501E-37</v>
+      </c>
+      <c r="H16">
+        <v>0.51824134705332103</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0.119937567799124</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.88983897963458203</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.40579685135288E-40</v>
+      </c>
+      <c r="H17">
+        <v>0.50327408793264705</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.57786102439231801</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.999798594478712</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.3793749066000097E-39</v>
+      </c>
+      <c r="H18">
+        <v>0.51075771749298404</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -12260,48 +14887,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.03848655115296</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.89092024478193E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.88400374181478003</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E21">
+        <v>1E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.0022786712147</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.59321640140943E-5</v>
+      </c>
+      <c r="H21">
+        <v>0.82600561272216999</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0324292053573001</v>
+      </c>
+      <c r="G22">
+        <v>4.5628083782770702E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.91487371375116899</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.97078943417492403</v>
+      </c>
+      <c r="G23">
+        <v>0.111353849172696</v>
+      </c>
+      <c r="H23">
+        <v>0.93171188026192697</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.0757766499366099</v>
+      </c>
+      <c r="G24">
+        <v>1.23926072439522E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.89429373246024302</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -12315,52 +15046,152 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.47751167045609999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.97248233752495605</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.6355531707710792E-12</v>
+      </c>
+      <c r="H26">
+        <v>0.725912067352666</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.801809439192952</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.93946028105896895</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8.6355531707710792E-12</v>
+      </c>
+      <c r="H27">
+        <v>0.725912067352666</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.96315742372127899</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.2196771598822899E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.78391019644527604</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.89813040977185299</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.11324776359735E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77455565949485505</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.0165152464151299</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.71328418813201E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.73620205799812899</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -12384,7 +15215,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12452,7 +15283,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.2806465063414401</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9193851550857403E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.0916744621141301</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12461,7 +15312,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>3.2760050788036201E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.89946411467944798</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.3509053209922199E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.91768007483629599</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12470,8 +15341,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.3301786449406301</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H5">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12480,7 +15370,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.15058384626617299</v>
+      </c>
+      <c r="D6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.00400151648092</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.1174062838645499E-6</v>
+      </c>
+      <c r="H6">
+        <v>1.2217025257249801</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12513,7 +15423,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.2806465063414401</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.1217210707453503E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.09073900841908</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12522,8 +15452,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>3.2760050788036201E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.89946411467944798</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.0765742856854E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.91674462114125399</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12532,9 +15481,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3301786449406301</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H11">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12543,8 +15510,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.15058384626617299</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.00400151648092</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.94987000040201E-6</v>
+      </c>
+      <c r="H12">
+        <v>1.20954162768943</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12567,7 +15553,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.35497158559074798</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.2071448422034099</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.8358102131533494E-42</v>
+      </c>
+      <c r="H14">
+        <v>0.49485500467726801</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12576,7 +15582,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.61386673304358697</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.14056746750329</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.3260551168577804E-36</v>
+      </c>
+      <c r="H15">
+        <v>0.52853133769878402</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12585,28 +15611,87 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.160454212492423</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.1468308090917001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.3072760492465999E-40</v>
+      </c>
+      <c r="H16">
+        <v>0.50233863423760505</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0.74637322606283396</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.25923141380694</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.0332979645312598E-19</v>
+      </c>
+      <c r="H17">
+        <v>0.65107577174929798</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.20680608875822201</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0839982494734199</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.46484012962348E-41</v>
+      </c>
+      <c r="H18">
+        <v>0.495790458372311</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -12620,48 +15705,152 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.31938747724948</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.50159258380322E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.89710009354536902</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.23111645135293</v>
+      </c>
+      <c r="G21">
+        <v>4.4251751658884401E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.88026192703461204</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.27096159578506</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.0982969503258501E-5</v>
+      </c>
+      <c r="H22">
+        <v>0.82413470533208599</v>
+      </c>
+      <c r="I22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.3142099765649</v>
+      </c>
+      <c r="G23">
+        <v>8.4113399153058294E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.92609915809167398</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.2420301061752901</v>
+      </c>
+      <c r="G24">
+        <v>0.15130421594920199</v>
+      </c>
+      <c r="H24">
+        <v>0.93826005612722196</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -12675,52 +15864,152 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.58442501090335597</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.2446883810728999</v>
+      </c>
+      <c r="G26">
+        <v>0.138926815152151</v>
+      </c>
+      <c r="H26">
+        <v>0.93638914873713797</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>1.11432538520981E-42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F27">
+        <v>4.2029996938877199</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>21.296538821328301</v>
+      </c>
+      <c r="I27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.1691524964933999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.5918255915872305E-10</v>
+      </c>
+      <c r="H28">
+        <v>0.74929840972871797</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.506841093185184</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.21886016567303</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.7061000728472501E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77362020579981305</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0.88384131602239602</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.14370290284423</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.3789983302807203E-7</v>
+      </c>
+      <c r="H30">
+        <v>0.79794200187090703</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5972DB-E655-42E1-84C3-3A0FBA354E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA96A06-069B-4311-A776-A2D983AC5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1259,9 +1259,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.5897994142285099</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.178512013360033</v>
+      </c>
+      <c r="H2">
+        <v>0.94200187090738996</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1270,7 +1288,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.5685576515578701</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.56955863245500604</v>
+      </c>
+      <c r="H3">
+        <v>0.97474275023386303</v>
+      </c>
+      <c r="I3">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1279,7 +1317,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.6371460029928699</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.354824688066741</v>
+      </c>
+      <c r="H4">
+        <v>1.04115996258185</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1288,8 +1346,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.67062283781034</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.24333657329972999</v>
+      </c>
+      <c r="H5">
+        <v>0.94948550046772695</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1298,7 +1375,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.6781227756083399</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.778207029697355</v>
+      </c>
+      <c r="H6">
+        <v>1.01309635173059</v>
+      </c>
+      <c r="I6">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1322,8 +1419,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.89890136553162303</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.6055895168665499</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1332,7 +1448,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.91318194011338105</v>
+      </c>
+      <c r="D9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.58800300537146</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H9">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1341,8 +1477,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.6464969756479899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.3737680646109103E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.15154349859682</v>
+      </c>
+      <c r="I10">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1351,9 +1506,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.91669049599304897</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.67487441117479</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.42994479656305201</v>
+      </c>
+      <c r="H11">
+        <v>0.96538821328344204</v>
+      </c>
+      <c r="I11">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1362,8 +1535,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.841078235821765</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.69385634309335</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.69687816793850199</v>
+      </c>
+      <c r="H12">
+        <v>1.0177736202058001</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1387,7 +1579,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.89890136553162303</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.6055895168665499</v>
+      </c>
+      <c r="G14">
+        <v>0.98266658961540398</v>
+      </c>
+      <c r="H14">
+        <v>1.00187090739008</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1396,7 +1608,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.91318194011338105</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.58800300537146</v>
+      </c>
+      <c r="G15">
+        <v>0.22146296321421599</v>
+      </c>
+      <c r="H15">
+        <v>1.0542563143124399</v>
+      </c>
+      <c r="I15">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1405,7 +1637,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.91123966442244098</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.6464969756479899</v>
+      </c>
+      <c r="G16">
+        <v>6.8496998830800196E-4</v>
+      </c>
+      <c r="H16">
+        <v>1.1524789522918599</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1414,8 +1666,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.91669049599304897</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E17">
+        <v>1E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.67487441117479</v>
+      </c>
+      <c r="G17">
+        <v>0.42994479656305201</v>
+      </c>
+      <c r="H17">
+        <v>0.96538821328344204</v>
+      </c>
+      <c r="I17">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1423,6 +1694,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.76461301515508295</v>
+      </c>
+      <c r="D18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.69385634309335</v>
+      </c>
+      <c r="G18">
+        <v>0.82835769152208305</v>
+      </c>
+      <c r="H18">
+        <v>1.0102899906454601</v>
+      </c>
+      <c r="I18">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1446,7 +1738,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>4.7047145695702397E-2</v>
+      </c>
+      <c r="D20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.3709161928357001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.9576440853580099E-42</v>
+      </c>
+      <c r="H20">
+        <v>0.49204864359214201</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1455,7 +1767,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>2.4746899106440801E-3</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.2536492608887599</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.34322197054583E-79</v>
+      </c>
+      <c r="H21">
+        <v>0.33395696913002798</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1464,7 +1796,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>4.3631606119001701E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.37068667678901</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.9802271799692202E-51</v>
+      </c>
+      <c r="H22">
+        <v>0.44901777362020601</v>
+      </c>
+      <c r="I22">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1473,7 +1825,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>3.8792574678695103E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.03</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.4404089874982899</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.9048980227775899E-50</v>
+      </c>
+      <c r="H23">
+        <v>0.452759588400374</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1482,7 +1854,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>2.3290414143271002E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.4623828724946499</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.1289095785102098E-37</v>
+      </c>
+      <c r="H24">
+        <v>0.52011225444340503</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1506,7 +1898,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.69872153482980104</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.4845520310342499</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.0405304851642601E-8</v>
+      </c>
+      <c r="H26">
+        <v>0.77174929840972895</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1515,7 +1927,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>0.250973057880433</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.4579850049794001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.4236896788605E-9</v>
+      </c>
+      <c r="H27">
+        <v>0.76426566884939195</v>
+      </c>
+      <c r="I27">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1524,7 +1956,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.64201806676259998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.5288211982089299</v>
+      </c>
+      <c r="G28">
+        <v>2.0470662998592699E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.90177736202058001</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1533,7 +1985,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>0.51971319457489096</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.5425541679978501</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.5466240972055398E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.76052385406922396</v>
+      </c>
+      <c r="I29">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1542,7 +2014,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.459552292085387</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.5452487782037401</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.7550657911559394E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.73713751169317099</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4862,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4920,9 +5412,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.36416844900929</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.98270692227788603</v>
+      </c>
+      <c r="H2">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4931,7 +5441,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.04</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.5434730797371901</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.124603430338662</v>
+      </c>
+      <c r="H3">
+        <v>1.0679702048417099</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4940,7 +5470,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.4583992813798199</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.66601506352085305</v>
+      </c>
+      <c r="H4">
+        <v>1.0195530726257001</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4949,8 +5499,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.3898725573050501</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.93095639103550398</v>
+      </c>
+      <c r="H5">
+        <v>1.00465549348231</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4959,7 +5528,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.4940023351465099</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.69754353996699003</v>
+      </c>
+      <c r="H6">
+        <v>1.01769087523277</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4983,8 +5572,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.3645170482636899</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.87912541238904696</v>
+      </c>
+      <c r="H8">
+        <v>0.99255121042830496</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4993,7 +5601,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.5432018254049</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.17145702702179</v>
+      </c>
+      <c r="H9">
+        <v>1.06052141527002</v>
+      </c>
+      <c r="I9">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5002,8 +5630,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.4573571739436899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.74587172185233097</v>
+      </c>
+      <c r="H10">
+        <v>1.0148975791433901</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5012,9 +5659,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.38852903263467</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.91353805817899203</v>
+      </c>
+      <c r="H11">
+        <v>0.994413407821229</v>
+      </c>
+      <c r="I11">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5023,8 +5688,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.4935460451504501</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.77870696808959305</v>
+      </c>
+      <c r="H12">
+        <v>1.01303538175047</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5048,7 +5732,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.3645170482636899</v>
+      </c>
+      <c r="G14">
+        <v>0.87912541238904696</v>
+      </c>
+      <c r="H14">
+        <v>0.99255121042830496</v>
+      </c>
+      <c r="I14">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5057,7 +5761,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.5432018254049</v>
+      </c>
+      <c r="G15">
+        <v>0.15864530091738999</v>
+      </c>
+      <c r="H15">
+        <v>1.06238361266294</v>
+      </c>
+      <c r="I15">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -5066,7 +5790,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.4573571739436899</v>
+      </c>
+      <c r="G16">
+        <v>0.72963252502329901</v>
+      </c>
+      <c r="H16">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5075,8 +5819,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.38852903263467</v>
+      </c>
+      <c r="G17">
+        <v>0.91353805817899203</v>
+      </c>
+      <c r="H17">
+        <v>0.994413407821229</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5084,6 +5847,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.4935460451504501</v>
+      </c>
+      <c r="G18">
+        <v>0.76223209737960795</v>
+      </c>
+      <c r="H18">
+        <v>1.0139664804469299</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5107,7 +5891,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.55489645925832498</v>
+      </c>
+      <c r="D20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.3461132372773299</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.14598485163665101</v>
+      </c>
+      <c r="H20">
+        <v>0.93761638733705799</v>
+      </c>
+      <c r="I20">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -5116,7 +5920,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.63778934295245404</v>
+      </c>
+      <c r="D21">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.51768126735997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.99906890130353798</v>
+      </c>
+      <c r="I21">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -5125,7 +5949,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.27401406884903801</v>
+      </c>
+      <c r="D22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.4467479823598</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.30269229389545099</v>
+      </c>
+      <c r="H22">
+        <v>0.95530726256983201</v>
+      </c>
+      <c r="I22">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -5134,7 +5978,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.88611408559955196</v>
+      </c>
+      <c r="D23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.3915929964668501</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.7106916296500599E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.91154562383612703</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -5143,7 +6007,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.4816900681957299</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.52655840375530205</v>
+      </c>
+      <c r="H24">
+        <v>0.972067039106145</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -7425,7 +8309,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7482,9 +8366,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.1663089429953399</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.93079751496070195</v>
+      </c>
+      <c r="H2">
+        <v>0.99534450651769102</v>
+      </c>
+      <c r="I2">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7493,7 +8395,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.161</v>
+      </c>
+      <c r="E3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.4336443626325002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.47765711492910601</v>
+      </c>
+      <c r="H3">
+        <v>1.0316573556797</v>
+      </c>
+      <c r="I3">
+        <v>161</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7502,7 +8424,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.5302780156647402</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.96538212188566896</v>
+      </c>
+      <c r="H4">
+        <v>0.99720670391061506</v>
+      </c>
+      <c r="I4">
+        <v>166</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7511,8 +8453,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.151</v>
+      </c>
+      <c r="E5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.32099941704938</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.4663032290933096E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.07635009310987</v>
+      </c>
+      <c r="I5">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7521,7 +8482,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.4599974185974598</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.66601506352085305</v>
+      </c>
+      <c r="H6">
+        <v>1.0195530726257001</v>
+      </c>
+      <c r="I6">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7545,8 +8526,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.94681378029782504</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="E8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.16295008691253</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.96538212188566896</v>
+      </c>
+      <c r="H8">
+        <v>0.99720670391061506</v>
+      </c>
+      <c r="I8">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7555,7 +8555,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.16</v>
+      </c>
+      <c r="E9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.4334740657018799</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.71352101957502101</v>
+      </c>
+      <c r="H9">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="I9">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7564,8 +8584,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.95219379944689597</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.5307712700762099</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.81094962679959604</v>
+      </c>
+      <c r="H10">
+        <v>0.988826815642458</v>
+      </c>
+      <c r="I10">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7574,9 +8613,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.3183621064853299</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.0959083059641307E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.0772811918063301</v>
+      </c>
+      <c r="I11">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7585,8 +8642,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.94058421582974805</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.4631204411281402</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.69754353996699003</v>
+      </c>
+      <c r="H12">
+        <v>1.01769087523277</v>
+      </c>
+      <c r="I12">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7610,7 +8686,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.94681378029782504</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="E14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.16295008691253</v>
+      </c>
+      <c r="G14">
+        <v>0.74405658048782797</v>
+      </c>
+      <c r="H14">
+        <v>0.98510242085661104</v>
+      </c>
+      <c r="I14">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7619,7 +8715,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.161</v>
+      </c>
+      <c r="E15">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.4334740657018799</v>
+      </c>
+      <c r="G15">
+        <v>0.56072610086491503</v>
+      </c>
+      <c r="H15">
+        <v>1.0260707635009301</v>
+      </c>
+      <c r="I15">
+        <v>161</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7628,7 +8744,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.5307712700762099</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>167</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -7637,8 +8773,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.95006716862271601</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.3183621064853299</v>
+      </c>
+      <c r="G17">
+        <v>0.10531588909046299</v>
+      </c>
+      <c r="H17">
+        <v>1.07169459962756</v>
+      </c>
+      <c r="I17">
+        <v>149</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -7646,6 +8801,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F18">
+        <v>2.4631204411281402</v>
+      </c>
+      <c r="G18">
+        <v>0.74587172185233097</v>
+      </c>
+      <c r="H18">
+        <v>1.0148975791433901</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -7669,7 +8845,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.89472113515729901</v>
+      </c>
+      <c r="D20">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.0822970291317602</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.23556654567434801</v>
+      </c>
+      <c r="H20">
+        <v>0.94878957169459999</v>
+      </c>
+      <c r="I20">
+        <v>133</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -7678,7 +8874,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.76269287695453603</v>
+      </c>
+      <c r="D21">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E21">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>3.36058750366543</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.107235693441896</v>
+      </c>
+      <c r="H21">
+        <v>0.93109869646182497</v>
+      </c>
+      <c r="I21">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -7687,7 +8903,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.50226429556633401</v>
+      </c>
+      <c r="D22">
+        <v>0.154</v>
+      </c>
+      <c r="E22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.3981118174087599</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0367977320066699E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.89199255121042798</v>
+      </c>
+      <c r="I22">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -7696,7 +8932,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.40769221377098702</v>
+      </c>
+      <c r="D23">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.01</v>
+      </c>
+      <c r="F23">
+        <v>3.16351208660212</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.6974684719636702E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.91899441340782095</v>
+      </c>
+      <c r="I23">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -7705,7 +8961,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.761956511488602</v>
+      </c>
+      <c r="D24">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F24">
+        <v>2.3713417448780998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.2851344724396802E-4</v>
+      </c>
+      <c r="H24">
+        <v>0.85754189944134096</v>
+      </c>
+      <c r="I24">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -7791,7 +9067,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7848,9 +9124,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.5400398614556696</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.98270692227788603</v>
+      </c>
+      <c r="H2">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="I2">
+        <v>266</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7859,7 +9153,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.3620042551501204</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.7620152836281098E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.09776536312849</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7868,7 +9182,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.248</v>
+      </c>
+      <c r="E4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.1178367798722899</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.21460706447075401</v>
+      </c>
+      <c r="H4">
+        <v>1.0549348230912501</v>
+      </c>
+      <c r="I4">
+        <v>248</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7877,8 +9211,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.255</v>
+      </c>
+      <c r="E5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.4328802048762803</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.8527417228528901E-7</v>
+      </c>
+      <c r="H5">
+        <v>1.2337057728119201</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7887,7 +9240,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F6">
+        <v>5.40635195165616</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.1078239923930799E-16</v>
+      </c>
+      <c r="H6">
+        <v>1.38175046554935</v>
+      </c>
+      <c r="I6">
+        <v>225</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7911,8 +9284,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.91923796521905099</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.5553448231226898</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.71352101957502101</v>
+      </c>
+      <c r="H8">
+        <v>1.0167597765363099</v>
+      </c>
+      <c r="I8">
+        <v>263</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7921,7 +9313,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.95887036828462402</v>
+      </c>
+      <c r="D9">
+        <v>0.252</v>
+      </c>
+      <c r="E9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.36422666087274</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.9633338383869898E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.09124767225326</v>
+      </c>
+      <c r="I9">
+        <v>252</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7930,8 +9342,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.95864913983645905</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="E10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>5.1094699757931998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.39015580177518799</v>
+      </c>
+      <c r="H10">
+        <v>1.03817504655493</v>
+      </c>
+      <c r="I10">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7940,9 +9371,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.64637660472138203</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.4485924564512001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.4616479608691896E-7</v>
+      </c>
+      <c r="H11">
+        <v>1.2262569832402199</v>
+      </c>
+      <c r="I11">
+        <v>265</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7951,8 +9400,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.87276970100053697</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.4184840345511702</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.84986456532753E-13</v>
+      </c>
+      <c r="H12">
+        <v>1.3361266294227201</v>
+      </c>
+      <c r="I12">
+        <v>229</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7976,7 +9444,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.83910862653003904</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.5553448231226898</v>
+      </c>
+      <c r="G14">
+        <v>0.86255388039803904</v>
+      </c>
+      <c r="H14">
+        <v>1.0083798882681601</v>
+      </c>
+      <c r="I14">
+        <v>261</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7985,7 +9473,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15">
+        <v>5.36422666087274</v>
+      </c>
+      <c r="G15">
+        <v>9.6614377266402596E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.07355679702048</v>
+      </c>
+      <c r="I15">
+        <v>250</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7994,7 +9502,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.75491765445799497</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>5.1094699757931998</v>
+      </c>
+      <c r="G16">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H16">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I16">
+        <v>241</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8003,8 +9531,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.91843340628960302</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>5.4485924564512001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.8405813820571902E-7</v>
+      </c>
+      <c r="H17">
+        <v>1.22718808193669</v>
+      </c>
+      <c r="I17">
+        <v>258</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8012,6 +9559,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.4184840345511702</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.9040849300672499E-14</v>
+      </c>
+      <c r="H18">
+        <v>1.35288640595903</v>
+      </c>
+      <c r="I18">
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8035,7 +9603,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.72186866888603596</v>
+      </c>
+      <c r="D20">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E20">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F20">
+        <v>5.2736147391338699</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.4417134115617899E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.86685288640595903</v>
+      </c>
+      <c r="I20">
+        <v>258</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8044,7 +9632,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.37411006063730001</v>
+      </c>
+      <c r="D21">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F21">
+        <v>4.84245667335487</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.6252954314364802E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.89851024208566099</v>
+      </c>
+      <c r="I21">
+        <v>232</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8053,7 +9661,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.496712598886067</v>
+      </c>
+      <c r="D22">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.8478251078417998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.31320967818193601</v>
+      </c>
+      <c r="H22">
+        <v>0.95623836126629402</v>
+      </c>
+      <c r="I22">
+        <v>234</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8062,7 +9690,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.95903171099979501</v>
+      </c>
+      <c r="D23">
+        <v>0.253</v>
+      </c>
+      <c r="E23">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F23">
+        <v>5.1086378261164</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.65047578375368198</v>
+      </c>
+      <c r="H23">
+        <v>1.02048417132216</v>
+      </c>
+      <c r="I23">
+        <v>253</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8071,7 +9719,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.83104922507317502</v>
+      </c>
+      <c r="D24">
+        <v>0.23</v>
+      </c>
+      <c r="E24">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.85486410167288</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.1124759794152199E-4</v>
+      </c>
+      <c r="H24">
+        <v>0.83985102420856605</v>
+      </c>
+      <c r="I24">
+        <v>230</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8157,7 +9825,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C2" sqref="C2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8214,9 +9882,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.0623418952998001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.15864530091738999</v>
+      </c>
+      <c r="H2">
+        <v>1.06238361266294</v>
+      </c>
+      <c r="I2">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8225,7 +9911,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0368831065550801</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.100889449402394</v>
+      </c>
+      <c r="H3">
+        <v>1.0726256983240201</v>
+      </c>
+      <c r="I3">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8234,7 +9940,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.0721603734926599</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.68170623545352105</v>
+      </c>
+      <c r="H4">
+        <v>1.0186219739292399</v>
+      </c>
+      <c r="I4">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8243,8 +9969,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.08464016074554</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.6974684719636702E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.91899441340782095</v>
+      </c>
+      <c r="I5">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8253,7 +9998,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.08941799179334</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.79408697232597003</v>
+      </c>
+      <c r="H6">
+        <v>0.98789571694599598</v>
+      </c>
+      <c r="I6">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8277,8 +10042,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.80318649484889304</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.06118008280752</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.199417055203471</v>
+      </c>
+      <c r="H8">
+        <v>1.0567970204841699</v>
+      </c>
+      <c r="I8">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8287,7 +10071,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0365906031065899</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.119537518663844</v>
+      </c>
+      <c r="H9">
+        <v>1.06890130353818</v>
+      </c>
+      <c r="I9">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8296,8 +10100,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.0717725609330699</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.82874931980412503</v>
+      </c>
+      <c r="H10">
+        <v>1.0102420856610801</v>
+      </c>
+      <c r="I10">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8306,9 +10129,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.89890987571886805</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0845038131348399</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.6974684719636702E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.91899441340782095</v>
+      </c>
+      <c r="I11">
+        <v>127</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8317,8 +10158,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.94757060614501198</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.08904679346262</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="H12">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="I12">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8342,7 +10202,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.80318649484889304</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.06118008280752</v>
+      </c>
+      <c r="G14">
+        <v>0.199417055203471</v>
+      </c>
+      <c r="H14">
+        <v>1.0567970204841699</v>
+      </c>
+      <c r="I14">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8351,7 +10231,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0365906031065899</v>
+      </c>
+      <c r="G15">
+        <v>0.119537518663844</v>
+      </c>
+      <c r="H15">
+        <v>1.06890130353818</v>
+      </c>
+      <c r="I15">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8360,7 +10260,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.0717725609330699</v>
+      </c>
+      <c r="G16">
+        <v>0.82874931980412503</v>
+      </c>
+      <c r="H16">
+        <v>1.0102420856610801</v>
+      </c>
+      <c r="I16">
+        <v>139</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8369,8 +10289,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.89890987571886805</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.0845038131348399</v>
+      </c>
+      <c r="G17">
+        <v>5.4091693962644301E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.91806331471135905</v>
+      </c>
+      <c r="I17">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8378,6 +10317,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.94757060614501198</v>
+      </c>
+      <c r="D18">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.08904679346262</v>
+      </c>
+      <c r="G18">
+        <v>0.61598795620001101</v>
+      </c>
+      <c r="H18">
+        <v>0.977653631284916</v>
+      </c>
+      <c r="I18">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8401,7 +10361,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.40986483663765799</v>
+      </c>
+      <c r="D20">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0574013431567699</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.57046949415711801</v>
+      </c>
+      <c r="H20">
+        <v>0.97486033519553095</v>
+      </c>
+      <c r="I20">
+        <v>119</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8410,7 +10390,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.94734808910213397</v>
+      </c>
+      <c r="D21">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.03070862918671</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.18689874039599799</v>
+      </c>
+      <c r="H21">
+        <v>0.94320297951582899</v>
+      </c>
+      <c r="I21">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8419,7 +10419,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.26025918104915002</v>
+      </c>
+      <c r="D22">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.06111320296457</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.18689874039599799</v>
+      </c>
+      <c r="H22">
+        <v>0.94320297951582899</v>
+      </c>
+      <c r="I22">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8428,7 +10448,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.74641160611016699</v>
+      </c>
+      <c r="D23">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.07233941902636</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.4824020903597899E-4</v>
+      </c>
+      <c r="H23">
+        <v>0.842644320297952</v>
+      </c>
+      <c r="I23">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8437,7 +10477,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.14894366077997501</v>
+      </c>
+      <c r="D24">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.07919904050427</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.13987935469495599</v>
+      </c>
+      <c r="H24">
+        <v>0.93668528864059597</v>
+      </c>
+      <c r="I24">
+        <v>96</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8523,7 +10583,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8580,9 +10640,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.26111166270763</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="H2">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="I2">
+        <v>223</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8591,7 +10669,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F3">
+        <v>1.2639800624697699</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.61987491582129195</v>
+      </c>
+      <c r="H3">
+        <v>1.02234636871508</v>
+      </c>
+      <c r="I3">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8600,7 +10698,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.23773557568073</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.00128986768425E-4</v>
+      </c>
+      <c r="H4">
+        <v>1.1750465549348199</v>
+      </c>
+      <c r="I4">
+        <v>234</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8609,8 +10727,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>1.2655233097260801</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.37852397860418302</v>
+      </c>
+      <c r="H5">
+        <v>1.0391061452514001</v>
+      </c>
+      <c r="I5">
+        <v>204</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8619,7 +10756,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.2951345642912</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.9633338383869898E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.09124767225326</v>
+      </c>
+      <c r="I6">
+        <v>248</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -8643,8 +10800,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.77215292616957798</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.25880209249369</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.96538212188566896</v>
+      </c>
+      <c r="H8">
+        <v>0.99720670391061506</v>
+      </c>
+      <c r="I8">
+        <v>216</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -8653,7 +10829,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.88722695066586998</v>
+      </c>
+      <c r="D9">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.2616543701441501</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.77870696808959305</v>
+      </c>
+      <c r="H9">
+        <v>1.01303538175047</v>
+      </c>
+      <c r="I9">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -8662,8 +10858,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.23631613148723</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.22672992003067E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.1554934823091201</v>
+      </c>
+      <c r="I10">
+        <v>233</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -8672,9 +10887,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.80110135279153205</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.2650507663874599</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.41407847781852303</v>
+      </c>
+      <c r="H11">
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="I11">
+        <v>198</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8683,8 +10916,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.29432983493232</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.0677533479915E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.09590316573557</v>
+      </c>
+      <c r="I12">
+        <v>249</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8708,7 +10960,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.77215292616957798</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.25880209249369</v>
+      </c>
+      <c r="G14">
+        <v>0.96538212188566896</v>
+      </c>
+      <c r="H14">
+        <v>0.99720670391061506</v>
+      </c>
+      <c r="I14">
+        <v>216</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8717,7 +10989,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.96237705130982398</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.29E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.2616543701441501</v>
+      </c>
+      <c r="G15">
+        <v>0.79528948741880001</v>
+      </c>
+      <c r="H15">
+        <v>1.0121042830539999</v>
+      </c>
+      <c r="I15">
+        <v>229</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8726,7 +11018,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.96261412926341305</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.23631613148723</v>
+      </c>
+      <c r="G16">
+        <v>5.22672992003067E-4</v>
+      </c>
+      <c r="H16">
+        <v>1.1554934823091201</v>
+      </c>
+      <c r="I16">
+        <v>232</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8735,8 +11047,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.88014430192759197</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.2650507663874599</v>
+      </c>
+      <c r="G17">
+        <v>0.37852397860418302</v>
+      </c>
+      <c r="H17">
+        <v>1.0391061452514001</v>
+      </c>
+      <c r="I17">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8744,6 +11075,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.29432983493232</v>
+      </c>
+      <c r="G18">
+        <v>2.9113988517028799E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.0968342644320299</v>
+      </c>
+      <c r="I18">
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8767,7 +11119,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.80953051544225796</v>
+      </c>
+      <c r="D20">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.2519063806039501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.22689627040590199</v>
+      </c>
+      <c r="H20">
+        <v>0.94785847299813797</v>
+      </c>
+      <c r="I20">
+        <v>217</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8776,7 +11148,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.28836293518955503</v>
+      </c>
+      <c r="D21">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F21">
+        <v>1.2592724986052199</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.12272324312465301</v>
+      </c>
+      <c r="H21">
+        <v>0.93389199255121003</v>
+      </c>
+      <c r="I21">
+        <v>208</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8785,7 +11177,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>8.8675755733602493E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.2096213086027401</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.0874331216044107E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.92551210428305397</v>
+      </c>
+      <c r="I22">
+        <v>198</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8794,7 +11206,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.47569167735882301</v>
+      </c>
+      <c r="D23">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.25411073622101</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.54100848482185304</v>
+      </c>
+      <c r="H23">
+        <v>0.97299813780260702</v>
+      </c>
+      <c r="I23">
+        <v>189</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -8803,7 +11235,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.89107398305066199</v>
+      </c>
+      <c r="D24">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.28701151534845</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.282355641401214</v>
+      </c>
+      <c r="H24">
+        <v>0.95344506517690897</v>
+      </c>
+      <c r="I24">
+        <v>244</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8889,7 +11341,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8946,9 +11398,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>2E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.41835251116432</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8.5053950410201005E-10</v>
+      </c>
+      <c r="H2">
+        <v>1.2821229050279299</v>
+      </c>
+      <c r="I2">
+        <v>335</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -8957,7 +11427,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F3">
+        <v>1.5005933194385299</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.53225141170525603</v>
+      </c>
+      <c r="H3">
+        <v>1.0279329608938499</v>
+      </c>
+      <c r="I3">
+        <v>354</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8966,7 +11456,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.50898217527326</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.41407847781852303</v>
+      </c>
+      <c r="H4">
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="I4">
+        <v>328</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -8975,8 +11485,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F5">
+        <v>1.5110470575218</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4255486886977799E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.16480446927374</v>
+      </c>
+      <c r="I5">
+        <v>360</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -8985,7 +11514,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.49E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.4700473446525699</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H6">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I6">
+        <v>349</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9009,8 +11558,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.93748988556384805</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>2E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.41628168079424</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.4275756167524302E-9</v>
+      </c>
+      <c r="H8">
+        <v>1.2690875232774701</v>
+      </c>
+      <c r="I8">
+        <v>338</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9019,7 +11587,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.81755107545595296</v>
+      </c>
+      <c r="D9">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.50091353383652</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.89664340549225596</v>
+      </c>
+      <c r="H9">
+        <v>1.00651769087523</v>
+      </c>
+      <c r="I9">
+        <v>347</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9028,8 +11616,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.96837884790978501</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.5092033161040601</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.51830322752332902</v>
+      </c>
+      <c r="H10">
+        <v>1.02886405959032</v>
+      </c>
+      <c r="I10">
+        <v>330</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9038,9 +11645,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.50587075036916</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.1463750924999298E-4</v>
+      </c>
+      <c r="H11">
+        <v>1.14990689013035</v>
+      </c>
+      <c r="I11">
+        <v>360</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9049,8 +11674,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.70216689354593498</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.47216488064204</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.28383296764629501</v>
+      </c>
+      <c r="H12">
+        <v>1.0474860335195499</v>
+      </c>
+      <c r="I12">
+        <v>360</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9074,7 +11718,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.93748988556384805</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>2E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.41628168079424</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7.0143773857163299E-9</v>
+      </c>
+      <c r="H14">
+        <v>1.26536312849162</v>
+      </c>
+      <c r="I14">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9083,7 +11747,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.61548149305503996</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.50091353383652</v>
+      </c>
+      <c r="G15">
+        <v>0.82874931980412503</v>
+      </c>
+      <c r="H15">
+        <v>1.0102420856610801</v>
+      </c>
+      <c r="I15">
+        <v>340</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9092,7 +11776,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.93685357640559597</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.5092033161040601</v>
+      </c>
+      <c r="G16">
+        <v>0.65047578375368198</v>
+      </c>
+      <c r="H16">
+        <v>1.02048417132216</v>
+      </c>
+      <c r="I16">
+        <v>331</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -9101,8 +11805,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.93936553971126802</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.50587075036916</v>
+      </c>
+      <c r="G17">
+        <v>7.5722426544761303E-4</v>
+      </c>
+      <c r="H17">
+        <v>1.1508379888268201</v>
+      </c>
+      <c r="I17">
+        <v>357</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -9110,6 +11833,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.73055198305523406</v>
+      </c>
+      <c r="D18">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.47216488064204</v>
+      </c>
+      <c r="G18">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H18">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I18">
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -9133,7 +11877,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>3.7162818047675898E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.3960760384450399</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.40566242840851502</v>
+      </c>
+      <c r="H20">
+        <v>0.96368715083798895</v>
+      </c>
+      <c r="I20">
+        <v>283</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -9142,7 +11906,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.61548149305503996</v>
+      </c>
+      <c r="D21">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F21">
+        <v>1.4868551622250701</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.16550674102215701</v>
+      </c>
+      <c r="H21">
+        <v>0.94040968342644304</v>
+      </c>
+      <c r="I21">
+        <v>340</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -9151,7 +11935,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.60201325319584498</v>
+      </c>
+      <c r="D22">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.49242280010683</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.45728690816092699</v>
+      </c>
+      <c r="H22">
+        <v>0.96741154562383602</v>
+      </c>
+      <c r="I22">
+        <v>314</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -9160,7 +11964,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.100543369600735</v>
+      </c>
+      <c r="D23">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.45161317099807</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.81094962679959604</v>
+      </c>
+      <c r="H23">
+        <v>0.988826815642458</v>
+      </c>
+      <c r="I23">
+        <v>317</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -9169,7 +11993,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.17930542970609001</v>
+      </c>
+      <c r="D24">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.44649220915957</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.54100848482185304</v>
+      </c>
+      <c r="H24">
+        <v>0.97299813780260702</v>
+      </c>
+      <c r="I24">
+        <v>314</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -9255,7 +12099,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C2" sqref="C2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9312,9 +12156,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.05073847135926</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.58458463301553298</v>
+      </c>
+      <c r="H2">
+        <v>0.97567820392890503</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9323,7 +12185,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.01827116613903</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.2481758624193001E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.92048643592142199</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9332,7 +12214,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0446386197415301</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.93063597241103302</v>
+      </c>
+      <c r="H4">
+        <v>0.99532273152479001</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9341,8 +12243,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.97957540611425198</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H5">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -9351,7 +12272,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.0870814236558199</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.52557988586028304</v>
+      </c>
+      <c r="H6">
+        <v>0.97193638914873703</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9375,8 +12316,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.05152578267194</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.56955863245500604</v>
+      </c>
+      <c r="H8">
+        <v>0.97474275023386303</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9385,7 +12345,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>4.30164727651344E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.1027447651917399</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H9">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9394,8 +12374,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0423220490957199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9404,9 +12403,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.98067488433004502</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.36601735026573401</v>
+      </c>
+      <c r="H11">
+        <v>1.0402245088868101</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9415,8 +12432,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.83024833217189298</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.09389534085089</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H12">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9440,7 +12476,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.05152578267194</v>
+      </c>
+      <c r="G14">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H14">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9449,7 +12505,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>4.30164727651344E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.1027447651917399</v>
+      </c>
+      <c r="G15">
+        <v>0.476645580740444</v>
+      </c>
+      <c r="H15">
+        <v>1.03180542563143</v>
+      </c>
+      <c r="I15">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9458,7 +12534,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0423220490957199</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -9467,8 +12563,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.98067488433004502</v>
+      </c>
+      <c r="G17">
+        <v>0.38907069193382998</v>
+      </c>
+      <c r="H17">
+        <v>1.0383536014967301</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -9476,6 +12591,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.83024833217189298</v>
+      </c>
+      <c r="D18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.09389534085089</v>
+      </c>
+      <c r="G18">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H18">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -9499,7 +12635,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.97577967557718104</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.9851280943155504E-29</v>
+      </c>
+      <c r="H20">
+        <v>0.57249766136576197</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -9508,7 +12664,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.26569828674663598</v>
+      </c>
+      <c r="D21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.94429982935788304</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.14209641005541E-43</v>
+      </c>
+      <c r="H21">
+        <v>0.48456501403180502</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -9517,7 +12693,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.77216429012917298</v>
+      </c>
+      <c r="D22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.93394142915156797</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.4915845934425501E-37</v>
+      </c>
+      <c r="H22">
+        <v>0.51824134705332103</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -9526,7 +12722,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>7.89106025246432E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.88983897963458203</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.40579685135288E-40</v>
+      </c>
+      <c r="H23">
+        <v>0.50327408793264705</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -9535,7 +12751,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.29988013718469902</v>
+      </c>
+      <c r="D24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.999798594478712</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.3793749066000097E-39</v>
+      </c>
+      <c r="H24">
+        <v>0.51075771749298404</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -9559,7 +12795,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.47751167045609999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.97248233752495605</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.6355531707710792E-12</v>
+      </c>
+      <c r="H26">
+        <v>0.725912067352666</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -9568,7 +12824,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>0.801809439192952</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.93946028105896895</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8.6355531707710792E-12</v>
+      </c>
+      <c r="H27">
+        <v>0.725912067352666</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -9577,7 +12853,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.96315742372127899</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.2196771598822899E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.78391019644527604</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -9586,7 +12882,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>0.50018425707079495</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.89813040977185299</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.11324776359735E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77455565949485505</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -9595,7 +12911,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.0165152464151299</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.71328418813201E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.73620205799812899</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -9621,7 +12957,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9678,9 +13014,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.33988760068941</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.79361421206506499</v>
+      </c>
+      <c r="H2">
+        <v>0.98783910196445301</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9689,7 +13043,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.2564913166779099</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.72697482134073299</v>
+      </c>
+      <c r="H3">
+        <v>0.98409728718428402</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9698,7 +13072,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.2899129058174901</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.3509053209922199E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.91768007483629599</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9707,8 +13101,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.33231072519155</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.87928882086617</v>
+      </c>
+      <c r="H5">
+        <v>1.00748362956034</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -9717,7 +13130,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.26294907903141</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.57436393689020204</v>
+      </c>
+      <c r="H6">
+        <v>1.0252572497661401</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9741,8 +13174,6 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9751,7 +13182,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.2806465063414401</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.9193851550857403E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.0916744621141301</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9760,8 +13211,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>3.2760050788036201E-3</v>
+      </c>
+      <c r="D10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.89946411467944798</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.3509053209922199E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.91768007483629599</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9770,9 +13240,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11">
+        <v>0.87883844467288497</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3301786449406301</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H11">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9781,8 +13269,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="1">
+        <v>6.4316696275526705E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.00400151648092</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.1174062838645499E-6</v>
+      </c>
+      <c r="H12">
+        <v>1.2217025257249801</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9815,7 +13322,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.2806465063414401</v>
+      </c>
+      <c r="G15">
+        <v>4.1217210707453503E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.09073900841908</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9824,7 +13351,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>3.2760050788036201E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.89946411467944798</v>
+      </c>
+      <c r="G16">
+        <v>5.0765742856854E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.91674462114125399</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -9833,8 +13380,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.87883844467288497</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.3301786449406301</v>
+      </c>
+      <c r="G17">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H17">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -9842,6 +13408,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6.4316696275526705E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.00400151648092</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.94987000040201E-6</v>
+      </c>
+      <c r="H18">
+        <v>1.20954162768943</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -9865,7 +13452,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.28592983872427702</v>
+      </c>
+      <c r="D20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.2071448422034099</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.8358102131533494E-42</v>
+      </c>
+      <c r="H20">
+        <v>0.49485500467726801</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -9874,7 +13481,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.20680608875822201</v>
+      </c>
+      <c r="D21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.14056746750329</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.3260551168577804E-36</v>
+      </c>
+      <c r="H21">
+        <v>0.52853133769878402</v>
+      </c>
+      <c r="I21">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -9883,7 +13510,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.160454212492423</v>
+      </c>
+      <c r="D22">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.1468308090917001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.3072760492465999E-40</v>
+      </c>
+      <c r="H22">
+        <v>0.50233863423760505</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -9892,7 +13539,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.527910852215697</v>
+      </c>
+      <c r="D23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.25923141380694</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.0332979645312598E-19</v>
+      </c>
+      <c r="H23">
+        <v>0.65107577174929798</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -9901,7 +13568,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>9.3569775225048904E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.0839982494734199</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.46484012962348E-41</v>
+      </c>
+      <c r="H24">
+        <v>0.495790458372311</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -9925,7 +13612,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.68428341045158503</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.2446883810728999</v>
+      </c>
+      <c r="G26">
+        <v>0.138926815152151</v>
+      </c>
+      <c r="H26">
+        <v>0.93638914873713797</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -9934,7 +13641,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>5.8051232472396704E-40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F27">
+        <v>4.2029996938877199</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>21.296538821328301</v>
+      </c>
+      <c r="I27">
+        <v>220</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -9943,7 +13670,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.1691524964933999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.5918255915872305E-10</v>
+      </c>
+      <c r="H28">
+        <v>0.74929840972871797</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -9952,7 +13699,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>0.33190909415897701</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.21886016567303</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.7061000728472501E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77362020579981305</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -9961,7 +13728,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.57044719756236295</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.14370290284423</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.3789983302807203E-7</v>
+      </c>
+      <c r="H30">
+        <v>0.79794200187090703</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA96A06-069B-4311-A776-A2D983AC5266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB6374-0AE8-4953-A300-BF6319E7D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5156D-B603-4DE6-8349-0DAA0F3F8790}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2060,7 +2060,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2117,9 +2117,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.0072095004608499</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.87884432676124402</v>
+      </c>
+      <c r="H2">
+        <v>0.99251637043966301</v>
+      </c>
+      <c r="I2">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2128,7 +2146,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.98329796060338304</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.74347569898463495</v>
+      </c>
+      <c r="H3">
+        <v>0.98503274087932602</v>
+      </c>
+      <c r="I3">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2137,7 +2175,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0070854830976601</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.93063597241103302</v>
+      </c>
+      <c r="H4">
+        <v>0.99532273152479001</v>
+      </c>
+      <c r="I4">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2146,8 +2204,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F5">
+        <v>1.01142248821247</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.16449130087843</v>
+      </c>
+      <c r="H5">
+        <v>0.94013096351730596</v>
+      </c>
+      <c r="I5">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2156,7 +2233,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.99642626643556798</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.343855478949049</v>
+      </c>
+      <c r="H6">
+        <v>1.0420954162768901</v>
+      </c>
+      <c r="I6">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2180,8 +2277,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.83436802816535505</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.0067824218291801</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.91333641926778497</v>
+      </c>
+      <c r="H8">
+        <v>0.99438727782974701</v>
+      </c>
+      <c r="I8">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2190,7 +2306,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.70179655425855403</v>
+      </c>
+      <c r="D9">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0003317145024699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H9">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I9">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2199,8 +2335,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.63045189013537795</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.97378768758197098</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.3345130582295302E-5</v>
+      </c>
+      <c r="H10">
+        <v>1.18715083798883</v>
+      </c>
+      <c r="I10">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2209,9 +2364,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>5.8631993631321801E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.99398178430348705</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.1944334256904399E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.1318989710009399</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2245,7 +2418,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.83436802816535505</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.0067824218291801</v>
+      </c>
+      <c r="G14">
+        <v>0.91333641926778497</v>
+      </c>
+      <c r="H14">
+        <v>0.99438727782974701</v>
+      </c>
+      <c r="I14">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2254,7 +2447,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.70179655425855403</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0003317145024699</v>
+      </c>
+      <c r="G15">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H15">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I15">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2263,7 +2476,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.63045189013537795</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.97378768758197098</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.3345130582295302E-5</v>
+      </c>
+      <c r="H16">
+        <v>1.18715083798883</v>
+      </c>
+      <c r="I16">
+        <v>103</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -2272,8 +2505,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>5.8631993631321801E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.99398178430348705</v>
+      </c>
+      <c r="G17">
+        <v>3.1944334256904399E-3</v>
+      </c>
+      <c r="H17">
+        <v>1.1318989710009399</v>
+      </c>
+      <c r="I17">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2304,7 +2556,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>8.8905719941829097E-4</v>
+      </c>
+      <c r="D20">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.92469190579736904</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.2683450158440701E-32</v>
+      </c>
+      <c r="H20">
+        <v>0.548175865294668</v>
+      </c>
+      <c r="I20">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -2313,7 +2585,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21" s="1">
+        <v>5.8920200533961201E-7</v>
+      </c>
+      <c r="D21">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.84715639339529103</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.68065506144431E-59</v>
+      </c>
+      <c r="H21">
+        <v>0.412535079513564</v>
+      </c>
+      <c r="I21">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -2322,7 +2614,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>1.7516014063951899E-4</v>
+      </c>
+      <c r="D22">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.93326159428509503</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.23853799855823E-29</v>
+      </c>
+      <c r="H22">
+        <v>0.56782039289055197</v>
+      </c>
+      <c r="I22">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -2331,7 +2643,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>2.8445493330270201E-4</v>
+      </c>
+      <c r="D23">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.93626315515866598</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.2165322743130598E-28</v>
+      </c>
+      <c r="H23">
+        <v>0.57904583723105696</v>
+      </c>
+      <c r="I23">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2340,7 +2672,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>1.5745967705817999E-3</v>
+      </c>
+      <c r="D24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.89033979747401903</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.3072760492465999E-40</v>
+      </c>
+      <c r="H24">
+        <v>0.50233863423760505</v>
+      </c>
+      <c r="I24">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2364,7 +2716,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.117875136879338</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.92887053779888895</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.7247148927708599E-12</v>
+      </c>
+      <c r="H26">
+        <v>0.71749298409728701</v>
+      </c>
+      <c r="I26">
+        <v>80</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -2373,7 +2745,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>4.17988312182219E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.908510089721696</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.7217937948198601E-8</v>
+      </c>
+      <c r="H27">
+        <v>0.77736202057998105</v>
+      </c>
+      <c r="I27">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -2382,7 +2774,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>7.2728753729068604E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.92708078211215805</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.7795362772172496E-9</v>
+      </c>
+      <c r="H28">
+        <v>0.76239476145930796</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -2391,7 +2803,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1.2428230414932099E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.93199792994735697</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.6602226141759695E-10</v>
+      </c>
+      <c r="H29">
+        <v>0.75116931711880297</v>
+      </c>
+      <c r="I29">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2400,7 +2832,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>2.04528431076016E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.90614680145822701</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.1185770331466603E-9</v>
+      </c>
+      <c r="H30">
+        <v>0.76145930776426596</v>
+      </c>
+      <c r="I30">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2792,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0F4A-07C1-43A2-AEDC-E0CA256A5518}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2850,9 +3302,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0916982073998001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.778207029697355</v>
+      </c>
+      <c r="H2">
+        <v>1.01309635173059</v>
+      </c>
+      <c r="I2">
+        <v>139</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2861,7 +3331,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0827511160940599</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.41713488480052502</v>
+      </c>
+      <c r="H3">
+        <v>0.96445275958840004</v>
+      </c>
+      <c r="I3">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2870,7 +3360,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0604866891031901</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.89640421975343498</v>
+      </c>
+      <c r="H4">
+        <v>1.0065481758652901</v>
+      </c>
+      <c r="I4">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2879,8 +3389,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.0885655094346001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H5">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I5">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2889,7 +3418,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.0662870808026601</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H6">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I6">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2913,8 +3462,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.67674400504321297</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.0938497551292601</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.54546964771015805</v>
+      </c>
+      <c r="H8">
+        <v>1.0271281571562201</v>
+      </c>
+      <c r="I8">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2923,7 +3491,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.495544951826207</v>
+      </c>
+      <c r="D9">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0817879951832501</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.0009354536950399</v>
+      </c>
+      <c r="I9">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2932,8 +3520,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.84229287770280103</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0512652398744899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H10">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I10">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2942,9 +3549,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.74125885678429304</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0831728532106999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H11">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I11">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2953,8 +3578,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.52200969584238899</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.06573072369528</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.51734073103997702</v>
+      </c>
+      <c r="H12">
+        <v>1.0289990645463001</v>
+      </c>
+      <c r="I12">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2978,7 +3622,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.72036650723613205</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.0938497551292601</v>
+      </c>
+      <c r="G14">
+        <v>0.55982310219123799</v>
+      </c>
+      <c r="H14">
+        <v>1.02619270346118</v>
+      </c>
+      <c r="I14">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2987,7 +3651,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.61816645182683005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0817879951832501</v>
+      </c>
+      <c r="G15">
+        <v>0.89606982450870598</v>
+      </c>
+      <c r="H15">
+        <v>0.99345182413470501</v>
+      </c>
+      <c r="I15">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2996,7 +3680,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.84229287770280103</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0512652398744899</v>
+      </c>
+      <c r="G16">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H16">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I16">
+        <v>113</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -3005,8 +3709,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.74125885678429304</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.0831728532106999</v>
+      </c>
+      <c r="G17">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H17">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I17">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3014,6 +3737,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.52200969584238899</v>
+      </c>
+      <c r="D18">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.06573072369528</v>
+      </c>
+      <c r="G18">
+        <v>0.54546964771015805</v>
+      </c>
+      <c r="H18">
+        <v>1.0271281571562201</v>
+      </c>
+      <c r="I18">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3037,7 +3781,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>2.05613775324614E-4</v>
+      </c>
+      <c r="D20">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.96644099013353801</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.9576440853580099E-42</v>
+      </c>
+      <c r="H20">
+        <v>0.49204864359214201</v>
+      </c>
+      <c r="I20">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -3046,7 +3810,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>2.1167528170400299E-4</v>
+      </c>
+      <c r="D21">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.97718382548293004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.3079790150994601E-44</v>
+      </c>
+      <c r="H21">
+        <v>0.48175865294667902</v>
+      </c>
+      <c r="I21">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3055,7 +3839,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1">
+        <v>1.06209704321E-7</v>
+      </c>
+      <c r="D22">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.918875727896029</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.7649612988770299E-72</v>
+      </c>
+      <c r="H22">
+        <v>0.35921421889616501</v>
+      </c>
+      <c r="I22">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3064,7 +3868,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23" s="1">
+        <v>1.0237778872046601E-6</v>
+      </c>
+      <c r="D23">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.92758028371984902</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.1228564111244701E-48</v>
+      </c>
+      <c r="H23">
+        <v>0.45930776426566899</v>
+      </c>
+      <c r="I23">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -3073,7 +3897,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>3.9953747552684497E-3</v>
+      </c>
+      <c r="D24">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.97833029620732603</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.3205795656707E-23</v>
+      </c>
+      <c r="H24">
+        <v>0.61178671655753003</v>
+      </c>
+      <c r="I24">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -3097,7 +3941,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.16557562965973999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0105148239989901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.3789983302807203E-7</v>
+      </c>
+      <c r="H26">
+        <v>0.79794200187090703</v>
+      </c>
+      <c r="I26">
+        <v>116</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -3106,7 +3970,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0646040317874801</v>
+      </c>
+      <c r="G27">
+        <v>0.61515503238382696</v>
+      </c>
+      <c r="H27">
+        <v>0.97754911131899003</v>
+      </c>
+      <c r="I27">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -3115,7 +3999,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>6.9286042429518399E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.97287698399544398</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.9436884521800902E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.79232927970065503</v>
+      </c>
+      <c r="I28">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3124,7 +4028,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>8.4315002980722698E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.99822506742878803</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.1123944479397203E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77642656688493905</v>
+      </c>
+      <c r="I29">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3133,7 +4057,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.69005476016800404</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F30">
+        <v>0.99050418400700502</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.4017011410996503E-7</v>
+      </c>
+      <c r="H30">
+        <v>0.79700654817586503</v>
+      </c>
+      <c r="I30">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB6374-0AE8-4953-A300-BF6319E7D7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A346D1-B8D5-472A-9144-5F9D74E61F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -3244,7 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0F4A-07C1-43A2-AEDC-E0CA256A5518}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4102,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59F079-BE89-4308-A5F3-447E9892B8B1}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4160,9 +4160,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.3068214867741399</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.4564005265891499E-15</v>
+      </c>
+      <c r="H2">
+        <v>0.68435754189944098</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4171,7 +4189,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.2448781702182801</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.5369876586276299E-14</v>
+      </c>
+      <c r="H3">
+        <v>0.70111731843575398</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4180,7 +4218,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>2E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.3643240271757999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.22359699343785E-7</v>
+      </c>
+      <c r="H4">
+        <v>0.78864059590316604</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4189,8 +4247,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.2417358410684001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.1017704702792302E-15</v>
+      </c>
+      <c r="H5">
+        <v>0.68901303538175096</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4199,7 +4276,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.3735469129972799</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.8625921326728899E-10</v>
+      </c>
+      <c r="H6">
+        <v>0.74767225325884501</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4223,8 +4320,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.334191527498163</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.4488254613709799</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="H8">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4233,7 +4349,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.67896651845659495</v>
+      </c>
+      <c r="D9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.3780622522133199</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.28383296764629501</v>
+      </c>
+      <c r="H9">
+        <v>1.0474860335195499</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4242,8 +4378,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>2E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.4581107155781201</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.98270692227788603</v>
+      </c>
+      <c r="H10">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4252,9 +4407,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.43526631107494901</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3725730502667299</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H11">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4263,8 +4436,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.48956747649668</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H12">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I12">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4288,7 +4480,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.334191527498163</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.4488254613709799</v>
+      </c>
+      <c r="G14">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="H14">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4297,7 +4509,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.67896651845659495</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.3780622522133199</v>
+      </c>
+      <c r="G15">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H15">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4306,7 +4538,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>2E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.4581107155781201</v>
+      </c>
+      <c r="G16">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="H16">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -4315,8 +4567,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.43526631107494901</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.3725730502667299</v>
+      </c>
+      <c r="G17">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H17">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4324,6 +4595,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.48956747649668</v>
+      </c>
+      <c r="G18">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H18">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4347,7 +4639,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.88384131602239602</v>
+      </c>
+      <c r="D20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.4110314174579599</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.7032476666988905E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.89106145251396696</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4356,7 +4668,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.3571162312888001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="H21">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -4365,7 +4697,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.68428341045158503</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.4370071510034299</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.128251903102791</v>
+      </c>
+      <c r="H22">
+        <v>0.93482309124767204</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -4374,7 +4726,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.59707531158507199</v>
+      </c>
+      <c r="D23">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.3758301969617099</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.21845204198962501</v>
+      </c>
+      <c r="H23">
+        <v>0.94692737430167595</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4383,7 +4755,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.4541536347767601</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="H24">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A346D1-B8D5-472A-9144-5F9D74E61F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7832FDC3-8BB7-43FC-BE20-9A7502D4D52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -4102,6 +4102,3796 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59F079-BE89-4308-A5F3-447E9892B8B1}">
   <dimension ref="A1:K31"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.3068214867741399</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.4564005265891499E-15</v>
+      </c>
+      <c r="H2">
+        <v>0.68435754189944098</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.2448781702182801</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.5369876586276299E-14</v>
+      </c>
+      <c r="H3">
+        <v>0.70111731843575398</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>2E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.3643240271757999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.22359699343785E-7</v>
+      </c>
+      <c r="H4">
+        <v>0.78864059590316604</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.2417358410684001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.1017704702792302E-15</v>
+      </c>
+      <c r="H5">
+        <v>0.68901303538175096</v>
+      </c>
+      <c r="I5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.3735469129972799</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.8625921326728899E-10</v>
+      </c>
+      <c r="H6">
+        <v>0.74767225325884501</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.334191527498163</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.4488254613709799</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="H8">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.67896651845659495</v>
+      </c>
+      <c r="D9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.3780622522133199</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.28383296764629501</v>
+      </c>
+      <c r="H9">
+        <v>1.0474860335195499</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>2E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.4581107155781201</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.98270692227788603</v>
+      </c>
+      <c r="H10">
+        <v>1.00186219739292</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.43526631107494901</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3725730502667299</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H11">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.48956747649668</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H12">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.334191527498163</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.4488254613709799</v>
+      </c>
+      <c r="G14">
+        <v>0.77731225170713303</v>
+      </c>
+      <c r="H14">
+        <v>0.98696461824953396</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.67896651845659495</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.3780622522133199</v>
+      </c>
+      <c r="G15">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H15">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>2E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.4581107155781201</v>
+      </c>
+      <c r="G16">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="H16">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.43526631107494901</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.3725730502667299</v>
+      </c>
+      <c r="G17">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H17">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.48956747649668</v>
+      </c>
+      <c r="G18">
+        <v>0.33421391407658402</v>
+      </c>
+      <c r="H18">
+        <v>1.04283054003724</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.88384131602239602</v>
+      </c>
+      <c r="D20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.4110314174579599</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.7032476666988905E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.89106145251396696</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.3571162312888001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="H21">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.68428341045158503</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.4370071510034299</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.128251903102791</v>
+      </c>
+      <c r="H22">
+        <v>0.93482309124767204</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.59707531158507199</v>
+      </c>
+      <c r="D23">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.3758301969617099</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.21845204198962501</v>
+      </c>
+      <c r="H23">
+        <v>0.94692737430167595</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.62408341637540099</v>
+      </c>
+      <c r="D24">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.4541536347767601</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.66296655585615505</v>
+      </c>
+      <c r="H24">
+        <v>0.98044692737430195</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EECEB8-E8FF-41C3-972E-3FC1A2544F02}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="E2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.6410084526589102</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.7023849129854299E-25</v>
+      </c>
+      <c r="H2">
+        <v>0.59962756052141497</v>
+      </c>
+      <c r="I2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.4076543442840999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.1540257332371104E-37</v>
+      </c>
+      <c r="H3">
+        <v>0.522346368715084</v>
+      </c>
+      <c r="I3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.1928158214267701</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.00979010696443E-4</v>
+      </c>
+      <c r="H4">
+        <v>0.83891992551210404</v>
+      </c>
+      <c r="I4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>3.05819417802073</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4852624759292801E-9</v>
+      </c>
+      <c r="H5">
+        <v>0.75884543761638701</v>
+      </c>
+      <c r="I5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.0560197884769398</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.85161150978347E-12</v>
+      </c>
+      <c r="H6">
+        <v>0.72346368715083798</v>
+      </c>
+      <c r="I6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.12989183447692601</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.0543533764470898</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.93901472298295E-8</v>
+      </c>
+      <c r="H8">
+        <v>1.25698324022346</v>
+      </c>
+      <c r="I8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>6.6643762398852701E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.9994818950283899</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.3855442252201201E-8</v>
+      </c>
+      <c r="H9">
+        <v>1.2597765363128499</v>
+      </c>
+      <c r="I9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.475749259630317</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.40987097332849</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.39015580177518799</v>
+      </c>
+      <c r="H10">
+        <v>1.03817504655493</v>
+      </c>
+      <c r="I10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.56650642369749205</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.3180341573944698</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.69754353996699003</v>
+      </c>
+      <c r="H11">
+        <v>1.01769087523277</v>
+      </c>
+      <c r="I11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.25635512464271598</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="E12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.43000447084661</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.41407847781852303</v>
+      </c>
+      <c r="H12">
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="I12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.12989183447692601</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.0543533764470898</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.2379170415968499E-8</v>
+      </c>
+      <c r="H14">
+        <v>1.26070763500931</v>
+      </c>
+      <c r="I14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5.47630644791773E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.9994818950283899</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.3855442252201201E-8</v>
+      </c>
+      <c r="H15">
+        <v>1.2597765363128499</v>
+      </c>
+      <c r="I15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.55836113996517001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+      <c r="F16">
+        <v>3.40987097332849</v>
+      </c>
+      <c r="G16">
+        <v>0.53225141170525603</v>
+      </c>
+      <c r="H16">
+        <v>1.0279329608938499</v>
+      </c>
+      <c r="I16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.56650642369749205</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.3180341573944698</v>
+      </c>
+      <c r="G17">
+        <v>0.72963252502329901</v>
+      </c>
+      <c r="H17">
+        <v>1.01582867783985</v>
+      </c>
+      <c r="I17">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.25635512464271598</v>
+      </c>
+      <c r="D18">
+        <v>0.157</v>
+      </c>
+      <c r="E18">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F18">
+        <v>3.43000447084661</v>
+      </c>
+      <c r="G18">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H18">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I18">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.12989183447692601</v>
+      </c>
+      <c r="D20">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>3.0021358698799001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.107235693441896</v>
+      </c>
+      <c r="H20">
+        <v>0.93109869646182497</v>
+      </c>
+      <c r="I20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>9.8883272156052193E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.121</v>
+      </c>
+      <c r="E21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>2.8198369403130901</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.8390235773451101E-4</v>
+      </c>
+      <c r="H21">
+        <v>0.84916201117318402</v>
+      </c>
+      <c r="I21">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.74353555263669002</v>
+      </c>
+      <c r="D22">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.3259617483845201</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.89664340549225596</v>
+      </c>
+      <c r="H22">
+        <v>1.00651769087523</v>
+      </c>
+      <c r="I22">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.847152770840781</v>
+      </c>
+      <c r="D23">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>3.2530115009718599</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.12272324312465301</v>
+      </c>
+      <c r="H23">
+        <v>0.93389199255121003</v>
+      </c>
+      <c r="I23">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.34217083569468898</v>
+      </c>
+      <c r="D24">
+        <v>0.154</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>3.2962906365591702</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.210232145687238</v>
+      </c>
+      <c r="H24">
+        <v>0.94599627560521404</v>
+      </c>
+      <c r="I24">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECA4403-F8D1-4751-999D-688582787D90}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="E2">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.1296508672128702</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.4091693962644301E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.91806331471135905</v>
+      </c>
+      <c r="I2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.22</v>
+      </c>
+      <c r="E3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.8243281096080697</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.85161150978347E-12</v>
+      </c>
+      <c r="H3">
+        <v>0.72346368715083798</v>
+      </c>
+      <c r="I3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.89762744137263</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.4096014110947096E-6</v>
+      </c>
+      <c r="H4">
+        <v>0.81564245810055902</v>
+      </c>
+      <c r="I4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.216</v>
+      </c>
+      <c r="E5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.2728523843093598</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.587600550224E-21</v>
+      </c>
+      <c r="H5">
+        <v>0.629422718808194</v>
+      </c>
+      <c r="I5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.224</v>
+      </c>
+      <c r="E6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.4332032724095098</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.0712912717750601E-18</v>
+      </c>
+      <c r="H6">
+        <v>0.65828677839851002</v>
+      </c>
+      <c r="I6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.50644713157453103</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.5097259027330603</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.9113988517028799E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.0968342644320299</v>
+      </c>
+      <c r="I8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.15386177650305399</v>
+      </c>
+      <c r="D9">
+        <v>0.248</v>
+      </c>
+      <c r="E9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.2989915644963697</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.91353805817899203</v>
+      </c>
+      <c r="H9">
+        <v>0.994413407821229</v>
+      </c>
+      <c r="I9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.25368194206968198</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E10">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>5.2631228891682396</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.230628632798242</v>
+      </c>
+      <c r="H10">
+        <v>1.0530726256983201</v>
+      </c>
+      <c r="I10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.7438929432201698E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="E11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.1311276177923597</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.7377821906458E-9</v>
+      </c>
+      <c r="H11">
+        <v>1.27653631284916</v>
+      </c>
+      <c r="I11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.12838070160753301</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>4.9898334126408601</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.41407847781852303</v>
+      </c>
+      <c r="H12">
+        <v>1.0363128491620099</v>
+      </c>
+      <c r="I12">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.64470710364073502</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.5097259027330603</v>
+      </c>
+      <c r="G14">
+        <v>6.1867366554282802E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.1219739292365001</v>
+      </c>
+      <c r="I14">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.26522422514113397</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>5.2989915644963697</v>
+      </c>
+      <c r="G15">
+        <v>0.87956682934598895</v>
+      </c>
+      <c r="H15">
+        <v>1.0074487895716899</v>
+      </c>
+      <c r="I15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.32323605309101799</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F16">
+        <v>5.2631228891682396</v>
+      </c>
+      <c r="G16">
+        <v>0.247497933112028</v>
+      </c>
+      <c r="H16">
+        <v>1.0512104283054</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.4523106684268E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="E17">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>5.1311276177923597</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.0247784670106399E-11</v>
+      </c>
+      <c r="H17">
+        <v>1.31005586592179</v>
+      </c>
+      <c r="I17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.17188376064520999</v>
+      </c>
+      <c r="D18">
+        <v>0.251</v>
+      </c>
+      <c r="E18">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>4.9898334126408601</v>
+      </c>
+      <c r="G18">
+        <v>0.17145702702179</v>
+      </c>
+      <c r="H18">
+        <v>1.06052141527002</v>
+      </c>
+      <c r="I18">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.68169281988014196</v>
+      </c>
+      <c r="D20">
+        <v>0.26</v>
+      </c>
+      <c r="E20">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F20">
+        <v>5.2583936163893998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.79528948741880001</v>
+      </c>
+      <c r="H20">
+        <v>1.0121042830539999</v>
+      </c>
+      <c r="I20">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.36564155852746999</v>
+      </c>
+      <c r="D21">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F21">
+        <v>5.1062654481488998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.6932385252546598E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.87430167597765396</v>
+      </c>
+      <c r="I21">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.46514049422303999</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="F22">
+        <v>5.0591932595540001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.31320967818193601</v>
+      </c>
+      <c r="H22">
+        <v>0.95623836126629402</v>
+      </c>
+      <c r="I22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.15139295901716501</v>
+      </c>
+      <c r="D23">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E23">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>4.8371691180165399</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.84490809408418599</v>
+      </c>
+      <c r="H23">
+        <v>0.99068901303538204</v>
+      </c>
+      <c r="I23">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.156279835787514</v>
+      </c>
+      <c r="D24">
+        <v>0.252</v>
+      </c>
+      <c r="E24">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.8402503131187302</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.9216107580550698E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.91247672253258805</v>
+      </c>
+      <c r="I24">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F2C79-CE31-460A-A855-FB31D20F3B44}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.00683660725216</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.0773216449910098E-9</v>
+      </c>
+      <c r="H2">
+        <v>0.76443202979515801</v>
+      </c>
+      <c r="I2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.95440368128283304</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.7271118445945499E-10</v>
+      </c>
+      <c r="H3">
+        <v>0.74301675977653603</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.94981111266950602</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5782980971577702E-13</v>
+      </c>
+      <c r="H4">
+        <v>0.70856610800744901</v>
+      </c>
+      <c r="I4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.98180626228065704</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.5271777824465102E-13</v>
+      </c>
+      <c r="H5">
+        <v>0.71508379888268203</v>
+      </c>
+      <c r="I5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.96032661338713199</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.8674647298379701E-8</v>
+      </c>
+      <c r="H6">
+        <v>0.77932960893854797</v>
+      </c>
+      <c r="I6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6.7299517844620599E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.0693666597629199</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.79408697232597003</v>
+      </c>
+      <c r="H8">
+        <v>0.98789571694599598</v>
+      </c>
+      <c r="I8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4.4243150247970299E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.05063587303064</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H9">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1.7525739156513901E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0383736998573001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.54100848482185304</v>
+      </c>
+      <c r="H10">
+        <v>0.97299813780260702</v>
+      </c>
+      <c r="I10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.7262256702833197E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F11">
+        <v>1.0644015414446499</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.51230141415826203</v>
+      </c>
+      <c r="H11">
+        <v>0.97113594040968299</v>
+      </c>
+      <c r="I11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4.1509635350087302E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.0487086652098101</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.17145702702179</v>
+      </c>
+      <c r="H12">
+        <v>1.06052141527002</v>
+      </c>
+      <c r="I12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5.8614149320117201E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.0693666597629199</v>
+      </c>
+      <c r="G14">
+        <v>0.79408697232597003</v>
+      </c>
+      <c r="H14">
+        <v>0.98789571694599598</v>
+      </c>
+      <c r="I14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4.4243150247970299E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.05063587303064</v>
+      </c>
+      <c r="G15">
+        <v>0.27442117204866301</v>
+      </c>
+      <c r="H15">
+        <v>1.0484171322160101</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1.7525739156513901E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0383736998573001</v>
+      </c>
+      <c r="G16">
+        <v>0.54100848482185304</v>
+      </c>
+      <c r="H16">
+        <v>0.97299813780260702</v>
+      </c>
+      <c r="I16">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.7262256702833197E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.0644015414446499</v>
+      </c>
+      <c r="G17">
+        <v>0.49824182538815598</v>
+      </c>
+      <c r="H17">
+        <v>0.97020484171322197</v>
+      </c>
+      <c r="I17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4.1509635350087302E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.0487086652098101</v>
+      </c>
+      <c r="G18">
+        <v>0.17145702702179</v>
+      </c>
+      <c r="H18">
+        <v>1.06052141527002</v>
+      </c>
+      <c r="I18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.73111977496146796</v>
+      </c>
+      <c r="D20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.0598393564881601</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.4498937736518699E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.88547486033519596</v>
+      </c>
+      <c r="I20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>6.9286042429518399E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.04904274531078</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.71124126188985204</v>
+      </c>
+      <c r="H21">
+        <v>0.983240223463687</v>
+      </c>
+      <c r="I21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2.4670718876477898E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.02701240607013</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.82983801613323E-3</v>
+      </c>
+      <c r="H22">
+        <v>0.86964618249534498</v>
+      </c>
+      <c r="I22">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>8.4315002980722698E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.0600024844773499</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.96007996401275E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.90782122905027895</v>
+      </c>
+      <c r="I23">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>9.8273853568124001E-2</v>
+      </c>
+      <c r="D24">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.0490164783781299</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.72759029702775402</v>
+      </c>
+      <c r="H24">
+        <v>0.98417132216014902</v>
+      </c>
+      <c r="I24">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5AAEF-BB3D-43CE-A7D2-C811D186D60D}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.10649535850404</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2959273186801899E-19</v>
+      </c>
+      <c r="H2">
+        <v>0.64804469273743004</v>
+      </c>
+      <c r="I2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F3">
+        <v>1.1766990548684699</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.7643843905344999E-11</v>
+      </c>
+      <c r="H3">
+        <v>0.73277467411545605</v>
+      </c>
+      <c r="I3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.77E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.1731897382152801</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.4602080677994702E-8</v>
+      </c>
+      <c r="H4">
+        <v>0.77746741154562404</v>
+      </c>
+      <c r="I4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.83E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.21511226584633</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.3053420686298696E-5</v>
+      </c>
+      <c r="H5">
+        <v>0.837057728119181</v>
+      </c>
+      <c r="I5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.07651146743842</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.7023849129854299E-25</v>
+      </c>
+      <c r="H6">
+        <v>0.59962756052141497</v>
+      </c>
+      <c r="I6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.3721217885996701E-5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.26306439549945</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.4798739228268494E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.1154562383612701</v>
+      </c>
+      <c r="I8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2.6122245824327199E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.28154941026395</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.52655840375530205</v>
+      </c>
+      <c r="H9">
+        <v>0.972067039106145</v>
+      </c>
+      <c r="I9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>9.0681801408540999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.2698651668594401</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.94817706565693605</v>
+      </c>
+      <c r="H10">
+        <v>1.0037243947858501</v>
+      </c>
+      <c r="I10">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.6436608993508303E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.29177271576565</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.36711322054030798</v>
+      </c>
+      <c r="H11">
+        <v>1.04003724394786</v>
+      </c>
+      <c r="I11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.0824506397365099E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.21774997622353</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.14658214118527599</v>
+      </c>
+      <c r="H12">
+        <v>1.06424581005587</v>
+      </c>
+      <c r="I12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.0019066573163997E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.26306439549945</v>
+      </c>
+      <c r="G14">
+        <v>1.0674592692717E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.11359404096834</v>
+      </c>
+      <c r="I14">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2.6122245824327199E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.28154941026395</v>
+      </c>
+      <c r="G15">
+        <v>0.52655840375530205</v>
+      </c>
+      <c r="H15">
+        <v>0.972067039106145</v>
+      </c>
+      <c r="I15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.11109093428717499</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.2698651668594401</v>
+      </c>
+      <c r="G16">
+        <v>0.89664340549225596</v>
+      </c>
+      <c r="H16">
+        <v>1.00651769087523</v>
+      </c>
+      <c r="I16">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.7823946704559596E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.29177271576565</v>
+      </c>
+      <c r="G17">
+        <v>0.30331898821772302</v>
+      </c>
+      <c r="H17">
+        <v>1.0456238361266299</v>
+      </c>
+      <c r="I17">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1.0824506397365099E-4</v>
+      </c>
+      <c r="D18">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.21774997622353</v>
+      </c>
+      <c r="G18">
+        <v>0.14658214118527599</v>
+      </c>
+      <c r="H18">
+        <v>1.06424581005587</v>
+      </c>
+      <c r="I18">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2.87735237383232E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.02</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.2357256592719601</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.3343638152600699E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.92364990689013005</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2.3137087060135699E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F21">
+        <v>1.26697627506417</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.23556654567434801</v>
+      </c>
+      <c r="H21">
+        <v>0.94878957169459999</v>
+      </c>
+      <c r="I21">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0.11109093428717499</v>
+      </c>
+      <c r="D22">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F22">
+        <v>1.25835318902441</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5.9982888355910702E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.91992551210428297</v>
+      </c>
+      <c r="I22">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.40908538813938899</v>
+      </c>
+      <c r="D23">
+        <v>0.02</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.27258189436726</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.71124126188985204</v>
+      </c>
+      <c r="H23">
+        <v>0.983240223463687</v>
+      </c>
+      <c r="I23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.46015957697268E-5</v>
+      </c>
+      <c r="D24">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.23096413360344</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.179555659490514</v>
+      </c>
+      <c r="H24">
+        <v>0.94227188081936697</v>
+      </c>
+      <c r="I24">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05735F4-FD3F-40F9-8685-B1D1CA0BCEFB}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I26"/>
     </sheetView>
@@ -4164,22 +7954,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.04E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F2">
-        <v>1.3068214867741399</v>
+        <v>1.3965350877624201</v>
       </c>
       <c r="G2" s="1">
-        <v>1.4564005265891499E-15</v>
+        <v>8.81883099957233E-4</v>
       </c>
       <c r="H2">
-        <v>0.68435754189944098</v>
+        <v>0.86126629422718803</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4193,22 +7983,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.5000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.5E-3</v>
       </c>
       <c r="F3">
-        <v>1.2448781702182801</v>
+        <v>1.47070759386234</v>
       </c>
       <c r="G3" s="1">
-        <v>5.5369876586276299E-14</v>
+        <v>1.62938992923793E-4</v>
       </c>
       <c r="H3">
-        <v>0.70111731843575398</v>
+        <v>0.84357541899441302</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4222,22 +8012,22 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>2E-3</v>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F4">
-        <v>1.3643240271757999</v>
+        <v>1.4032604159665101</v>
       </c>
       <c r="G4" s="1">
-        <v>2.22359699343785E-7</v>
+        <v>1.3151408832076801E-7</v>
       </c>
       <c r="H4">
-        <v>0.78864059590316604</v>
+        <v>0.78491620111731797</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4251,22 +8041,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F5">
-        <v>1.2417358410684001</v>
+        <v>1.36975724273643</v>
       </c>
       <c r="G5" s="1">
-        <v>4.1017704702792302E-15</v>
+        <v>5.2446693532215099E-9</v>
       </c>
       <c r="H5">
-        <v>0.68901303538175096</v>
+        <v>0.76350093109869599</v>
       </c>
       <c r="I5">
-        <v>27</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4280,22 +8070,22 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F6">
-        <v>1.3735469129972799</v>
+        <v>1.3398304508691701</v>
       </c>
       <c r="G6" s="1">
-        <v>3.8625921326728899E-10</v>
+        <v>2.1328431013976199E-13</v>
       </c>
       <c r="H6">
-        <v>0.74767225325884501</v>
+        <v>0.707635009310987</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4321,25 +8111,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.334191527498163</v>
+        <v>4.3512034898466001E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.56E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F8">
-        <v>1.4488254613709799</v>
+        <v>1.48211474970139</v>
       </c>
       <c r="G8" s="1">
-        <v>0.77731225170713303</v>
+        <v>0.15252164154182801</v>
       </c>
       <c r="H8">
-        <v>0.98696461824953396</v>
+        <v>1.0633147113593999</v>
       </c>
       <c r="I8">
-        <v>31</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4350,25 +8140,25 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.67896651845659495</v>
+        <v>0.261005651987747</v>
       </c>
       <c r="D9">
-        <v>2.9000000000000001E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F9">
-        <v>1.3780622522133199</v>
+        <v>1.5447951214278699</v>
       </c>
       <c r="G9" s="1">
-        <v>0.28383296764629501</v>
+        <v>0.41407847781852303</v>
       </c>
       <c r="H9">
-        <v>1.0474860335195499</v>
+        <v>1.0363128491620099</v>
       </c>
       <c r="I9">
-        <v>29</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4379,25 +8169,25 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.427826452719062</v>
+        <v>8.4018199948565006E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E10">
-        <v>2E-3</v>
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F10">
-        <v>1.4581107155781201</v>
+        <v>1.5051345193817001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.98270692227788603</v>
+        <v>0.71124126188985204</v>
       </c>
       <c r="H10">
-        <v>1.00186219739292</v>
+        <v>0.983240223463687</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4408,25 +8198,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.43526631107494901</v>
+        <v>3.2057197044691099E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>3.73E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F11">
-        <v>1.3725730502667299</v>
+        <v>1.5019815477618499</v>
       </c>
       <c r="G11" s="1">
-        <v>0.247497933112028</v>
+        <v>0.39015580177518799</v>
       </c>
       <c r="H11">
-        <v>1.0512104283054</v>
+        <v>1.03817504655493</v>
       </c>
       <c r="I11">
-        <v>34</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4437,25 +8227,25 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>0.62408341637540099</v>
+        <v>1.1039050039822499E-3</v>
       </c>
       <c r="D12" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F12">
-        <v>1.48956747649668</v>
+        <v>1.49158347089473</v>
       </c>
       <c r="G12" s="1">
-        <v>0.33421391407658402</v>
+        <v>0.230628632798242</v>
       </c>
       <c r="H12">
-        <v>1.04283054003724</v>
+        <v>1.0530726256983201</v>
       </c>
       <c r="I12">
-        <v>37</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4481,25 +8271,25 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.334191527498163</v>
+        <v>3.9701575520013403E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F14">
-        <v>1.4488254613709799</v>
+        <v>1.48211474970139</v>
       </c>
       <c r="G14">
-        <v>0.77731225170713303</v>
+        <v>0.109897115602011</v>
       </c>
       <c r="H14">
-        <v>0.98696461824953396</v>
+        <v>1.0707635009311001</v>
       </c>
       <c r="I14">
-        <v>31</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4510,25 +8300,25 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.67896651845659495</v>
+        <v>0.27641071005429602</v>
       </c>
       <c r="D15" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="F15">
-        <v>1.3780622522133199</v>
+        <v>1.5447951214278699</v>
       </c>
       <c r="G15">
-        <v>0.27442117204866301</v>
+        <v>0.37852397860418302</v>
       </c>
       <c r="H15">
-        <v>1.0484171322160101</v>
+        <v>1.0391061452514001</v>
       </c>
       <c r="I15">
-        <v>29</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4539,25 +8329,25 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.427826452719062</v>
+        <v>0.115187905472378</v>
       </c>
       <c r="D16" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E16">
-        <v>2E-3</v>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F16">
-        <v>1.4581107155781201</v>
+        <v>1.5051345193817001</v>
       </c>
       <c r="G16">
-        <v>0.94817706565693605</v>
+        <v>0.63149302198875101</v>
       </c>
       <c r="H16">
-        <v>1.0037243947858501</v>
+        <v>0.97858472998137802</v>
       </c>
       <c r="I16">
-        <v>33</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4568,25 +8358,25 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>0.43526631107494901</v>
+        <v>3.6132409009393299E-3</v>
       </c>
       <c r="D17" s="1">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F17">
-        <v>1.3725730502667299</v>
+        <v>1.5019815477618499</v>
       </c>
       <c r="G17">
-        <v>0.247497933112028</v>
+        <v>0.36711322054030798</v>
       </c>
       <c r="H17">
-        <v>1.0512104283054</v>
+        <v>1.04003724394786</v>
       </c>
       <c r="I17">
-        <v>34</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4597,25 +8387,25 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0.62408341637540099</v>
+        <v>4.2679377794738697E-4</v>
       </c>
       <c r="D18">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="F18">
-        <v>1.48956747649668</v>
+        <v>1.49158347089473</v>
       </c>
       <c r="G18">
-        <v>0.33421391407658402</v>
+        <v>0.199417055203471</v>
       </c>
       <c r="H18">
-        <v>1.04283054003724</v>
+        <v>1.0567970204841699</v>
       </c>
       <c r="I18">
-        <v>37</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4640,25 +8430,25 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.88384131602239602</v>
+        <v>0.96719962126471304</v>
       </c>
       <c r="D20">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F20">
-        <v>1.4110314174579599</v>
+        <v>1.4242076712881</v>
       </c>
       <c r="G20" s="1">
-        <v>9.7032476666988905E-3</v>
+        <v>1.22651972582646E-3</v>
       </c>
       <c r="H20">
-        <v>0.89106145251396696</v>
+        <v>0.864990689013035</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4669,25 +8459,25 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.71340248864103095</v>
       </c>
       <c r="D21">
-        <v>2.5999999999999999E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F21">
-        <v>1.3571162312888001</v>
+        <v>1.5007046622590701</v>
       </c>
       <c r="G21" s="1">
-        <v>0.51230141415826203</v>
+        <v>6.9131483131268396E-3</v>
       </c>
       <c r="H21">
-        <v>0.97113594040968299</v>
+        <v>0.88640595903165698</v>
       </c>
       <c r="I21">
-        <v>26</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4698,25 +8488,25 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.68428341045158503</v>
+        <v>0.52128056683483304</v>
       </c>
       <c r="D22">
-        <v>0.03</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F22">
-        <v>1.4370071510034299</v>
+        <v>1.4815755182736301</v>
       </c>
       <c r="G22" s="1">
-        <v>0.128251903102791</v>
+        <v>1.7295945918926001E-2</v>
       </c>
       <c r="H22">
-        <v>0.93482309124767204</v>
+        <v>0.89944134078212301</v>
       </c>
       <c r="I22">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4727,25 +8517,25 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.59707531158507199</v>
+        <v>9.8485923815412296E-2</v>
       </c>
       <c r="D23">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>3.39E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F23">
-        <v>1.3758301969617099</v>
+        <v>1.46775641696244</v>
       </c>
       <c r="G23" s="1">
-        <v>0.21845204198962501</v>
+        <v>0.179555659490514</v>
       </c>
       <c r="H23">
-        <v>0.94692737430167595</v>
+        <v>0.94227188081936697</v>
       </c>
       <c r="I23">
-        <v>32</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4756,1856 +8546,26 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>0.62408341637540099</v>
+        <v>1.1000731100329701E-2</v>
       </c>
       <c r="D24">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>3.49E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F24">
-        <v>1.4541536347767601</v>
+        <v>1.48064417528929</v>
       </c>
       <c r="G24" s="1">
-        <v>0.66296655585615505</v>
+        <v>0.55564710926118299</v>
       </c>
       <c r="H24">
-        <v>0.98044692737430195</v>
+        <v>0.97392923649906904</v>
       </c>
       <c r="I24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EECEB8-E8FF-41C3-972E-3FC1A2544F02}">
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECA4403-F8D1-4751-999D-688582787D90}">
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F2C79-CE31-460A-A855-FB31D20F3B44}">
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5AAEF-BB3D-43CE-A7D2-C811D186D60D}">
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05735F4-FD3F-40F9-8685-B1D1CA0BCEFB}">
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>349</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7832FDC3-8BB7-43FC-BE20-9A7502D4D52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FE514-C143-4939-947F-BF26B12C535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -7892,7 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05735F4-FD3F-40F9-8685-B1D1CA0BCEFB}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I26"/>
     </sheetView>
   </sheetViews>
@@ -9409,7 +9409,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9466,9 +9466,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.94706026322132997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.59321640140943E-5</v>
+      </c>
+      <c r="H2">
+        <v>0.82600561272216999</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9477,7 +9495,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.91212234175247298</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9436884521800902E-7</v>
+      </c>
+      <c r="H3">
+        <v>0.79232927970065503</v>
+      </c>
+      <c r="I3">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9486,7 +9524,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.94751527912852795</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.6246334240772202E-9</v>
+      </c>
+      <c r="H4">
+        <v>0.75865294667913896</v>
+      </c>
+      <c r="I4">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9495,8 +9553,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.94890020537192798</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.6602226141759695E-10</v>
+      </c>
+      <c r="H5">
+        <v>0.75116931711880297</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -9505,7 +9582,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.95453424000409903</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.5918255915872305E-10</v>
+      </c>
+      <c r="H6">
+        <v>0.74929840972871797</v>
+      </c>
+      <c r="I6">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9529,8 +9626,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.224685697949187</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.0097674286146501</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.157704325799535</v>
+      </c>
+      <c r="H8">
+        <v>1.06267539756782</v>
+      </c>
+      <c r="I8">
+        <v>108</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9539,7 +9655,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.13628436045314901</v>
+      </c>
+      <c r="D9">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.99382477597593399</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.134362576857496</v>
+      </c>
+      <c r="H9">
+        <v>1.06641721234799</v>
+      </c>
+      <c r="I9">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -9548,8 +9684,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.13170701436249399</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0251022400863601</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.54005134005670696</v>
+      </c>
+      <c r="H10">
+        <v>0.97287184284377903</v>
+      </c>
+      <c r="I10">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9558,9 +9713,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.27376977999656898</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.01586474072178</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.79361421206506499</v>
+      </c>
+      <c r="H11">
+        <v>0.98783910196445301</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9569,8 +9742,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>6.4088842550604194E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.0134819970198801</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.32280671466855199</v>
+      </c>
+      <c r="H12">
+        <v>0.95696913002806405</v>
+      </c>
+      <c r="I12">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9594,7 +9786,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.224685697949187</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.0097674286146501</v>
+      </c>
+      <c r="G14">
+        <v>0.145670627340727</v>
+      </c>
+      <c r="H14">
+        <v>1.0645463049579</v>
+      </c>
+      <c r="I14">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9603,7 +9815,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.13628436045314901</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.99382477597593399</v>
+      </c>
+      <c r="G15">
+        <v>0.134362576857496</v>
+      </c>
+      <c r="H15">
+        <v>1.06641721234799</v>
+      </c>
+      <c r="I15">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -9612,7 +9844,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.13170701436249399</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0251022400863601</v>
+      </c>
+      <c r="G16">
+        <v>0.54005134005670696</v>
+      </c>
+      <c r="H16">
+        <v>0.97287184284377903</v>
+      </c>
+      <c r="I16">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -9621,8 +9873,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.27376977999656898</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.01586474072178</v>
+      </c>
+      <c r="G17">
+        <v>0.79361421206506499</v>
+      </c>
+      <c r="H17">
+        <v>0.98783910196445301</v>
+      </c>
+      <c r="I17">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -9630,6 +9901,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6.4088842550604194E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0134819970198801</v>
+      </c>
+      <c r="G18">
+        <v>0.32280671466855199</v>
+      </c>
+      <c r="H18">
+        <v>0.95696913002806405</v>
+      </c>
+      <c r="I18">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -9653,7 +9945,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>9.4065897034587996E-4</v>
+      </c>
+      <c r="D20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.89452925286568297</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.9909530854634499E-52</v>
+      </c>
+      <c r="H20">
+        <v>0.44153414405986902</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -9662,7 +9974,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>2.7338452832623501E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.89183304240456396</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.2516738787771003E-33</v>
+      </c>
+      <c r="H21">
+        <v>0.5444340505145</v>
+      </c>
+      <c r="I21">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -9671,7 +10003,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>7.2372419482005096E-4</v>
+      </c>
+      <c r="D22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.91084709928512797</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.01348063658097E-47</v>
+      </c>
+      <c r="H22">
+        <v>0.46398503274087899</v>
+      </c>
+      <c r="I22">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -9680,7 +10032,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>1.0110527536141699E-3</v>
+      </c>
+      <c r="D23">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.90467554450988596</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.12086145440566E-50</v>
+      </c>
+      <c r="H23">
+        <v>0.451824134705332</v>
+      </c>
+      <c r="I23">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -9689,7 +10061,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>3.1714276851191298E-4</v>
+      </c>
+      <c r="D24">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.91874975831797601</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.3079790150994601E-44</v>
+      </c>
+      <c r="H24">
+        <v>0.48175865294667902</v>
+      </c>
+      <c r="I24">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -9713,7 +10105,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.93258900244352805</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.0956975971422401E-5</v>
+      </c>
+      <c r="H26">
+        <v>0.818521983161833</v>
+      </c>
+      <c r="I26">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -9722,7 +10134,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>0.93380038912619401</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.91430860805330305</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.5342165406916899E-6</v>
+      </c>
+      <c r="H27">
+        <v>0.80916744621141301</v>
+      </c>
+      <c r="I27">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -9731,7 +10163,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.94497713266804495</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.1185770331466603E-9</v>
+      </c>
+      <c r="H28">
+        <v>0.76145930776426596</v>
+      </c>
+      <c r="I28">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -9740,7 +10192,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>0.868497876448168</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.93670857670462604</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.51519743621128E-10</v>
+      </c>
+      <c r="H29">
+        <v>0.74462114125350798</v>
+      </c>
+      <c r="I29">
+        <v>72</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -9749,7 +10221,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.93673428986588703</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.93619746387476199</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.5443792723237001E-10</v>
+      </c>
+      <c r="H30">
+        <v>0.74181478016838198</v>
+      </c>
+      <c r="I30">
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -9775,7 +10267,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9832,9 +10324,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.96989133621789902</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.1117854232709901E-10</v>
+      </c>
+      <c r="H2">
+        <v>0.73994387277829698</v>
+      </c>
+      <c r="I2">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9843,7 +10353,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.96695556385049797</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.2849916613885598E-4</v>
+      </c>
+      <c r="H3">
+        <v>0.85032740879326496</v>
+      </c>
+      <c r="I3">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9852,7 +10382,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.98056922325923701</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.8533817703424196E-6</v>
+      </c>
+      <c r="H4">
+        <v>0.815715622076707</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -9861,8 +10411,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.95815116509615395</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.3674139105636499E-6</v>
+      </c>
+      <c r="H5">
+        <v>0.80168381665107602</v>
+      </c>
+      <c r="I5">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -9871,7 +10440,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.998470700722217</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.6951480781487105E-5</v>
+      </c>
+      <c r="H6">
+        <v>0.83816651075771798</v>
+      </c>
+      <c r="I6">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -9895,8 +10484,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.13671796424438601</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.04012722618931</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H8">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I8">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -9914,8 +10522,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.17692900573221901</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>1.05628365438696</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H10">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I10">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -9924,9 +10551,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>3.4314616534415497E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.04754884384924</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.104533335826747</v>
+      </c>
+      <c r="H11">
+        <v>1.07202993451824</v>
+      </c>
+      <c r="I11">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -9935,8 +10580,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.284904788621622</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.0632071148606801</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.37743293456160498</v>
+      </c>
+      <c r="H12">
+        <v>1.03928905519177</v>
+      </c>
+      <c r="I12">
+        <v>137</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -9960,7 +10624,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.13671796424438601</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.04012722618931</v>
+      </c>
+      <c r="G14">
+        <v>0.497224183024428</v>
+      </c>
+      <c r="H14">
+        <v>0.97006548175865304</v>
+      </c>
+      <c r="I14">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -9978,7 +10662,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.17692900573221901</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.05628365438696</v>
+      </c>
+      <c r="G16">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H16">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I16">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -9987,8 +10691,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>3.4314616534415497E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.04754884384924</v>
+      </c>
+      <c r="G17">
+        <v>0.104533335826747</v>
+      </c>
+      <c r="H17">
+        <v>1.07202993451824</v>
+      </c>
+      <c r="I17">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -9996,6 +10719,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.284904788621622</v>
+      </c>
+      <c r="D18">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F18">
+        <v>1.0632071148606801</v>
+      </c>
+      <c r="G18">
+        <v>0.343855478949049</v>
+      </c>
+      <c r="H18">
+        <v>1.0420954162768901</v>
+      </c>
+      <c r="I18">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -10019,7 +10763,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>1.5687131946871401E-2</v>
+      </c>
+      <c r="D20">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.96039311119361903</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.5613523868334901E-40</v>
+      </c>
+      <c r="H20">
+        <v>0.50140318054256305</v>
+      </c>
+      <c r="I20">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -10028,7 +10792,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21" s="1">
+        <v>1.1711102951225001E-5</v>
+      </c>
+      <c r="D21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.88684261162362299</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.0581468814169698E-59</v>
+      </c>
+      <c r="H21">
+        <v>0.41066417212348</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -10037,7 +10821,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>1.74649863687516E-2</v>
+      </c>
+      <c r="D22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.97176239365938699</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.5549005199092E-20</v>
+      </c>
+      <c r="H22">
+        <v>0.637043966323667</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -10046,7 +10850,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.93860401344845101</v>
+      </c>
+      <c r="D23">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.95850297435138199</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.21562638203396E-27</v>
+      </c>
+      <c r="H23">
+        <v>0.58465855940130995</v>
+      </c>
+      <c r="I23">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -10055,7 +10879,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1">
+        <v>4.2116990319584497E-5</v>
+      </c>
+      <c r="D24">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.90601624092809097</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.24787624583657E-56</v>
+      </c>
+      <c r="H24">
+        <v>0.42376052385406898</v>
+      </c>
+      <c r="I24">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -10079,7 +10923,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.77233216176895203</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.96011522081624801</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.2254319638083599E-11</v>
+      </c>
+      <c r="H26">
+        <v>0.72778297474275</v>
+      </c>
+      <c r="I26">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -10088,7 +10952,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1">
+        <v>4.1744900159513598E-5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.08429789724595</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.9888290052029298E-7</v>
+      </c>
+      <c r="H27">
+        <v>1.2338634237605199</v>
+      </c>
+      <c r="I27">
+        <v>156</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -10097,7 +10981,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.64683937214617604</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F28">
+        <v>0.97181153211385396</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.1454825350366101E-6</v>
+      </c>
+      <c r="H28">
+        <v>0.80823199251637001</v>
+      </c>
+      <c r="I28">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -10106,7 +11010,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>0.87721527276615896</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.96475707360692098</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.0196717606953098E-6</v>
+      </c>
+      <c r="H29">
+        <v>0.814780168381665</v>
+      </c>
+      <c r="I29">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -10115,7 +11039,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>2.5073499862389701E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.90415026451650804</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.6102470566532494E-9</v>
+      </c>
+      <c r="H30">
+        <v>0.76613657623947595</v>
+      </c>
+      <c r="I30">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -10141,7 +11085,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10198,9 +11142,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.95684957470893295</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7.4395350504115404E-9</v>
+      </c>
+      <c r="H2">
+        <v>0.76520112254443395</v>
+      </c>
+      <c r="I2">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -10209,7 +11171,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F3">
+        <v>1.0433288767784299</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.6951480781487105E-5</v>
+      </c>
+      <c r="H3">
+        <v>0.83816651075771798</v>
+      </c>
+      <c r="I3">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -10218,7 +11200,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.89715869629208</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.1289095785102098E-37</v>
+      </c>
+      <c r="H4">
+        <v>0.52011225444340503</v>
+      </c>
+      <c r="I4">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -10227,8 +11229,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.91505149565032895</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.30067785081095E-27</v>
+      </c>
+      <c r="H5">
+        <v>0.58185219831618296</v>
+      </c>
+      <c r="I5">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -10237,7 +11258,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.0008174104607399</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.9498418698471198E-13</v>
+      </c>
+      <c r="H6">
+        <v>0.71468662301216102</v>
+      </c>
+      <c r="I6">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -10261,8 +11302,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.15823116127723599</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.0494378401323801</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.4456101879490899E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.1356407857810999</v>
+      </c>
+      <c r="I8">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -10271,7 +11331,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>2.70930350677136E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F9">
+        <v>1.08843592408932</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.450550158337017</v>
+      </c>
+      <c r="H9">
+        <v>1.03367633302152</v>
+      </c>
+      <c r="I9">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -10280,8 +11360,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1.7202321098492999E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0078940464184101</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.3570455980716299E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.1244153414406</v>
+      </c>
+      <c r="I10">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -10290,9 +11389,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1.0324602139378899E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0044002855001299</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.2141091545022702E-4</v>
+      </c>
+      <c r="H11">
+        <v>1.1618334892422799</v>
+      </c>
+      <c r="I11">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -10301,8 +11418,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>4.4288941809372401E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.09564137807039</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.93079596181770596</v>
+      </c>
+      <c r="H12">
+        <v>1.0046772684752101</v>
+      </c>
+      <c r="I12">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -10326,7 +11462,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.15823116127723599</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.0494378401323801</v>
+      </c>
+      <c r="G14">
+        <v>2.4456101879490899E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.1356407857810999</v>
+      </c>
+      <c r="I14">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -10335,7 +11491,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>2.3273300560005001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.08843592408932</v>
+      </c>
+      <c r="G15">
+        <v>0.53130759512008796</v>
+      </c>
+      <c r="H15">
+        <v>1.02806361085126</v>
+      </c>
+      <c r="I15">
+        <v>146</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -10344,7 +11520,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>8.8820258983779898E-4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0078940464184101</v>
+      </c>
+      <c r="G16">
+        <v>2.9896863230971802E-3</v>
+      </c>
+      <c r="H16">
+        <v>1.1328344246959801</v>
+      </c>
+      <c r="I16">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -10353,8 +11549,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>1.2428230414932099E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.0044002855001299</v>
+      </c>
+      <c r="G17">
+        <v>3.4722412002708298E-4</v>
+      </c>
+      <c r="H17">
+        <v>1.16089803554724</v>
+      </c>
+      <c r="I17">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -10362,6 +11577,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4.4288941809372401E-2</v>
+      </c>
+      <c r="D18">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.09564137807039</v>
+      </c>
+      <c r="G18">
+        <v>0.94805646224816997</v>
+      </c>
+      <c r="H18">
+        <v>1.00374181478017</v>
+      </c>
+      <c r="I18">
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -10385,7 +11621,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>3.71815166503636E-3</v>
+      </c>
+      <c r="D20">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.94983382146623097</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.30067785081095E-27</v>
+      </c>
+      <c r="H20">
+        <v>0.58185219831618296</v>
+      </c>
+      <c r="I20">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -10394,7 +11650,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>1.90807301867699E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.94486804207771102</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.17189994668348E-52</v>
+      </c>
+      <c r="H21">
+        <v>0.44246959775491101</v>
+      </c>
+      <c r="I21">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -10403,7 +11679,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.43437311425235797</v>
+      </c>
+      <c r="D22">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.99727383078293697</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6.7968007526743999E-32</v>
+      </c>
+      <c r="H22">
+        <v>0.55285313376987799</v>
+      </c>
+      <c r="I22">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -10412,7 +11708,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.58976827330485204</v>
+      </c>
+      <c r="D23">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.98449981873845704</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9.0388586370740406E-33</v>
+      </c>
+      <c r="H23">
+        <v>0.547240411599626</v>
+      </c>
+      <c r="I23">
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -10421,7 +11737,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>2.8608127550695601E-2</v>
+      </c>
+      <c r="D24">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.95287544141128699</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.9803423462072097E-56</v>
+      </c>
+      <c r="H24">
+        <v>0.42563143124415298</v>
+      </c>
+      <c r="I24">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -10445,7 +11781,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.71966554140474903</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.96791854207148598</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7.2147560511147898E-5</v>
+      </c>
+      <c r="H26">
+        <v>0.83536014967259098</v>
+      </c>
+      <c r="I26">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -10454,7 +11810,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>0.59332918515154798</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F27">
+        <v>1.0080903834624</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.88028565843397E-5</v>
+      </c>
+      <c r="H27">
+        <v>0.82694106641721199</v>
+      </c>
+      <c r="I27">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -10463,7 +11839,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1.55990201538763E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F28">
+        <v>0.957541943200371</v>
+      </c>
+      <c r="G28">
+        <v>1.72347732474062E-4</v>
+      </c>
+      <c r="H28">
+        <v>0.84377923292796997</v>
+      </c>
+      <c r="I28">
+        <v>111</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -10472,7 +11868,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>0.10416143404469</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.97044425535867695</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.0196717606953098E-6</v>
+      </c>
+      <c r="H29">
+        <v>0.814780168381665</v>
+      </c>
+      <c r="I29">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -10481,7 +11897,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.0062918260376801</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.9699799456667302E-12</v>
+      </c>
+      <c r="H30">
+        <v>0.72029934518241301</v>
+      </c>
+      <c r="I30">
+        <v>96</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -10506,8 +11942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60BABD5-256D-4CC7-95AE-97F2251E7677}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10564,9 +12000,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0287754527408901</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0687768245751399E-12</v>
+      </c>
+      <c r="H2">
+        <v>0.71842843779232901</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -10575,7 +12029,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.97347959501508097</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.4293235882139801E-16</v>
+      </c>
+      <c r="H3">
+        <v>0.67352666043030895</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -10584,7 +12058,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.96358583500616901</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.11324776359735E-8</v>
+      </c>
+      <c r="H4">
+        <v>0.77455565949485505</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -10593,8 +12087,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.0162007672124</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.3674139105636499E-6</v>
+      </c>
+      <c r="H5">
+        <v>0.80168381665107602</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -10603,7 +12116,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.93540750399272798</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.04389709641432E-21</v>
+      </c>
+      <c r="H6">
+        <v>0.62956033676333001</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -10627,8 +12160,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.60421741911983395</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.94372538280497298</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.109097780738501</v>
+      </c>
+      <c r="H8">
+        <v>1.0710944808231999</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -10637,7 +12189,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.47751167045609999</v>
+      </c>
+      <c r="D9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0153964794683801</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.87884432676124402</v>
+      </c>
+      <c r="H9">
+        <v>0.99251637043966301</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -10646,8 +12218,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0699687251522201</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.354824688066741</v>
+      </c>
+      <c r="H10">
+        <v>1.04115996258185</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -10656,9 +12247,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.20826778041063199</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.10756550282578</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16400100203014401</v>
+      </c>
+      <c r="H11">
+        <v>1.0617399438727799</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -10667,8 +12276,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.99143007223289303</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.58908789710186804</v>
+      </c>
+      <c r="H12">
+        <v>1.02432179607109</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -10692,7 +12320,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.60421741911983395</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.94372538280497298</v>
+      </c>
+      <c r="G14">
+        <v>0.100123783187647</v>
+      </c>
+      <c r="H14">
+        <v>1.0729653882132799</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -10701,7 +12349,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.47751167045609999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.0153964794683801</v>
+      </c>
+      <c r="G15">
+        <v>0.87884432676124402</v>
+      </c>
+      <c r="H15">
+        <v>0.99251637043966301</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -10710,7 +12378,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0699687251522201</v>
+      </c>
+      <c r="G16">
+        <v>0.28273607409613999</v>
+      </c>
+      <c r="H16">
+        <v>1.0477081384471501</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -10719,8 +12407,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.20826778041063199</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.10756550282578</v>
+      </c>
+      <c r="G17">
+        <v>0.16400100203014401</v>
+      </c>
+      <c r="H17">
+        <v>1.0617399438727799</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -10728,6 +12435,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.99143007223289303</v>
+      </c>
+      <c r="G18">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H18">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -10751,7 +12479,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0023841519693899</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.0454761106568899E-36</v>
+      </c>
+      <c r="H20">
+        <v>0.52666043030870002</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -10760,7 +12508,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.47751167045609999</v>
+      </c>
+      <c r="D21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.98103661248062601</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4.8681286649137001E-32</v>
+      </c>
+      <c r="H21">
+        <v>0.55191768007483599</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -10769,7 +12537,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.226518521844989</v>
+      </c>
+      <c r="D22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.91147836000936999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.56520961231234E-44</v>
+      </c>
+      <c r="H22">
+        <v>0.48362956033676302</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -10778,7 +12566,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.0070412290028199</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.3758883527081603E-20</v>
+      </c>
+      <c r="H23">
+        <v>0.64172123479887699</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -10787,7 +12595,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.42104777826742401</v>
+      </c>
+      <c r="D24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.91537071361807998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.17189994668348E-52</v>
+      </c>
+      <c r="H24">
+        <v>0.44246959775491101</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -10811,7 +12639,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0307494976681899</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.7339591675445E-11</v>
+      </c>
+      <c r="H26">
+        <v>0.729653882132834</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -10820,7 +12668,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.99884320026358597</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.8182921313251199E-10</v>
+      </c>
+      <c r="H27">
+        <v>0.74275023386342398</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -10829,7 +12697,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.94719777017811901</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.7061000728472501E-8</v>
+      </c>
+      <c r="H28">
+        <v>0.77362020579981305</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -10838,7 +12726,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.01205437302367</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.4017011410996503E-7</v>
+      </c>
+      <c r="H29">
+        <v>0.79700654817586503</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -10847,7 +12755,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.95117565136687099</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.4020989137596304E-17</v>
+      </c>
+      <c r="H30">
+        <v>0.67072029934518196</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -10872,8 +12800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C94F9-ECFF-4311-8DEF-E9CAD5877074}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10930,9 +12858,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.24264856356168</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.74028436693003E-6</v>
+      </c>
+      <c r="H2">
+        <v>0.80355472404116002</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -10941,7 +12887,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.3473036788514501</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.5428276978870896E-9</v>
+      </c>
+      <c r="H3">
+        <v>0.76333021515434996</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -10950,7 +12916,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.23291739459091</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.5303432218099698E-5</v>
+      </c>
+      <c r="H4">
+        <v>0.83442469597754898</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -10959,8 +12945,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.2271915921226</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.2707187146156701E-13</v>
+      </c>
+      <c r="H5">
+        <v>0.71375116931711902</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -10969,7 +12974,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.20708946335053</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.0009534647032699E-4</v>
+      </c>
+      <c r="H6">
+        <v>0.84939195509822296</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -10993,8 +13018,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.25159086108800099</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.3141295560097901</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.87884432676124402</v>
+      </c>
+      <c r="H8">
+        <v>0.99251637043966301</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -11003,7 +13047,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.78067832891870603</v>
+      </c>
+      <c r="D9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.4417847920296001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.98266658961540398</v>
+      </c>
+      <c r="H9">
+        <v>1.00187090739008</v>
+      </c>
+      <c r="I9">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -11012,8 +13076,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.41198870871873999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.3389013023071401</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.0742952643713603E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.12254443405051</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -11022,9 +13105,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3316671610091</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.74347569898463495</v>
+      </c>
+      <c r="H11">
+        <v>0.98503274087932602</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -11033,8 +13134,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.76782625726150699</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>1E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.2762458526331</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H12">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -11058,7 +13178,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.25159086108800099</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.3141295560097901</v>
+      </c>
+      <c r="G14">
+        <v>0.98266658961540398</v>
+      </c>
+      <c r="H14">
+        <v>1.00187090739008</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -11067,7 +13207,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.78067832891870603</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.4417847920296001</v>
+      </c>
+      <c r="G15">
+        <v>0.93063597241103302</v>
+      </c>
+      <c r="H15">
+        <v>0.99532273152479001</v>
+      </c>
+      <c r="I15">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -11076,7 +13236,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.41198870871873999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.3389013023071401</v>
+      </c>
+      <c r="G16">
+        <v>6.0742952643713603E-3</v>
+      </c>
+      <c r="H16">
+        <v>1.12254443405051</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -11085,8 +13265,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.3316671610091</v>
+      </c>
+      <c r="G17">
+        <v>0.74347569898463495</v>
+      </c>
+      <c r="H17">
+        <v>0.98503274087932602</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -11094,6 +13293,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.76782625726150699</v>
+      </c>
+      <c r="D18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.2762458526331</v>
+      </c>
+      <c r="G18">
+        <v>0.27332850390229302</v>
+      </c>
+      <c r="H18">
+        <v>1.0486435921421899</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -11117,7 +13337,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.42079234559473899</v>
+      </c>
+      <c r="D20">
+        <v>0.01</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.13661995861535</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.9588403550611002E-63</v>
+      </c>
+      <c r="H20">
+        <v>0.39476145930776402</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -11126,7 +13366,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.35497158559074798</v>
+      </c>
+      <c r="D21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.2705827581795801</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.1614851166805502E-37</v>
+      </c>
+      <c r="H21">
+        <v>0.51917680074836303</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -11135,7 +13395,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>9.7032984781438306E-2</v>
+      </c>
+      <c r="D22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.14156465761029</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.5748447319645101E-38</v>
+      </c>
+      <c r="H22">
+        <v>0.51262862488306804</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -11144,7 +13424,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.20014892701923</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.46484012962348E-41</v>
+      </c>
+      <c r="H23">
+        <v>0.495790458372311</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -11153,7 +13453,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>0.31942186060581601</v>
+      </c>
+      <c r="D24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.1245928984403999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.02820347816765E-37</v>
+      </c>
+      <c r="H24">
+        <v>0.51730589335827903</v>
+      </c>
+      <c r="I24">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -11177,7 +13497,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.72554060986773705</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.21302447648671</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.0520824614385601E-7</v>
+      </c>
+      <c r="H26">
+        <v>0.79045837231057103</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -11186,7 +13526,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>0.88825408283360197</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.3424586156310201</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7.4395350504115404E-9</v>
+      </c>
+      <c r="H27">
+        <v>0.76520112254443395</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -11195,7 +13555,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.57761602816656799</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.23989797293885</v>
+      </c>
+      <c r="G28">
+        <v>1.0112569500412799E-3</v>
+      </c>
+      <c r="H28">
+        <v>0.86248830682881195</v>
+      </c>
+      <c r="I28">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -11204,7 +13584,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.2288188323297899</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.7339591675445E-11</v>
+      </c>
+      <c r="H29">
+        <v>0.729653882132834</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -11213,7 +13613,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.17879233949329</v>
+      </c>
+      <c r="G30">
+        <v>1.4260239903873901E-4</v>
+      </c>
+      <c r="H30">
+        <v>0.84190832553788597</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -11238,8 +13658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61634976-D30A-4F21-A3DC-4D0E6EADF5B4}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11296,9 +13716,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.5796436034614401</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.39218309342570201</v>
+      </c>
+      <c r="H2">
+        <v>0.96258185219831605</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11307,7 +13745,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.49524822523548</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.35752763719278E-5</v>
+      </c>
+      <c r="H3">
+        <v>0.83068288119738098</v>
+      </c>
+      <c r="I3">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -11316,7 +13774,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.5384252351002401</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.5428276978870896E-9</v>
+      </c>
+      <c r="H4">
+        <v>0.76333021515434996</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -11325,8 +13803,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.3872483061821299</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.9699799456667302E-12</v>
+      </c>
+      <c r="H5">
+        <v>0.72029934518241301</v>
+      </c>
+      <c r="I5">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -11335,7 +13832,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.54611096631844</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.59022612257621E-7</v>
+      </c>
+      <c r="H6">
+        <v>0.78578110383536004</v>
+      </c>
+      <c r="I6">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -11359,8 +13876,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.64609367727341704</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E8">
+        <v>2E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.66741879708426</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.8883341552794601E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.1290926099158101</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -11369,7 +13905,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.42442839202685301</v>
+      </c>
+      <c r="D9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.5777657658691699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.139927470157762</v>
+      </c>
+      <c r="H9">
+        <v>1.0654817586529499</v>
+      </c>
+      <c r="I9">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -11378,8 +13934,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.50114337375770102</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>2E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.6544529725800601</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.761697452382186</v>
+      </c>
+      <c r="H10">
+        <v>1.0140318054256301</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -11388,9 +13963,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.34640575769223803</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.51106542234795</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.57858775877951E-4</v>
+      </c>
+      <c r="H11">
+        <v>1.17025257249766</v>
+      </c>
+      <c r="I11">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -11399,8 +13992,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.56830856380619499</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E12">
+        <v>1E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.63471497901277</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.89606982450870598</v>
+      </c>
+      <c r="H12">
+        <v>0.99345182413470501</v>
+      </c>
+      <c r="I12">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -11424,7 +14036,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.72896157633230696</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>2E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.66741879708426</v>
+      </c>
+      <c r="G14">
+        <v>2.4456101879490899E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.1356407857810999</v>
+      </c>
+      <c r="I14">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -11433,7 +14065,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.42442839202685301</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.5777657658691699</v>
+      </c>
+      <c r="G15">
+        <v>0.145670627340727</v>
+      </c>
+      <c r="H15">
+        <v>1.0645463049579</v>
+      </c>
+      <c r="I15">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -11442,7 +14094,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.50114337375770102</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E16">
+        <v>2E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.6544529725800601</v>
+      </c>
+      <c r="G16">
+        <v>0.778207029697355</v>
+      </c>
+      <c r="H16">
+        <v>1.01309635173059</v>
+      </c>
+      <c r="I16">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -11451,8 +14123,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1">
+        <v>0.34640575769223803</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E17">
+        <v>1E-3</v>
+      </c>
+      <c r="F17">
+        <v>1.51106542234795</v>
+      </c>
+      <c r="G17">
+        <v>1.7107488624281799E-4</v>
+      </c>
+      <c r="H17">
+        <v>1.1693171188026199</v>
+      </c>
+      <c r="I17">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -11460,6 +14151,27 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.56830856380619499</v>
+      </c>
+      <c r="D18">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.63471497901277</v>
+      </c>
+      <c r="G18">
+        <v>0.86166801761628398</v>
+      </c>
+      <c r="H18">
+        <v>0.99158091674462101</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -11483,7 +14195,27 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>0.20047263988102401</v>
+      </c>
+      <c r="D20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.4327341510424001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.9851280943155504E-29</v>
+      </c>
+      <c r="H20">
+        <v>0.57249766136576197</v>
+      </c>
+      <c r="I20">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -11492,7 +14224,27 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="C21">
+        <v>0.245584763775448</v>
+      </c>
+      <c r="D21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.3568288864981199</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.72221600366125E-43</v>
+      </c>
+      <c r="H21">
+        <v>0.48550046772684802</v>
+      </c>
+      <c r="I21">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -11501,7 +14253,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>0.20730597215105001</v>
+      </c>
+      <c r="D22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.3942196299054199</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.3788787875865697E-54</v>
+      </c>
+      <c r="H22">
+        <v>0.43498596819457402</v>
+      </c>
+      <c r="I22">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -11510,7 +14282,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>0.427826452719062</v>
+      </c>
+      <c r="D23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.3573517064275</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.3593687099728201E-36</v>
+      </c>
+      <c r="H23">
+        <v>0.52385406922357303</v>
+      </c>
+      <c r="I23">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -11519,7 +14311,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24">
+        <v>4.5630841435440002E-2</v>
+      </c>
+      <c r="D24">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.41830458180077</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.15468102351861E-45</v>
+      </c>
+      <c r="H24">
+        <v>0.47427502338634198</v>
+      </c>
+      <c r="I24">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -11543,7 +14355,27 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="C26">
+        <v>0.81619664895989896</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E26">
+        <v>2E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.66387987856859</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.3144590202922298E-7</v>
+      </c>
+      <c r="H26">
+        <v>1.2329279700654801</v>
+      </c>
+      <c r="I26">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -11552,7 +14384,27 @@
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.4745955745180701</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7.0196717606953098E-6</v>
+      </c>
+      <c r="H27">
+        <v>0.814780168381665</v>
+      </c>
+      <c r="I27">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -11561,7 +14413,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.53518734125685</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8.6102470566532494E-9</v>
+      </c>
+      <c r="H28">
+        <v>0.76613657623947595</v>
+      </c>
+      <c r="I28">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -11570,7 +14442,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E29">
+        <v>1E-3</v>
+      </c>
+      <c r="F29">
+        <v>1.3987411525790701</v>
+      </c>
+      <c r="G29">
+        <v>1.23926072439522E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.89429373246024302</v>
+      </c>
+      <c r="I29">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -11579,7 +14471,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.36976031330129799</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>1E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.61564000642282</v>
+      </c>
+      <c r="G30">
+        <v>0.63068824319245698</v>
+      </c>
+      <c r="H30">
+        <v>0.97848456501403203</v>
+      </c>
+      <c r="I30">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FE514-C143-4939-947F-BF26B12C535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4368316-865F-4577-8316-6B2514312F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="12" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1404,13 +1404,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.3799999999999992E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.628849736439586</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42488778737577293</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98409728718428402</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>43.8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1564,13 +1585,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.91397040749196345</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.3399999999999994E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6417640504308282</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47654673232562461</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0370439663236664</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>43.4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1724,12 +1766,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.88092529624311544</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>4.3799999999999992E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6417640504308282</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49262340218061257</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0368568755846563</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>43.8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1883,13 +1947,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>3.1047286109462856E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.4399999999999998E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3796087981012819</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.257878309903267E-38</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44957904583723102</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>24.4</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2043,11 +2128,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.51419562922662232</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.511832236084834</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0941386883523974E-3</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.78709073900841919</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>36.799999999999997</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2060,7 +2168,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2262,13 +2370,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.014E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0010883397619863</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6122605555968782</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99101964452759506</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>101.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2403,13 +2532,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.55631211654765222</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>9.5250000000000005E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.99372090205427699</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35696673084607444</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0711095055683029</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>95.25</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2542,12 +2692,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.55631211654765222</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.5250000000000005E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.99372090205427699</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35696673084607444</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0711095055683029</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>95.25</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2701,13 +2873,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>5.8477164918953036E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.906342569222088</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.068102581734555E-28</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52198316183348925</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -2861,11 +3054,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>5.3056759069832447E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.92052122820766535</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1376759646974577E-8</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.75397567820392908</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>73.599999999999994</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3245,7 +3461,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3447,13 +3663,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.2379999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.077957720566862</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6283488876493184</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0093545369504198</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>123.8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3607,13 +3844,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.65557007743978057</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.2799999999999997E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.075161313418596</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61897720439914339</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0231992516370418</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3767,12 +4025,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.68881887787848906</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.2719999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.075161313418596</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.6066876435311368</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0211412535079509</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>127.2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3926,13 +4206,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>8.8275875997771843E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.6999999999999994E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.9536822246879344</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6411591313414E-24</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48082319925163708</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4086,11 +4387,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.40184628704759701</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.0719999999999999E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0073450182435413</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12303140918931277</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.82825070159027125</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>107.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4103,7 +4427,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4305,13 +4629,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.6600000000000002E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3062612876467798</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4549203897019974E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72216014897579139</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>26.6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -4465,13 +4810,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.50006684522483402</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4294277911851658</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.52511279776398523</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0260707635009287</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>32.799999999999997</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4625,12 +4991,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.50006684522483402</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4294277911851658</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.51632446732026882</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0266294227188069</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>32.799999999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -4784,13 +5172,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.75785669088689089</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.407027726297732</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3063350325547064</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94487895716946002</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4849,6 +5258,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4861,7 +5272,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5063,13 +5474,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3600000000000001E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.87113851697349</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0196300162106085E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68864059590316562</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>125.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5223,13 +5655,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.28703340373746722</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.14640000000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2423489746090097</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30035557056125811</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.121787709497204</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>146.4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -5383,12 +5836,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.30331816584604437</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.14620000000000002</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2423489746090097</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30726102700236613</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.122532588454374</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>146.19999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -5542,13 +6017,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.43232685316102765</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.14020000000000002</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.54E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1394473392217082</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26742367802075551</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.93333333333333268</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>140.19999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -5607,6 +6103,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5619,7 +6117,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5821,13 +6319,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7115324149824875</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0819820713781401E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74897579143389215</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>229.2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5981,13 +6500,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.21996209623740035</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2385602773661777</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31747183181011362</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0914338919925497</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>255.6</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6141,12 +6681,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.293914849840473</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.25220000000000004</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2385602773661777</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26094170523109661</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.11024208566108</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>252.2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -6300,13 +6862,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.36402953348706613</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>5.099999999999999E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>5.020254351045514</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39906332115814547</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94916201117318377</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>248.8</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6365,6 +6948,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6377,7 +6962,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6579,13 +7164,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97063685537445754</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2985178135083624E-8</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74208566108007457</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>93.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6739,13 +7345,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>4.3568059860405059E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.2440000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0542972878610641</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45865501407530768</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0081936685288633</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>124.4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6899,12 +7526,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4.1830986155504388E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.2459999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0542972878610641</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45584309632128645</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0080074487895712</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>124.6</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7058,13 +7707,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.20153307856326216</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0489826941449101</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29534241806950379</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.92607076350093109</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>116.8</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -7123,6 +7793,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7135,7 +7807,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7337,13 +8009,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.6360000000000003E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1496015769745083</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6619610082164168E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71899441340782122</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>163.6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7497,13 +8190,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>3.4684524501647225E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.1660000000000002E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6000000000000003E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.264800332922404</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3995821410121298</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0391061452513992</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>216.6</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7657,12 +8371,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4.3039078189321719E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000003E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.264800332922404</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37675550626865478</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0404096834264429</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>216</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -7816,13 +8552,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.11442030696415853</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.0640000000000002E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2529202302662479</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25193799871264505</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94357541899441344</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>206.4</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -7881,6 +8638,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7893,7 +8652,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8095,13 +8854,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.1580000000000004E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999995E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.396018158239374</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0899177037039685E-4</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79217877094972033</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>315.8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -8255,13 +9035,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>7.8569102308645875E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.7339999999999998E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5051218818335079</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3797251631647266</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0348230912476695</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>373.4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8415,12 +9216,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.7068045145114834E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>3.7380000000000004E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999994E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5051218818335079</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33728887838774485</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0370577281191817</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>373.8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -8574,13 +9397,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.46227386633126377</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4709776888145061</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15212767654191525</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91340782122905018</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>343</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -8639,6 +9483,8 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8650,8 +9496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8853,13 +9699,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4499831405155721</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68036506942797903</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0223463687150818</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>30.8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -9013,13 +9880,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.04E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4494302250794799</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6977398375063506</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0150837988826829</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>30.4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -9173,12 +10061,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>3.04E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4494302250794799</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68863467877766715</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0158286778398509</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>30.4</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -9332,13 +10242,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.6705627913318738</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.6600000000000002E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4367651103319361</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4024684931167809</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.95512104283053989</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>26.6</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -9409,7 +10340,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9611,13 +10542,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>8.0600000000000012E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94202646589567141</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2660965395113924E-6</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77549111318989694</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>80.599999999999994</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -9771,13 +10723,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.16610713906240065</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0116082364837209</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38970783388947094</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0093545369504213</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>100.8</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -9931,12 +10904,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.16610713906240065</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.008E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0116082364837209</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38730109419770942</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0097287184284371</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>100.8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -10090,13 +11085,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6.0662063039831028E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>4.4400000000000004E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90412693947664735</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.5033477576203808E-34</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47670720299345176</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -10250,11 +11266,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.94780651108804981</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.0400000000000003E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.93295615674885291</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8991434093636178E-6</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.77511693171188045</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>80.400000000000006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10267,7 +11306,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10469,13 +11508,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>9.700000000000002E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97480759782920112</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6934310755958311E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80916744621141257</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -10609,13 +11669,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.15821659378316061</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.2150000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0517917098215477</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31211057906717499</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0332086061739938</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>121.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -10749,12 +11830,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.15821659378316061</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.2150000000000001E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0517917098215477</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.300196579530083</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0336763330215133</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>121.5</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -10908,13 +12011,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.19436199197146894</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.2799999999999991E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.93670346635122037</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1098016829436765E-21</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5115060804490178</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>62.8</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -11068,11 +12192,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.4597871803135371</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>9.8400000000000015E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.97702639765989618</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0945319395257012E-6</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.87015902712815618</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>98.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11085,7 +12232,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11287,13 +12434,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96264121077810239</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9391784262304341E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68400374181478019</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -11447,13 +12615,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>4.8331594480710047E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.272E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.049161894842126</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27789403737123874</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0920486435921419</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>127.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -11607,12 +12796,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4.782196733027666E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.2780000000000003E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.049161894842126</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29702931559986628</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.09223573433115</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>127.8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -11766,13 +12977,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.21167514795832379</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96587019089532455</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6015097153542276E-28</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51000935453695018</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -11926,11 +13158,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.48655103615097267</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.048E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000008E-5</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98205739002612269</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>5.606356486004497E-5</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.80823199251637023</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>104.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11943,7 +13198,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12145,13 +13400,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98348983079345353</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7970969142387651E-7</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71955098222637981</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -12305,13 +13581,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.58695528254627216</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0256172324968493</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41917113893969959</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0381665107577167</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12465,12 +13762,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.58695528254627216</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0256172324968493</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40895444231289285</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0394761459307766</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -12624,13 +13943,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.62501559411370267</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96346221341605731</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0751776705426057E-20</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52927970065481733</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>6.2</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -12784,11 +14124,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.98800409850008708</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5348605674345328E-7</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74275023386342354</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>9.1999999999999993</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12801,7 +14164,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13003,13 +14366,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2514301384954341</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3428921342025299E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.79289055191768021</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -13163,13 +14547,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.6424168311973909</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3405457327977459</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.57324684618915245</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0304957904583698</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>23.8</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -13323,12 +14728,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.6424168311973909</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.3799999999999998E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3405457327977459</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.58723621203554732</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0306828811973792</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>23.8</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -13482,13 +14909,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.43844375531454827</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.3599999999999998E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1747018399729701</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.6946391041152275E-38</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48793264733395703</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>13.6</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -13642,11 +15090,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.83828214417358138</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>2.1799999999999996E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2405984473759319</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3083440284016096E-4</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.79794200187090736</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>21.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13658,8 +15129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61634976-D30A-4F21-A3DC-4D0E6EADF5B4}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13861,13 +15332,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.6199999999999996E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7" si="1">AVERAGE(E2:E6)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7" si="2">AVERAGE(F2:F6)</f>
+        <v>1.5093352672595459</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="3">AVERAGE(G2:G6)</f>
+        <v>7.8445366654096765E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="4">AVERAGE(H2:H6)</f>
+        <v>0.81253507951356396</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>36.200000000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -14021,13 +15513,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.49727595291128085</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="5">AVERAGE(D8:D12)</f>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13" si="6">AVERAGE(E8:E12)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13" si="7">AVERAGE(F8:F12)</f>
+        <v>1.6090835873788418</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="8">AVERAGE(G8:G12)</f>
+        <v>0.3603481879959623</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="9">AVERAGE(H8:H12)</f>
+        <v>1.074462114125351</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>43.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -14181,12 +15694,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.51384953272305878</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19" si="10">AVERAGE(D14:D18)</f>
+        <v>4.3000000000000003E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19" si="11">AVERAGE(E14:E18)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19" si="12">AVERAGE(F14:F18)</f>
+        <v>1.6090835873788418</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" ref="G19" si="13">AVERAGE(G14:G18)</f>
+        <v>0.35763247194571157</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19" si="14">AVERAGE(H14:H18)</f>
+        <v>1.0748362956033664</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -14340,13 +15875,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.22536413399240479</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25" si="15">AVERAGE(D20:D24)</f>
+        <v>2.52E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25" si="16">AVERAGE(E20:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25" si="17">AVERAGE(F20:F24)</f>
+        <v>1.3918877911348422</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ref="G25" si="18">AVERAGE(G20:G24)</f>
+        <v>1.1970256460504877E-29</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25" si="19">AVERAGE(H20:H24)</f>
+        <v>0.49822263797941985</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>25.2</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -14500,11 +16056,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.83719139245223939</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="20">AVERAGE(D26:D30)</f>
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="20"/>
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="20"/>
+        <v>1.5376087906690803</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="20"/>
+        <v>0.1286176420328638</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="20"/>
+        <v>0.9373246024321793</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>38.200000000000003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14516,8 +16095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14719,13 +16298,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.14140000000000003</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3800000000000002E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1822456313878842</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62490296951745261</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0240223463687153</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>141.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -14879,13 +16479,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.96791835911489377</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.14140000000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000002E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1817355940608176</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65367107825738346</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0195530726256965</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>141.4</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -15039,12 +16660,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.97937618978410834</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.14100000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.34E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1817355940608176</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63119405845910737</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0195530726256983</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>141</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -15198,13 +16841,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.66586540658755167</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0751700363372341</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2154682920638281E-2</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90968342644320299</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -15274,8 +16938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -15477,13 +17141,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>0.24880000000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3718226106021039</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24498688497181878</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.154003724394786</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>248.8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -15637,13 +17322,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.8711807558124105</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>0.251</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3792235901582002</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22866216117987198</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.141713221601488</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>251</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -15797,12 +17503,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.90249193745552747</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.24700000000000003</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5400000000000005E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>5.3792235901582002</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24671800275425637</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.142085661080074</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -15956,13 +17684,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.67655445289647465</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>0.2414</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.36E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9854796896239639</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19629827545189721</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91638733705772801</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>241.4</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -16032,8 +17781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16235,13 +17984,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.2620000000000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.069088705577284</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35846052856378235</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0121042830540035</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>126.2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -16395,13 +18165,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.9299333953425547</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.252E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0686187706889281</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37352902684944633</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0070763500931108</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>125.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -16555,12 +18346,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.9299333953425547</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.252E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0686187706889281</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36355670876681911</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.006331471135941</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>125.2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -16714,13 +18527,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.50256547473581681</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.1359999999999999E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.060152326967736</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21685891397062118</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.92811918063314747</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>113.6</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -16790,8 +18624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -16993,13 +18827,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2646970349750819</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39726188549060987</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.066294227188082</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>228</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -17153,13 +19008,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.89209624592539605</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>2.2460000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.26323063908897</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.43787355485314067</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0595903165735572</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>224.6</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -17313,12 +19189,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.91545768173408137</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.26323063908897</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4337664498835368</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0601489757914329</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -17472,13 +19370,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.51066697335498001</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.112E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.252384487876274</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25077159419393324</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94674115456238361</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>211.2</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -17548,8 +19467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -17751,13 +19670,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>3.4520000000000009E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2000000000000009E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4818044816100959</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24419872345837029</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1119180633147079</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>345.2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -17911,13 +19851,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.88511734049510427</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3999999999999993E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4808868323492042</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33991884851974108</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1003724394785839</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>347</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -18071,12 +20032,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.83194849555819717</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>3.4499999999999996E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4000000000000014E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4808868323492042</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36283924978284321</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0979515828677839</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>345</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -18230,13 +20213,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.30690127272107715</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4546918761869159</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47608283784260957</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>313.60000000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -18307,7 +20311,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I32"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18509,13 +20513,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0360610174019784</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57962144671724214</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97511693171188085</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -18669,13 +20694,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.74211113112472693</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.054232564428067</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59075621933675759</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.004303086997193</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -18829,12 +20875,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.74211113112472693</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.054232564428067</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59502826375569884</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0035547240411602</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -18988,13 +21056,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.41228657186598927</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.94873170163998533</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1970256220006805E-29</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51786716557530377</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>5.2</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -19148,11 +21237,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.75590107334396939</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>7.3999999999999995E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.95794913969843731</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>3.0634919514485073E-8</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74929840972871842</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>7.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19165,7 +21277,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -19367,13 +21479,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.296310325481554</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60555016887441848</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98447146866230262</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>25.6</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -19506,13 +21639,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.48660778650680381</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1285726956106095</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22188225146055809</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0608044901777389</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -19646,12 +21800,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.48660778650680381</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1285726956106095</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22170297177736922</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0572965388213285</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -19805,13 +21981,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.25493415348313359</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1675545564157519</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.206659592906252E-19</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53451824134705328</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>16.8</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -19965,11 +22162,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.40848114205845187</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>6.1800000000000008E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>5.8000000000000005E-3</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>1.7958807279942561</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7785536134433457E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>4.9107577174929755</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>61.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4368316-865F-4577-8316-6B2514312F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186B7EDF-4E81-411C-A43F-D12F7F452A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -245,13 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3094,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67B32B2-C93E-48BC-84CD-2D22E6B47A11}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3152,9 +3151,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.03706068506161</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.58908789710186804</v>
+      </c>
+      <c r="H2">
+        <v>1.02432179607109</v>
+      </c>
+      <c r="I2">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -3172,7 +3189,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0395406993138001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.29236508195593403</v>
+      </c>
+      <c r="H4">
+        <v>1.0467726847520999</v>
+      </c>
+      <c r="I4">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3181,8 +3218,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.0183531547431399</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.98265053392964596</v>
+      </c>
+      <c r="H5">
+        <v>0.998129092609916</v>
+      </c>
+      <c r="I5">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -3191,7 +3247,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.03873805626436</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.68101039454591406</v>
+      </c>
+      <c r="H6">
+        <v>1.01870907390084</v>
+      </c>
+      <c r="I6">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -3200,13 +3276,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:H7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.0825E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0334231488457275</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63627847688334049</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0219831618334863</v>
+      </c>
+      <c r="I7" s="2">
+        <f>AVERAGE(I2:I6)</f>
+        <v>108.25</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -3234,8 +3331,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.891416980601623</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0404442883951099</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.6725802197194395E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.0785781103835399</v>
+      </c>
+      <c r="I10">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -3244,9 +3360,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.01741049481501</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H11">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -3255,8 +3389,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.65207031844798002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.0383698713903</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H12">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I12">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3265,13 +3418,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="2">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.84782909968320108</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:H13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.1366666666666666E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0320748848668064</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.38642847286580712</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0445899594636732</v>
+      </c>
+      <c r="I13" s="2">
+        <f>AVERAGE(I8:I12)</f>
+        <v>113.66666666666667</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -3280,7 +3454,6 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -3289,7 +3462,6 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3298,7 +3470,27 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="C16">
+        <v>0.891416980601623</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.0404442883951099</v>
+      </c>
+      <c r="G16">
+        <v>8.0278552304675302E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.07764265668849</v>
+      </c>
+      <c r="I16">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -3307,8 +3499,27 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.01741049481501</v>
+      </c>
+      <c r="G17">
+        <v>0.60399049757861401</v>
+      </c>
+      <c r="H17">
+        <v>1.0233863423760501</v>
+      </c>
+      <c r="I17">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3317,6 +3528,27 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>0.65207031844798002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0383698713903</v>
+      </c>
+      <c r="G18">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H18">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I18">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -3325,12 +3557,34 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="C19" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.84782909968320108</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:H19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0320748848668064</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.38258721359807574</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0445899594636698</v>
+      </c>
+      <c r="I19" s="2">
+        <f>AVERAGE(I14:I18)</f>
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -3357,7 +3611,27 @@
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="C22">
+        <v>6.7631071009306796E-4</v>
+      </c>
+      <c r="D22">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.94349564895931204</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0786907158882396E-35</v>
+      </c>
+      <c r="H22">
+        <v>0.53414405986903601</v>
+      </c>
+      <c r="I22">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -3366,7 +3640,27 @@
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="C23">
+        <v>1.0996282786398101E-3</v>
+      </c>
+      <c r="D23">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.89047564335599205</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.5885879455001001E-60</v>
+      </c>
+      <c r="H23">
+        <v>0.405986903648269</v>
+      </c>
+      <c r="I23">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -3375,7 +3669,27 @@
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="C24" s="1">
+        <v>7.9262357807603493E-5</v>
+      </c>
+      <c r="D24">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.93719756107607</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.5748447319645101E-38</v>
+      </c>
+      <c r="H24">
+        <v>0.51262862488306804</v>
+      </c>
+      <c r="I24">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -3384,13 +3698,34 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="C25" s="2">
+        <f>AVERAGE(C20:C24)</f>
+        <v>6.1840044884682718E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:H25" si="3">AVERAGE(D20:D24)</f>
+        <v>6.2666666666666669E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.92372295113045799</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3600885202067347E-35</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48425319613345769</v>
+      </c>
+      <c r="I25" s="2">
+        <f>AVERAGE(I20:I24)</f>
+        <v>62.666666666666664</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -3417,7 +3752,27 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="C28">
+        <v>0.12779076476958401</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.95330769654733005</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.06712700649532E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.78297474275023404</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3426,7 +3781,27 @@
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="C29">
+        <v>2.4296534982960701E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.92529502609560299</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.2555536266561302E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.75771749298409696</v>
+      </c>
+      <c r="I29">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3435,7 +3810,27 @@
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="C30">
+        <v>0.45983465718223998</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.96078826477874901</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.7977755871413598E-6</v>
+      </c>
+      <c r="H30">
+        <v>0.80729653882132801</v>
+      </c>
+      <c r="I30">
+        <v>106</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -3444,11 +3839,34 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="2">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.20397398564492822</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:H31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.8333333333333337E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.94646366247389402</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>9.6891461380584927E-7</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.78266292485188638</v>
+      </c>
+      <c r="I31" s="2">
+        <f>AVERAGE(I26:I30)</f>
+        <v>88.333333333333329</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9496,7 +9914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -16095,7 +16513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2C081E-92D6-4B78-B185-DCBA62E5C9BB}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -16938,7 +17356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9AAFD-684E-44CB-B1B1-CDA94ECB61EF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -17781,7 +18199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE8AA4-C000-41F4-BF16-645937E24711}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -18624,7 +19042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F3453D-5969-43A8-99BA-C3A3B3B1D142}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -19467,7 +19885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
